--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -10,12 +10,12 @@
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
     <sheet name="MAKE UP KELUARGA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -153,16 +153,22 @@
   </si>
   <si>
     <t>bridal (makeup bee + 2 mama)</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>LUNAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,10 +212,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -299,6 +306,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -333,6 +341,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,25 +517,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -548,8 +555,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -563,12 +573,13 @@
         <v>55000000</v>
       </c>
       <c r="E2" s="1"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1">
         <f>E2*F2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -583,12 +594,13 @@
         <v>2500000</v>
       </c>
       <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G25" si="1">E3*F3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -603,12 +615,13 @@
         <v>2500000</v>
       </c>
       <c r="E4" s="1"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="1">
         <f>E4*F4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -623,12 +636,13 @@
         <v>10000000</v>
       </c>
       <c r="E5" s="1"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -642,13 +656,21 @@
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>6000000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -662,13 +684,21 @@
         <f t="shared" si="0"/>
         <v>3000000</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>2000000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -683,12 +713,13 @@
         <v>500000</v>
       </c>
       <c r="E8" s="1"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -703,12 +734,13 @@
         <v>1750000</v>
       </c>
       <c r="E9" s="1"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -723,12 +755,13 @@
         <v>1250000</v>
       </c>
       <c r="E10" s="1"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -743,12 +776,13 @@
         <v>200000</v>
       </c>
       <c r="E11" s="1"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -760,12 +794,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="1"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -780,39 +815,43 @@
         <v>600000</v>
       </c>
       <c r="E13" s="1"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -827,12 +866,13 @@
         <v>150000</v>
       </c>
       <c r="E17" s="1"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -847,12 +887,13 @@
         <v>2600000</v>
       </c>
       <c r="E18" s="1"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -867,12 +908,13 @@
         <v>1500000</v>
       </c>
       <c r="E19" s="1"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -886,13 +928,24 @@
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>2000000</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -907,12 +960,13 @@
         <v>500000</v>
       </c>
       <c r="E21" s="1"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -927,12 +981,13 @@
         <v>2000000</v>
       </c>
       <c r="E22" s="1"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -947,12 +1002,13 @@
         <v>2000000</v>
       </c>
       <c r="E23" s="1"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -967,24 +1023,26 @@
         <v>200000</v>
       </c>
       <c r="E24" s="1"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" s="1"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -999,12 +1057,13 @@
         <v>5000000</v>
       </c>
       <c r="E26" s="1"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="1">
         <f>E26*F26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1019,12 +1078,13 @@
         <v>3000000</v>
       </c>
       <c r="E27" s="1"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="1">
         <f>E27*F27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1039,12 +1099,13 @@
         <v>9000000</v>
       </c>
       <c r="E28" s="1"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="1">
         <f>E28*F28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1059,12 +1120,13 @@
         <v>3000000</v>
       </c>
       <c r="E29" s="1"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="1">
         <f>E29*F29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1079,12 +1141,13 @@
         <v>3200000</v>
       </c>
       <c r="E30" s="1"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="1">
         <f>E30*F30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1098,8 +1161,9 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1114,12 +1178,13 @@
         <v>2000000</v>
       </c>
       <c r="E32" s="1"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="1">
         <f>E32*F32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1134,44 +1199,46 @@
         <v>750000</v>
       </c>
       <c r="E33" s="1"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="1">
         <f>E33*F33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
     </row>
   </sheetData>
@@ -1181,21 +1248,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1209,7 +1276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1224,7 +1291,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1239,7 +1306,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1248,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1263,7 +1330,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1278,7 +1345,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1293,7 +1360,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -47,9 +47,6 @@
     <t>DRESS BEE</t>
   </si>
   <si>
-    <t>JAS + CELANA</t>
-  </si>
-  <si>
     <t>MAKE UP</t>
   </si>
   <si>
@@ -159,6 +156,12 @@
   </si>
   <si>
     <t>LUNAS</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>JAS + CELANA + VEST + KEMEJA</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -528,9 +533,10 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -556,7 +562,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -564,13 +570,14 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="C2">
         <v>300</v>
       </c>
       <c r="D2" s="1">
-        <v>55000000</v>
+        <f t="shared" ref="D2:D34" si="0">B2*C2</f>
+        <v>36000000</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="3"/>
@@ -581,7 +588,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>2500000</v>
@@ -590,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D33" si="0">B3*C3</f>
+        <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
       <c r="E3" s="1"/>
@@ -602,7 +609,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>2500000</v>
@@ -623,7 +630,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1">
         <v>10000000</v>
@@ -635,16 +642,20 @@
         <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>5000000</v>
@@ -672,7 +683,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>3000000</v>
@@ -700,7 +711,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>500000</v>
@@ -712,8 +723,12 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -721,7 +736,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>5000</v>
@@ -733,16 +748,20 @@
         <f t="shared" si="0"/>
         <v>1750000</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>350</v>
+      </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1680000</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>10000</v>
@@ -763,7 +782,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
         <v>50000</v>
@@ -784,7 +803,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -802,7 +821,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <v>15000</v>
@@ -853,7 +872,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>30000</v>
@@ -874,7 +893,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>1300000</v>
@@ -895,7 +914,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1">
         <v>1500000</v>
@@ -907,8 +926,12 @@
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -916,7 +939,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1">
         <v>2000000</v>
@@ -942,12 +965,12 @@
         <v>2000000</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>500000</v>
@@ -989,7 +1012,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1">
         <v>2000000</v>
@@ -1010,7 +1033,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>100000</v>
@@ -1044,7 +1067,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1">
         <v>5000000</v>
@@ -1086,7 +1109,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1">
         <v>9000000</v>
@@ -1107,7 +1130,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1">
         <v>3000000</v>
@@ -1128,7 +1151,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1">
         <v>3200000</v>
@@ -1149,7 +1172,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1">
         <v>500000</v>
@@ -1165,17 +1188,17 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="3"/>
@@ -1186,17 +1209,17 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1">
-        <v>750000</v>
+        <v>600000</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>750000</v>
+        <v>600000</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
@@ -1206,8 +1229,19 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="1">
+        <v>750000</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>750000</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="3"/>
       <c r="G34" s="1"/>
@@ -1264,21 +1298,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>500000</v>
@@ -1293,7 +1327,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>500000</v>
@@ -1308,7 +1342,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -1317,7 +1351,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>300000</v>
@@ -1332,7 +1366,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>300000</v>
@@ -1347,7 +1381,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>300000</v>
@@ -1362,7 +1396,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>300000</v>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -10,12 +10,12 @@
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
     <sheet name="MAKE UP KELUARGA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -47,6 +47,9 @@
     <t>DRESS BEE</t>
   </si>
   <si>
+    <t>JAS + CELANA</t>
+  </si>
+  <si>
     <t>MAKE UP</t>
   </si>
   <si>
@@ -158,20 +161,24 @@
     <t>LUNAS</t>
   </si>
   <si>
-    <t>JAM</t>
-  </si>
-  <si>
-    <t>JAS + CELANA + VEST + KEMEJA</t>
+    <t>desain undangan ketty</t>
+  </si>
+  <si>
+    <t>hotel ko bas &amp; chandra</t>
+  </si>
+  <si>
+    <t>tiket kereta PP Ko Bas &amp; Chandra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,11 +222,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -309,7 +317,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -344,7 +351,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,26 +526,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -562,22 +567,21 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="C2">
         <v>300</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D34" si="0">B2*C2</f>
-        <v>36000000</v>
+        <v>55000000</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="3"/>
@@ -586,9 +590,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>2500000</v>
@@ -597,19 +601,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D34" si="0">B3*C3</f>
         <v>2500000</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="3"/>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G25" si="1">E3*F3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G3:G26" si="1">E3*F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>2500000</v>
@@ -628,9 +632,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>10000000</v>
@@ -642,20 +646,16 @@
         <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
-      <c r="E5" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>5000000</v>
@@ -681,9 +681,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>3000000</v>
@@ -709,181 +709,194 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1">
+        <v>350000</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>700000</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1">
+        <f>E8*F8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <f>C9*B9</f>
         <v>500000</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
+      <c r="E9" s="1">
         <v>500000</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C9">
-        <v>350</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>1750000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F9" s="3">
-        <v>350</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>1680000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E10*F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1">
-        <v>10000</v>
+        <v>500000</v>
       </c>
       <c r="C10">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>1250000</v>
+        <f>B10*C10</f>
+        <v>500000</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
       <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E11*F10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>350</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>200000</v>
+        <f>B11*C11</f>
+        <v>1750000</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E12*F11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <v>125</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>B12*C12</f>
+        <v>1250000</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E13*F12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1">
-        <v>15000</v>
-      </c>
-      <c r="C13">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>600000</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="E13" s="1">
+        <v>750000</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="D14" s="1"/>
+        <f>E14*F13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <f>B14*C14</f>
+        <v>200000</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
+        <f>E15*F14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="D16" s="1"/>
+        <f>E16*F15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1">
+        <f>B16*C16</f>
+        <v>600000</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1">
-        <v>30000</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>150000</v>
-      </c>
+        <f>F16*F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
       <c r="G17" s="1">
@@ -891,19 +904,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1">
-        <v>1300000</v>
+        <v>30000</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>2600000</v>
+        <v>150000</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="3"/>
@@ -912,96 +925,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>1500000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
+        <v>2600000</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>2000000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
+        <v>1500000</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1">
         <v>2000000</v>
       </c>
-      <c r="H20" s="1">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="I20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1">
-        <v>500000</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2000000</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
-        <v>20000</v>
+        <v>500000</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="3"/>
@@ -1010,15 +1019,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1">
-        <v>2000000</v>
+        <v>20000</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
@@ -1031,19 +1040,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1">
-        <v>100000</v>
+        <v>2000000</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>200000</v>
+        <v>2000000</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
@@ -1052,11 +1061,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="3"/>
@@ -1065,40 +1082,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="1">
-        <v>5000000</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
+    <row r="26" spans="1:9">
+      <c r="B26" s="1"/>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="3"/>
       <c r="G26" s="1">
-        <f>E26*F26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="3"/>
@@ -1107,19 +1116,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1">
-        <v>9000000</v>
+        <v>3000000</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>9000000</v>
+        <v>3000000</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
@@ -1128,19 +1137,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1">
-        <v>3000000</v>
+        <v>9000000</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>9000000</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
@@ -1149,19 +1158,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1">
-        <v>3200000</v>
+        <v>3000000</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>3200000</v>
+        <v>3000000</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="3"/>
@@ -1170,56 +1179,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1">
+        <v>3200000</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>3200000</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="1">
+        <f>E31*F31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1">
         <v>500000</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>1500000</v>
-      </c>
-      <c r="E32" s="1"/>
       <c r="F32" s="3"/>
       <c r="G32" s="1">
         <f>E32*F32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1">
-        <v>600000</v>
+        <v>2000000</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>600000</v>
+        <v>2000000</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
@@ -1228,9 +1241,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1">
         <v>750000</v>
@@ -1244,36 +1257,46 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="1">
+        <f>E34*F34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="B39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="B40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1282,37 +1305,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>500000</v>
@@ -1325,9 +1348,9 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>500000</v>
@@ -1340,18 +1363,18 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>300000</v>
@@ -1364,9 +1387,9 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>300000</v>
@@ -1379,9 +1402,9 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>300000</v>
@@ -1394,9 +1417,9 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>300000</v>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
-    <sheet name="MAKE UP KELUARGA" sheetId="2" r:id="rId2"/>
+    <sheet name="PEMBAYARAN" sheetId="3" r:id="rId2"/>
+    <sheet name="MAKE UP KELUARGA" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -125,12 +126,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>MAMA ENG</t>
-  </si>
-  <si>
-    <t>MAMA GIEN</t>
-  </si>
-  <si>
     <t>LIAN</t>
   </si>
   <si>
@@ -168,17 +163,34 @@
   </si>
   <si>
     <t>tiket kereta PP Ko Bas &amp; Chandra</t>
+  </si>
+  <si>
+    <t>TANGGAL</t>
+  </si>
+  <si>
+    <t>NOMINAL</t>
+  </si>
+  <si>
+    <t>CAKE</t>
+  </si>
+  <si>
+    <t>FOTO</t>
+  </si>
+  <si>
+    <t>STATUS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +202,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -222,12 +242,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -317,6 +340,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -351,6 +375,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,14 +551,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -541,10 +566,10 @@
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -566,11 +591,8 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -590,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -611,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -632,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -653,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -677,11 +699,8 @@
         <f t="shared" si="1"/>
         <v>6000000</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -705,13 +724,10 @@
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
-      <c r="H7" s="1">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1">
         <v>350000</v>
@@ -731,11 +747,10 @@
         <f>E8*F8</f>
         <v>0</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1">
         <v>250000</v>
@@ -752,11 +767,11 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="1">
-        <f>E10*F9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <f>E9*F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -770,14 +785,16 @@
         <f>B10*C10</f>
         <v>500000</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <f>E11*F10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <f t="shared" ref="G10:G20" si="2">E10*F10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -794,11 +811,11 @@
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
       <c r="G11" s="1">
-        <f>E12*F11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -815,13 +832,16 @@
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
       <c r="G12" s="1">
-        <f>E13*F12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>750000</v>
       </c>
       <c r="E13" s="1">
         <v>750000</v>
@@ -830,11 +850,11 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <f>E14*F13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <f t="shared" si="2"/>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -851,11 +871,11 @@
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
       <c r="G14" s="1">
-        <f>E15*F14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -869,11 +889,11 @@
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
       <c r="G15" s="1">
-        <f>E16*F15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -890,21 +910,21 @@
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
       <c r="G16" s="1">
-        <f>F16*F16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -921,11 +941,11 @@
       <c r="E18" s="1"/>
       <c r="F18" s="3"/>
       <c r="G18" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -942,11 +962,11 @@
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
       <c r="G19" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -963,11 +983,11 @@
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
       <c r="G20" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -991,14 +1011,8 @@
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
-      <c r="H21" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="I21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1019,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1040,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1061,9 +1075,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>100000</v>
@@ -1082,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
@@ -1095,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1112,11 +1126,11 @@
       <c r="E27" s="1"/>
       <c r="F27" s="3"/>
       <c r="G27" s="1">
-        <f>E27*F27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <f t="shared" ref="G27:G34" si="3">E27*F27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1133,13 +1147,13 @@
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
       <c r="G28" s="1">
-        <f>E28*F28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1">
         <v>9000000</v>
@@ -1151,14 +1165,18 @@
         <f t="shared" si="0"/>
         <v>9000000</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
       <c r="G29" s="1">
-        <f>E29*F29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1175,11 +1193,11 @@
       <c r="E30" s="1"/>
       <c r="F30" s="3"/>
       <c r="G30" s="1">
-        <f>E30*F30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1196,13 +1214,13 @@
       <c r="E31" s="1"/>
       <c r="F31" s="3"/>
       <c r="G31" s="1">
-        <f>E31*F31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1">
         <v>500000</v>
@@ -1216,11 +1234,11 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="1">
-        <f>E32*F32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1237,11 +1255,11 @@
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
       <c r="G33" s="1">
-        <f>E33*F33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1258,44 +1276,44 @@
       <c r="E34" s="1"/>
       <c r="F34" s="3"/>
       <c r="G34" s="1">
-        <f>E34*F34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="3"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
     </row>
   </sheetData>
@@ -1305,21 +1323,322 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43409</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43410</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43420</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="C60" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1333,46 +1652,46 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D6" si="0">C2+B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B2">
-        <v>500000</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>C2+B2</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
       <c r="B3">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" si="0">C3+B3</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <f t="shared" si="0"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
+      <c r="B4">
+        <v>300000</v>
+      </c>
+      <c r="C4">
+        <v>250000</v>
+      </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1387,7 +1706,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1398,36 +1717,6 @@
         <v>250000</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7">
-        <v>300000</v>
-      </c>
-      <c r="C7">
-        <v>250000</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8">
-        <v>300000</v>
-      </c>
-      <c r="C8">
-        <v>250000</v>
-      </c>
-      <c r="D8">
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -39,9 +39,6 @@
     <t>JUMLAH REAL</t>
   </si>
   <si>
-    <t>VENUE + MAKAN</t>
-  </si>
-  <si>
     <t>KONSUMSI GEREJA</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>PERSEMBAHAN ROMO</t>
   </si>
   <si>
-    <t>MOBIL PENGANTIN</t>
-  </si>
-  <si>
     <t>CETAK FOTO</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>KUE BAGI</t>
   </si>
   <si>
-    <t>DEKORASI GEREJA</t>
-  </si>
-  <si>
     <t>DRESS</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>KIM2</t>
   </si>
   <si>
-    <t>CONFETI</t>
-  </si>
-  <si>
     <t>HAIR PIECE</t>
   </si>
   <si>
@@ -178,16 +166,81 @@
   </si>
   <si>
     <t>STATUS</t>
+  </si>
+  <si>
+    <t>VENUE + MAKAN HOTEL SANTIKA</t>
+  </si>
+  <si>
+    <t>Venue + Makan</t>
+  </si>
+  <si>
+    <t>PEPES TAHU</t>
+  </si>
+  <si>
+    <t>MIE KOCLOK</t>
+  </si>
+  <si>
+    <t>SEBLAK</t>
+  </si>
+  <si>
+    <t>TAHU GEJROT</t>
+  </si>
+  <si>
+    <t>EMPAL GENTONG</t>
+  </si>
+  <si>
+    <t>ALKITAB</t>
+  </si>
+  <si>
+    <t>PATUNG KELUARGA KUDUS</t>
+  </si>
+  <si>
+    <t>SALIB</t>
+  </si>
+  <si>
+    <t>ROSARIO</t>
+  </si>
+  <si>
+    <t>DP Desain Ketty</t>
+  </si>
+  <si>
+    <t>BELOM SI TAPI AKAN</t>
+  </si>
+  <si>
+    <t>KEMEJA</t>
+  </si>
+  <si>
+    <t>2 malam</t>
+  </si>
+  <si>
+    <t>Berangkat Bisnis Pulang Eksekutif</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>GA CETAK FOTO</t>
+  </si>
+  <si>
+    <t>DAPET DARI DEKORASI</t>
+  </si>
+  <si>
+    <t>2 MALAM</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>BAYAR DEWEK DEWEK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -247,10 +300,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,12 +617,13 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -591,30 +645,41 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="C2">
         <v>300</v>
       </c>
       <c r="D2" s="1">
-        <v>55000000</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
+        <f t="shared" ref="D2:D42" si="0">B2*C2</f>
+        <v>30000000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="7">
+        <v>300</v>
+      </c>
       <c r="G2" s="1">
         <f>E2*F2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30000000</v>
+      </c>
+      <c r="I2">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>2500000</v>
@@ -623,19 +688,23 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D34" si="0">B3*C3</f>
+        <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G26" si="1">E3*F3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G3:G23" si="1">E3*F3</f>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>2500000</v>
@@ -647,16 +716,23 @@
         <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
       <c r="G4" s="1">
         <f>E4*F4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2500000</v>
+      </c>
+      <c r="I4">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>10000000</v>
@@ -668,16 +744,23 @@
         <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10000000</v>
+      </c>
+      <c r="I5">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>5000000</v>
@@ -692,17 +775,20 @@
       <c r="E6" s="1">
         <v>6000000</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
         <v>6000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>3000000</v>
@@ -717,17 +803,20 @@
       <c r="E7" s="1">
         <v>2000000</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1">
         <v>350000</v>
@@ -740,17 +829,22 @@
         <v>700000</v>
       </c>
       <c r="E8" s="1">
-        <v>700000</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>350000</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
       <c r="G8" s="1">
         <f>E8*F8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>700000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1">
         <v>250000</v>
@@ -758,22 +852,27 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="4">
-        <f>C9*B9</f>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
         <v>500000</v>
       </c>
       <c r="E9" s="1">
-        <v>500000</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>250000</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
       <c r="G9" s="1">
         <f>E9*F9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>500000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>500000</v>
@@ -782,21 +881,24 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <f>B10*C10</f>
+        <f t="shared" si="0"/>
         <v>500000</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="1">
-        <f t="shared" ref="G10:G20" si="2">E10*F10</f>
+        <f t="shared" ref="G10:G19" si="2">E10*F10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>5000</v>
@@ -805,58 +907,82 @@
         <v>350</v>
       </c>
       <c r="D11" s="1">
-        <f>B11*C11</f>
+        <f t="shared" si="0"/>
         <v>1750000</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F11" s="7">
+        <v>350</v>
+      </c>
       <c r="G11" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1750000</v>
+      </c>
+      <c r="I11">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="C12">
         <v>125</v>
       </c>
       <c r="D12" s="1">
-        <f>B12*C12</f>
-        <v>1250000</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+        <f t="shared" si="0"/>
+        <v>1062500</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8500</v>
+      </c>
+      <c r="F12" s="7">
+        <v>125</v>
+      </c>
       <c r="G12" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1062500</v>
+      </c>
+      <c r="I12">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1">
+        <v>750000</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
         <v>750000</v>
       </c>
       <c r="E13" s="1">
         <v>750000</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="7">
         <v>1</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="2"/>
         <v>750000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>50000</v>
@@ -865,37 +991,46 @@
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <f>B14*C14</f>
+        <f t="shared" si="0"/>
         <v>200000</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>100000</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
       </c>
       <c r="D15" s="1">
-        <f>B15*C15</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>400000</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>15000</v>
@@ -904,29 +1039,36 @@
         <v>40</v>
       </c>
       <c r="D16" s="1">
-        <f>B16*C16</f>
+        <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F16" s="7">
+        <v>40</v>
+      </c>
       <c r="G16" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>600000</v>
+      </c>
+      <c r="I16">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1">
         <v>30000</v>
@@ -938,16 +1080,23 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5</v>
+      </c>
       <c r="G18" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+      <c r="I18">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>1300000</v>
@@ -959,362 +1108,1023 @@
         <f t="shared" si="0"/>
         <v>2600000</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="1">
+        <v>1300000</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
       <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2600000</v>
+      </c>
+      <c r="H19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>1500000</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+        <v>2000000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
       <c r="G20" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="I20">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="E21" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="F21" s="3">
+        <v>500000</v>
+      </c>
+      <c r="F21" s="7">
         <v>1</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+      <c r="I21">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1">
-        <v>500000</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F22" s="7">
+        <v>100</v>
+      </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
+      <c r="I22">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>2000000</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+        <v>5000000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
       <c r="G24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G24:G42" si="3">E24*F24</f>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>3000000</v>
+      </c>
+      <c r="I25">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9000000</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>9000000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="3"/>
+        <v>7000000</v>
+      </c>
+      <c r="I26">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="3"/>
+        <v>3000000</v>
+      </c>
+      <c r="I27">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3200000</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>3200000</v>
+      </c>
+      <c r="E28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="1">
-        <v>100000</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>200000</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="1">
-        <v>5000000</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>5000000</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="1">
-        <f t="shared" ref="G27:G34" si="3">E27*F27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>3000000</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1">
-        <v>9000000</v>
+        <v>500000</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>9000000</v>
+        <v>500000</v>
       </c>
       <c r="E29" s="1">
-        <v>7000000</v>
-      </c>
-      <c r="F29" s="1">
+        <v>500000</v>
+      </c>
+      <c r="F29" s="7">
         <v>1</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="3"/>
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>500000</v>
+      </c>
+      <c r="I29">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+        <v>2000000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
       <c r="G30" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1500000</v>
+      </c>
+      <c r="I30">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1">
-        <v>3200000</v>
+        <v>750000</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>3200000</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+        <v>750000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>525000</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
       <c r="G31" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>525000</v>
+      </c>
+      <c r="I31">
+        <v>525000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1">
-        <v>500000</v>
+        <v>450000</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="F32" s="3"/>
+        <v>450000</v>
+      </c>
+      <c r="E32" s="1">
+        <v>140000</v>
+      </c>
+      <c r="F32" s="7">
+        <v>3</v>
+      </c>
       <c r="G32" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1">
-        <v>2000000</v>
+        <v>2500</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>2000000</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F33" s="7">
+        <v>400</v>
+      </c>
       <c r="G33" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+      <c r="I33">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1">
-        <v>750000</v>
+        <v>10000</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>750000</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>12500</v>
+      </c>
+      <c r="F34" s="7">
+        <v>100</v>
+      </c>
       <c r="G34" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1250000</v>
+      </c>
+      <c r="I34">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>1250000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>12500</v>
+      </c>
+      <c r="F35" s="7">
+        <v>100</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="3"/>
+        <v>1250000</v>
+      </c>
+      <c r="I35">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>750000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F36" s="7">
+        <v>100</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="I36">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="1">
+        <v>25000</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>2500000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F37" s="7">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="3"/>
+        <v>2500000</v>
+      </c>
+      <c r="I37">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1">
+        <v>138000</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>138000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>125000</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="3"/>
+        <v>125000</v>
+      </c>
+      <c r="I39">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1">
+        <v>110000</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>110000</v>
+      </c>
+      <c r="E40" s="1">
+        <v>74250</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="3"/>
+        <v>74250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="1">
+        <v>70000</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>47250</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="3"/>
+        <v>47250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="E42" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F42" s="7">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+      <c r="I42">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1324,10 +2134,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,285 +2147,318 @@
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43409</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43410</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>43420</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="5">
-        <v>43409</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="5">
-        <v>43410</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5">
-        <v>43420</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="B5" s="4">
+        <v>43434</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="4">
+        <v>43434</v>
+      </c>
+      <c r="C6" s="5">
+        <v>250000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4">
+        <v>43440</v>
+      </c>
+      <c r="C7" s="5">
+        <v>450000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="5"/>
-      <c r="C52" s="6"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="5"/>
-      <c r="C55" s="6"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="5"/>
-      <c r="C56" s="6"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="5"/>
-      <c r="C57" s="6"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="5"/>
-      <c r="C59" s="6"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
-      <c r="C60" s="6"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1640,21 +2483,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D6" si="0">C2+B2</f>
@@ -1663,7 +2506,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>300000</v>
@@ -1678,7 +2521,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>300000</v>
@@ -1693,7 +2536,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>300000</v>
@@ -1708,7 +2551,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>300000</v>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projects\incrediblejournEYBEEwithyou\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="11760" windowHeight="8000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
     <sheet name="PEMBAYARAN" sheetId="3" r:id="rId2"/>
     <sheet name="MAKE UP KELUARGA" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -42,12 +47,6 @@
     <t>KONSUMSI GEREJA</t>
   </si>
   <si>
-    <t>DRESS BEE</t>
-  </si>
-  <si>
-    <t>JAS + CELANA</t>
-  </si>
-  <si>
     <t>MAKE UP</t>
   </si>
   <si>
@@ -96,18 +95,12 @@
     <t>PERSEMBAHAN ROMO</t>
   </si>
   <si>
-    <t>CETAK FOTO</t>
-  </si>
-  <si>
     <t>DEKORASI &amp; LIGHTING SIMPLE</t>
   </si>
   <si>
     <t>CAKE PENGANTIN</t>
   </si>
   <si>
-    <t>VAKSIN?</t>
-  </si>
-  <si>
     <t>KUE BAGI</t>
   </si>
   <si>
@@ -129,9 +122,6 @@
     <t>EPIN</t>
   </si>
   <si>
-    <t>KIM2</t>
-  </si>
-  <si>
     <t>HAIR PIECE</t>
   </si>
   <si>
@@ -177,15 +167,6 @@
     <t>PEPES TAHU</t>
   </si>
   <si>
-    <t>MIE KOCLOK</t>
-  </si>
-  <si>
-    <t>SEBLAK</t>
-  </si>
-  <si>
-    <t>TAHU GEJROT</t>
-  </si>
-  <si>
     <t>EMPAL GENTONG</t>
   </si>
   <si>
@@ -204,12 +185,6 @@
     <t>DP Desain Ketty</t>
   </si>
   <si>
-    <t>BELOM SI TAPI AKAN</t>
-  </si>
-  <si>
-    <t>KEMEJA</t>
-  </si>
-  <si>
     <t>2 malam</t>
   </si>
   <si>
@@ -219,19 +194,70 @@
     <t>NOTES</t>
   </si>
   <si>
-    <t>GA CETAK FOTO</t>
-  </si>
-  <si>
     <t>DAPET DARI DEKORASI</t>
   </si>
   <si>
     <t>2 MALAM</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>BAYAR DEWEK DEWEK</t>
+    <t>CETAK FOTO wedd galeri</t>
+  </si>
+  <si>
+    <t>angpao jaga tamu</t>
+  </si>
+  <si>
+    <t>es puter</t>
+  </si>
+  <si>
+    <t>WO</t>
+  </si>
+  <si>
+    <t>JAS</t>
+  </si>
+  <si>
+    <t>CELANA</t>
+  </si>
+  <si>
+    <t>VEST</t>
+  </si>
+  <si>
+    <t>PREWEDDING OUTFIT</t>
+  </si>
+  <si>
+    <t>BAHAN KAIN</t>
+  </si>
+  <si>
+    <t>MIAUNHA</t>
+  </si>
+  <si>
+    <t>CORSAGE, SIRKAM</t>
+  </si>
+  <si>
+    <t>OUTFIT PREWED</t>
+  </si>
+  <si>
+    <t>SHOPEE</t>
+  </si>
+  <si>
+    <t>OVO + CC</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>SALIB + PATUNG KELUARGA KUDUS</t>
+  </si>
+  <si>
+    <t>HARBOLNAS LAZADA</t>
+  </si>
+  <si>
+    <t>MIE GORENG</t>
+  </si>
+  <si>
+    <t>DP WO</t>
+  </si>
+  <si>
+    <t>PROGRAM CI VE</t>
   </si>
 </sst>
 </file>
@@ -239,11 +265,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="42" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +290,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -295,15 +329,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -313,6 +348,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -361,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,7 +434,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,25 +643,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.453125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -646,12 +684,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1">
         <v>100000</v>
@@ -660,7 +699,7 @@
         <v>300</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D42" si="0">B2*C2</f>
+        <f t="shared" ref="D2:D44" si="0">B2*C2</f>
         <v>30000000</v>
       </c>
       <c r="E2" s="1">
@@ -673,13 +712,10 @@
         <f>E2*F2</f>
         <v>30000000</v>
       </c>
-      <c r="I2">
-        <v>25000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>2500000</v>
@@ -698,13 +734,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G23" si="1">E3*F3</f>
+        <f t="shared" ref="G3:G24" si="1">E3*F3</f>
         <v>2500000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>2500000</v>
@@ -726,13 +762,10 @@
         <f>E4*F4</f>
         <v>2500000</v>
       </c>
-      <c r="I4">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <v>10000000</v>
@@ -754,537 +787,499 @@
         <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-      <c r="I5">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1">
-        <v>5000000</v>
+        <v>5750000</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>5000000</v>
+        <v>5750000</v>
       </c>
       <c r="E6" s="1">
-        <v>6000000</v>
+        <v>5750000</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
+        <v>5750000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
+      <c r="E7" s="1">
         <v>6000000</v>
-      </c>
-      <c r="I6">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>3000000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2000000</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
+      <c r="E8" s="1">
         <v>2000000</v>
       </c>
-      <c r="I7">
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1">
         <v>350000</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>700000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>350000</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <f>E8*F8</f>
-        <v>700000</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1">
-        <v>250000</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>500000</v>
+        <v>700000</v>
       </c>
       <c r="E9" s="1">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="F9" s="7">
         <v>2</v>
       </c>
       <c r="G9" s="1">
         <f>E9*F9</f>
+        <v>700000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="E10" s="1">
+        <v>250000</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <f>E10*F10</f>
         <v>500000</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1">
         <v>500000</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="1">
-        <f t="shared" ref="G10:G19" si="2">E10*F10</f>
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>500000</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ref="G11:G20" si="2">E11*F11</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
         <v>5000</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>350</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>1750000</v>
       </c>
-      <c r="E11" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E12" s="1">
+        <v>7100</v>
+      </c>
+      <c r="F12" s="7">
         <v>350</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="2"/>
-        <v>1750000</v>
-      </c>
-      <c r="I11">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1">
-        <v>8500</v>
-      </c>
-      <c r="C12">
-        <v>125</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>1062500</v>
-      </c>
-      <c r="E12" s="1">
-        <v>8500</v>
-      </c>
-      <c r="F12" s="7">
-        <v>125</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="2"/>
+        <v>2485000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8500</v>
+      </c>
+      <c r="C13">
+        <v>125</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
         <v>1062500</v>
       </c>
-      <c r="I12">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1">
-        <v>750000</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>750000</v>
-      </c>
       <c r="E13" s="1">
-        <v>750000</v>
+        <v>8500</v>
       </c>
       <c r="F13" s="7">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="2"/>
+        <v>1062500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1">
         <v>750000</v>
       </c>
-      <c r="I13">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1">
-        <v>50000</v>
-      </c>
       <c r="C14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>200000</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="7"/>
+        <v>750000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>750000</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
       <c r="G14" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>100000</v>
+        <v>15000</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>400000</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="7"/>
+        <v>30000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
       <c r="G15" s="1">
         <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1">
-        <v>15000</v>
-      </c>
-      <c r="C16">
-        <v>40</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>600000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>15000</v>
-      </c>
-      <c r="F16" s="7">
-        <v>40</v>
-      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="I16">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F17" s="7">
+        <v>40</v>
+      </c>
       <c r="G17" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1">
-        <v>30000</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>150000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>30000</v>
-      </c>
-      <c r="F18" s="7">
-        <v>5</v>
-      </c>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="I18">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1300000</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>2600000</v>
-      </c>
       <c r="E19" s="1">
-        <v>1300000</v>
+        <v>30000</v>
       </c>
       <c r="F19" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="2"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1300000</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>1300000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1300000</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="2"/>
         <v>2600000</v>
       </c>
-      <c r="H19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19">
-        <v>2600000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
         <v>2000000</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>2000000</v>
       </c>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
-      <c r="I20">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
         <v>500000</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>500000</v>
       </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
-      <c r="I21">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>20000</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>100</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>20000</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="7">
         <v>100</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G23" s="1">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
-      <c r="I22">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="1">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1">
         <v>5000000</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <v>5000000</v>
       </c>
-      <c r="F24" s="7">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" ref="G24:G42" si="3">E24*F24</f>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" ref="G25:G26" si="3">E25*F25</f>
         <v>5000000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>3000000</v>
-      </c>
-      <c r="E25" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="3"/>
-        <v>3000000</v>
-      </c>
-      <c r="I25">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1">
-        <v>9000000</v>
+        <v>7000000</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>9000000</v>
+        <v>7000000</v>
       </c>
       <c r="E26" s="1">
         <v>7000000</v>
@@ -1296,835 +1291,880 @@
         <f t="shared" si="3"/>
         <v>7000000</v>
       </c>
-      <c r="I26">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1">
-        <v>3000000</v>
+        <v>250000</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>750000</v>
       </c>
       <c r="E27" s="1">
-        <v>3000000</v>
+        <v>250000</v>
       </c>
       <c r="F27" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="3"/>
-        <v>3000000</v>
-      </c>
-      <c r="I27">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G27:G46" si="4">E27*F27</f>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1">
-        <v>3200000</v>
+        <v>500000</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>3200000</v>
+        <v>500000</v>
       </c>
       <c r="E28" s="1">
+        <v>500000</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="4"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="1">
+        <v>800000</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>800000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>800000</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="4"/>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="1">
+        <v>220000</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>220000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>220000</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="4"/>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="1">
+        <v>415000</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>415000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>415000</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="4"/>
+        <v>415000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1">
+        <v>560000</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>560000</v>
+      </c>
+      <c r="E32" s="1">
+        <v>560000</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="4"/>
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1227600</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="4"/>
+        <v>1227600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1551700</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>1551700</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1551700</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="4"/>
+        <v>1551700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1">
+        <v>538000</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>538000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>438000</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="4"/>
+        <v>438000</v>
+      </c>
+      <c r="H35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C36">
+        <v>500</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>1250000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F36" s="7">
+        <v>500</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="4"/>
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C37">
+        <v>300</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>4500000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F37" s="7">
+        <v>300</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="4"/>
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1250000</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>2500000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1250000</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="4"/>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="1">
+        <v>25000</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>2500000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F39" s="7">
+        <v>100</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="4"/>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1">
-        <v>500000</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="E29" s="1">
-        <v>500000</v>
-      </c>
-      <c r="F29" s="7">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="3"/>
-        <v>500000</v>
-      </c>
-      <c r="I29">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>2000000</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="3"/>
-        <v>1500000</v>
-      </c>
-      <c r="I30">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="1">
-        <v>750000</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>750000</v>
-      </c>
-      <c r="E31" s="1">
-        <v>525000</v>
-      </c>
-      <c r="F31" s="7">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="3"/>
-        <v>525000</v>
-      </c>
-      <c r="I31">
-        <v>525000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="1">
-        <v>450000</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>450000</v>
-      </c>
-      <c r="E32" s="1">
-        <v>140000</v>
-      </c>
-      <c r="F32" s="7">
-        <v>3</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="3"/>
-        <v>420000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="1">
+        <v>138000</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>138000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>125000</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="4"/>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="1">
+        <v>110000</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>110000</v>
+      </c>
+      <c r="E42" s="1">
+        <v>74250</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="4"/>
+        <v>74250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="1">
+        <v>70000</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+      <c r="E43" s="1">
+        <v>47250</v>
+      </c>
+      <c r="F43" s="7">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="4"/>
+        <v>47250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C33">
-        <v>400</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2500</v>
-      </c>
-      <c r="F33" s="7">
-        <v>400</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="3"/>
-        <v>1000000</v>
-      </c>
-      <c r="I33">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="E34" s="1">
-        <v>12500</v>
-      </c>
-      <c r="F34" s="7">
-        <v>100</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="3"/>
-        <v>1250000</v>
-      </c>
-      <c r="I34">
-        <v>1250000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="1">
-        <v>12500</v>
-      </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>1250000</v>
-      </c>
-      <c r="E35" s="1">
-        <v>12500</v>
-      </c>
-      <c r="F35" s="7">
-        <v>100</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="3"/>
-        <v>1250000</v>
-      </c>
-      <c r="I35">
-        <v>1250000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="1">
-        <v>7500</v>
-      </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="0"/>
-        <v>750000</v>
-      </c>
-      <c r="E36" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F36" s="7">
-        <v>100</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="3"/>
-        <v>1000000</v>
-      </c>
-      <c r="I36">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="1">
-        <v>25000</v>
-      </c>
-      <c r="C37">
-        <v>100</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="0"/>
-        <v>2500000</v>
-      </c>
-      <c r="E37" s="1">
-        <v>25000</v>
-      </c>
-      <c r="F37" s="7">
-        <v>100</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="3"/>
-        <v>2500000</v>
-      </c>
-      <c r="I37">
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="1">
-        <v>138000</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="0"/>
-        <v>138000</v>
-      </c>
-      <c r="E39" s="1">
-        <v>125000</v>
-      </c>
-      <c r="F39" s="7">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="3"/>
-        <v>125000</v>
-      </c>
-      <c r="I39">
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="1">
-        <v>110000</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="0"/>
-        <v>110000</v>
-      </c>
-      <c r="E40" s="1">
-        <v>74250</v>
-      </c>
-      <c r="F40" s="7">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="3"/>
-        <v>74250</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="1">
-        <v>70000</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="0"/>
-        <v>70000</v>
-      </c>
-      <c r="E41" s="1">
-        <v>47250</v>
-      </c>
-      <c r="F41" s="7">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="3"/>
-        <v>47250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="1">
+      <c r="B44" s="1">
         <v>15000</v>
       </c>
-      <c r="C42">
+      <c r="C44">
         <v>2</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D44" s="1">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E44" s="1">
         <v>15000</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F44" s="7">
         <v>2</v>
       </c>
-      <c r="G42" s="1">
-        <f t="shared" si="3"/>
+      <c r="G44" s="1">
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
-      <c r="I42">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G45" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1">
+        <f>C46*B46</f>
+        <v>500000</v>
+      </c>
+      <c r="E46" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F46" s="7">
+        <v>5</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="4"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="3"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="3"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="B50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1">
+        <f>SUM(D2:D49)</f>
+        <v>100525200</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="1">
+        <f>SUM(G2:G49)</f>
+        <v>102616300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="3"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="3"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="3"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="3"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="3"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="3"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="3"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="3"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="3"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="3"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="3"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="3"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="3"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
       <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2134,36 +2174,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4">
         <v>43409</v>
@@ -2172,12 +2213,12 @@
         <v>2000000</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4">
         <v>43410</v>
@@ -2186,12 +2227,12 @@
         <v>1000000</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>43420</v>
@@ -2200,29 +2241,26 @@
         <v>1000000</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B5" s="4">
-        <v>43434</v>
+        <v>43454</v>
       </c>
       <c r="C5" s="5">
         <v>5000000</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4">
         <v>43434</v>
@@ -2231,234 +2269,276 @@
         <v>250000</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B7" s="4">
-        <v>43440</v>
+        <v>43455</v>
       </c>
       <c r="C7" s="5">
-        <v>450000</v>
+        <v>1551700</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="4">
+        <v>43439</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1277600</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="4">
+        <v>43453</v>
+      </c>
+      <c r="C9" s="5">
+        <v>438000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="4">
+        <v>43446</v>
+      </c>
+      <c r="C10" s="5">
+        <v>128250</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="4">
+        <v>43827</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="5">
+        <f>SUM(C2:C49)</f>
+        <v>13645550</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2468,100 +2548,76 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D6" si="0">C2+B2</f>
+        <f t="shared" ref="D2:D5" si="0">C2+B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
-        <v>300000</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>250000</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>300000</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>250000</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>300000</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>250000</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>300000</v>
-      </c>
-      <c r="C6">
         <v>250000</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>550000</v>
       </c>
     </row>
   </sheetData>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projects\incrediblejournEYBEEwithyou\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="11760" windowHeight="8000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="11760" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
     <sheet name="PEMBAYARAN" sheetId="3" r:id="rId2"/>
     <sheet name="MAKE UP KELUARGA" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -80,9 +75,6 @@
     <t>CINCIN</t>
   </si>
   <si>
-    <t>KOTAK ANGPAO</t>
-  </si>
-  <si>
     <t>BALON + LED + BATERAI</t>
   </si>
   <si>
@@ -185,9 +177,6 @@
     <t>DP Desain Ketty</t>
   </si>
   <si>
-    <t>2 malam</t>
-  </si>
-  <si>
     <t>Berangkat Bisnis Pulang Eksekutif</t>
   </si>
   <si>
@@ -258,18 +247,30 @@
   </si>
   <si>
     <t>PROGRAM CI VE</t>
+  </si>
+  <si>
+    <t>BELUM LUNAS</t>
+  </si>
+  <si>
+    <t>36 ITEM</t>
+  </si>
+  <si>
+    <t>2 malam grand dian boutique hotel</t>
+  </si>
+  <si>
+    <t>OGI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +303,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +322,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -339,6 +360,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,7 +427,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,10 +459,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,7 +493,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -642,26 +668,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.453125" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,36 +710,36 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:9">
+      <c r="A2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="13">
         <v>100000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="12">
         <v>300</v>
       </c>
-      <c r="D2" s="1">
-        <f t="shared" ref="D2:D44" si="0">B2*C2</f>
+      <c r="D2" s="13">
+        <f t="shared" ref="D2:D43" si="0">B2*C2</f>
         <v>30000000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="13">
         <v>100000</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="14">
         <v>300</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="13">
         <f>E2*F2</f>
         <v>30000000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -734,11 +760,11 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G24" si="1">E3*F3</f>
+        <f t="shared" ref="G3:G23" si="1">E3*F3</f>
         <v>2500000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -753,19 +779,22 @@
         <v>2500000</v>
       </c>
       <c r="E4" s="1">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="1">
         <f>E4*F4</f>
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2000000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>10000000</v>
@@ -788,140 +817,140 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" spans="1:9">
+      <c r="A6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="13">
         <v>5750000</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
         <f t="shared" si="0"/>
         <v>5750000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="13">
         <v>5750000</v>
       </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
         <f t="shared" si="1"/>
         <v>5750000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="13">
         <v>5000000</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="13">
         <v>6000000</v>
       </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
         <f t="shared" si="1"/>
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="13">
         <v>3000000</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
         <v>3000000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="13">
         <v>2000000</v>
       </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="9" spans="1:9">
+      <c r="A9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="13">
         <v>350000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="12">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="13">
         <v>350000</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="14">
         <v>2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="13">
         <f>E9*F9</f>
         <v>700000</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="13">
         <v>250000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="12">
         <v>2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="13">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="13">
         <v>250000</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="14">
         <v>2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="13">
         <f>E10*F10</f>
         <v>500000</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1">
         <v>500000</v>
@@ -940,11 +969,11 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ref="G11:G20" si="2">E11*F11</f>
+        <f t="shared" ref="G11:G19" si="2">E11*F11</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -969,7 +998,7 @@
         <v>2485000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -994,32 +1023,32 @@
         <v>1062500</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="14" spans="1:9">
+      <c r="A14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="13">
         <v>750000</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="13">
         <v>750000</v>
       </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13">
         <f t="shared" si="2"/>
         <v>750000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1044,1127 +1073,1119 @@
         <v>30000</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1">
+        <v>15000</v>
+      </c>
       <c r="C16">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="7"/>
+        <v>600000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F16" s="7">
+        <v>40</v>
+      </c>
       <c r="G16" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1">
-        <v>15000</v>
-      </c>
-      <c r="C17">
-        <v>40</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="E17" s="1">
-        <v>15000</v>
-      </c>
-      <c r="F17" s="7">
-        <v>40</v>
-      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="1">
         <f t="shared" si="2"/>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5</v>
+      </c>
       <c r="G18" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>30000</v>
+        <v>1300000</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>150000</v>
+        <v>1300000</v>
       </c>
       <c r="E19" s="1">
-        <v>30000</v>
+        <v>1300000</v>
       </c>
       <c r="F19" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1300000</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>1300000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1300000</v>
-      </c>
-      <c r="F20" s="7">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="2"/>
         <v>2600000</v>
       </c>
-      <c r="H20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="10">
+        <v>2000000</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="E20" s="10">
+        <v>2000000</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="E21" s="1">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="F21" s="7">
         <v>1</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1">
-        <v>500000</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
       <c r="E22" s="1">
-        <v>500000</v>
+        <v>20000</v>
       </c>
       <c r="F22" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="E23" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F23" s="7">
-        <v>100</v>
-      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
       <c r="G24" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1">
+        <f t="shared" ref="G24:G25" si="3">E24*F24</f>
         <v>5000000</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>5000000</v>
-      </c>
-      <c r="E25" s="1">
-        <v>5000000</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" ref="G25:G26" si="3">E25*F25</f>
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="1">
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="13">
         <v>7000000</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="13">
         <f t="shared" si="0"/>
         <v>7000000</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E25" s="13">
         <v>7000000</v>
       </c>
-      <c r="F26" s="7">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13">
         <f t="shared" si="3"/>
         <v>7000000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B26" s="1">
         <v>250000</v>
       </c>
-      <c r="C27">
+      <c r="C26">
         <v>3</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D26" s="1">
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E26" s="1">
         <v>250000</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F26" s="7">
         <v>3</v>
       </c>
-      <c r="G27" s="1">
-        <f t="shared" ref="G27:G46" si="4">E27*F27</f>
+      <c r="G26" s="1">
+        <f t="shared" ref="G26:G45" si="4">E26*F26</f>
         <v>750000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="1">
+    <row r="27" spans="1:8">
+      <c r="A27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="13">
         <v>500000</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="D27" s="13">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E27" s="13">
         <v>500000</v>
       </c>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="F27" s="14">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13">
         <f t="shared" si="4"/>
         <v>500000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="1">
+    <row r="28" spans="1:8">
+      <c r="A28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="13">
         <v>800000</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E28" s="13">
         <v>800000</v>
       </c>
-      <c r="F29" s="7">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="F28" s="14">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13">
         <f t="shared" si="4"/>
         <v>800000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="1">
+    <row r="29" spans="1:8">
+      <c r="A29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="13">
         <v>220000</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13">
         <f t="shared" si="0"/>
         <v>220000</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E29" s="13">
         <v>220000</v>
       </c>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="F29" s="14">
+        <v>1</v>
+      </c>
+      <c r="G29" s="13">
         <f t="shared" si="4"/>
         <v>220000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="1">
+    <row r="30" spans="1:8">
+      <c r="A30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="13">
         <v>415000</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C30" s="12">
+        <v>1</v>
+      </c>
+      <c r="D30" s="13">
         <f t="shared" si="0"/>
         <v>415000</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E30" s="13">
         <v>415000</v>
       </c>
-      <c r="F31" s="7">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="F30" s="14">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13">
         <f t="shared" si="4"/>
         <v>415000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="1">
+    <row r="31" spans="1:8">
+      <c r="A31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="13">
         <v>560000</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="C31" s="12">
+        <v>1</v>
+      </c>
+      <c r="D31" s="13">
         <f t="shared" si="0"/>
         <v>560000</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E31" s="13">
         <v>560000</v>
       </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="F31" s="14">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13">
         <f t="shared" si="4"/>
         <v>560000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="1">
+    <row r="32" spans="1:8">
+      <c r="A32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="10">
         <v>1000000</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E32" s="10">
         <v>1227600</v>
       </c>
-      <c r="F33" s="7">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="F32" s="11">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10">
         <f t="shared" si="4"/>
         <v>1227600</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="1">
+    <row r="33" spans="1:8">
+      <c r="A33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="10">
         <v>1551700</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10">
         <f t="shared" si="0"/>
         <v>1551700</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E33" s="10">
         <v>1551700</v>
       </c>
-      <c r="F34" s="7">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="F33" s="11">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10">
         <f t="shared" si="4"/>
         <v>1551700</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8">
+      <c r="A34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="10">
+        <v>538000</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" si="0"/>
+        <v>538000</v>
+      </c>
+      <c r="E34" s="10">
+        <v>438000</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" si="4"/>
+        <v>438000</v>
+      </c>
+      <c r="H34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B35" s="1">
-        <v>538000</v>
+        <v>2500</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>538000</v>
+        <v>1250000</v>
       </c>
       <c r="E35" s="1">
-        <v>438000</v>
+        <v>2500</v>
       </c>
       <c r="F35" s="7">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="4"/>
-        <v>438000</v>
-      </c>
-      <c r="H35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B36" s="1">
-        <v>2500</v>
+        <v>15000</v>
       </c>
       <c r="C36">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>1250000</v>
+        <v>4500000</v>
       </c>
       <c r="E36" s="1">
-        <v>2500</v>
+        <v>15000</v>
       </c>
       <c r="F36" s="7">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="4"/>
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="1">
         <v>1250000</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="1">
-        <v>15000</v>
-      </c>
       <c r="C37">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>4500000</v>
+        <v>2500000</v>
       </c>
       <c r="E37" s="1">
-        <v>15000</v>
+        <v>1250000</v>
       </c>
       <c r="F37" s="7">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="4"/>
-        <v>4500000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1">
-        <v>1250000</v>
+        <v>25000</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
       <c r="E38" s="1">
-        <v>1250000</v>
+        <v>25000</v>
       </c>
       <c r="F38" s="7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="4"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="1">
-        <v>25000</v>
-      </c>
-      <c r="C39">
-        <v>100</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="0"/>
-        <v>2500000</v>
-      </c>
-      <c r="E39" s="1">
-        <v>25000</v>
-      </c>
-      <c r="F39" s="7">
-        <v>100</v>
-      </c>
+    <row r="39" spans="1:8">
+      <c r="B39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="1">
         <f t="shared" si="4"/>
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="1">
+        <v>138000</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>138000</v>
+      </c>
+      <c r="E40" s="1">
+        <v>125000</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
       <c r="G40" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="1">
-        <v>138000</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="0"/>
-        <v>138000</v>
-      </c>
-      <c r="E41" s="1">
-        <v>125000</v>
-      </c>
-      <c r="F41" s="7">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="4"/>
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="1">
+      <c r="B41" s="10">
         <v>110000</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10">
         <f t="shared" si="0"/>
         <v>110000</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E41" s="10">
         <v>74250</v>
       </c>
-      <c r="F42" s="7">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
+      <c r="F41" s="11">
+        <v>1</v>
+      </c>
+      <c r="G41" s="10">
         <f t="shared" si="4"/>
         <v>74250</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8">
+      <c r="A42" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="10">
+        <v>70000</v>
+      </c>
+      <c r="C42" s="9">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+      <c r="E42" s="10">
+        <v>47250</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10">
+        <f t="shared" si="4"/>
+        <v>47250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="1">
-        <v>70000</v>
+        <v>15000</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="E43" s="1">
-        <v>47250</v>
+        <v>15000</v>
       </c>
       <c r="F43" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="4"/>
-        <v>47250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="1">
-        <v>15000</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="E44" s="1">
-        <v>15000</v>
-      </c>
-      <c r="F44" s="7">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="3"/>
       <c r="G44" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1">
+        <f>C45*B45</f>
+        <v>500000</v>
+      </c>
+      <c r="E45" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F45" s="7">
+        <v>5</v>
+      </c>
       <c r="G45" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="1">
-        <v>100000</v>
-      </c>
-      <c r="C46">
-        <v>5</v>
-      </c>
-      <c r="D46" s="1">
-        <f>C46*B46</f>
         <v>500000</v>
       </c>
-      <c r="E46" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F46" s="7">
-        <v>5</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" si="4"/>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="B47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="3"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8">
       <c r="B48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="3"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B49" s="1"/>
-      <c r="D49" s="1"/>
+    <row r="49" spans="1:7">
+      <c r="A49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="1">
+        <f>SUM(D2:D48)</f>
+        <v>100525200</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="G49" s="1">
+        <f>SUM(G2:G48)</f>
+        <v>102116300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="B50" s="1"/>
-      <c r="D50" s="1">
-        <f>SUM(D2:D49)</f>
-        <v>100525200</v>
-      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="1">
-        <f>SUM(G2:G49)</f>
-        <v>102616300</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7">
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B52" s="1"/>
+    <row r="52" spans="1:7" ht="15.75">
+      <c r="A52" s="12"/>
+      <c r="B52" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B53" s="1"/>
+    <row r="53" spans="1:7" ht="15.75">
+      <c r="A53" s="9"/>
+      <c r="B53" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="3"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7">
       <c r="B54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7">
       <c r="B55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7">
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7">
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7">
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7">
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7">
       <c r="B60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7">
       <c r="B61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7">
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7">
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7">
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:7">
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:7">
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:7">
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:7">
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:7">
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:7">
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:7">
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:7">
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:7">
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:7">
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:7">
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:7">
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:7">
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:7">
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:7">
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:7">
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:7">
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:7">
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:7">
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="3"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:7">
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="3"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7">
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:7">
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="3"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:7">
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="3"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:7">
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:7">
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="3"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:7">
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:7">
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="3"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:7">
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="3"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:7">
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="3"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:7">
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:7">
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="3"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:7">
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="3"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:7">
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:7">
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="3"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:7">
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="3"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:7">
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:7">
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="3"/>
       <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2173,38 +2194,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>42</v>
       </c>
       <c r="B2" s="4">
         <v>43409</v>
@@ -2213,12 +2234,12 @@
         <v>2000000</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4">
         <v>43410</v>
@@ -2227,10 +2248,10 @@
         <v>1000000</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2241,12 +2262,12 @@
         <v>1000000</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4">
         <v>43454</v>
@@ -2255,12 +2276,12 @@
         <v>5000000</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4">
         <v>43434</v>
@@ -2269,12 +2290,12 @@
         <v>250000</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="4">
         <v>43455</v>
@@ -2283,12 +2304,12 @@
         <v>1551700</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="4">
         <v>43439</v>
@@ -2297,12 +2318,12 @@
         <v>1277600</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4">
         <v>43453</v>
@@ -2311,12 +2332,12 @@
         <v>438000</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" s="4">
         <v>43446</v>
@@ -2325,12 +2346,12 @@
         <v>128250</v>
       </c>
       <c r="D10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>77</v>
       </c>
       <c r="B11" s="4">
         <v>43827</v>
@@ -2339,164 +2360,164 @@
         <v>1000000</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3">
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3">
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3">
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3">
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3">
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3">
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="5">
@@ -2504,39 +2525,39 @@
         <v>13645550</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
     </row>
@@ -2547,46 +2568,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>29</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D5" si="0">C2+B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>250000</v>
@@ -2596,9 +2617,9 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>250000</v>
@@ -2608,9 +2629,9 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>250000</v>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -10,13 +10,14 @@
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
     <sheet name="PEMBAYARAN" sheetId="3" r:id="rId2"/>
     <sheet name="MAKE UP KELUARGA" sheetId="2" r:id="rId3"/>
+    <sheet name="PAYMENT PLAN" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -259,18 +260,46 @@
   </si>
   <si>
     <t>OGI</t>
+  </si>
+  <si>
+    <t>JUMLAH</t>
+  </si>
+  <si>
+    <t>Bonus Persistency Q2</t>
+  </si>
+  <si>
+    <t>Bonus Persistency Q3</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Bonus Produksi 2018</t>
+  </si>
+  <si>
+    <t>Program Ce'em</t>
+  </si>
+  <si>
+    <t>Bonus Persistency Q1</t>
+  </si>
+  <si>
+    <t>CC MEGA</t>
+  </si>
+  <si>
+    <t>CC BRI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,8 +340,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +374,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -350,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -367,6 +410,8 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,11 +714,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -687,7 +730,7 @@
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -712,9 +755,8 @@
       <c r="H1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
         <v>44</v>
       </c>
@@ -739,7 +781,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -764,7 +806,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -792,7 +834,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -817,7 +859,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -842,7 +884,7 @@
         <v>5750000</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
@@ -867,7 +909,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
@@ -892,7 +934,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>37</v>
       </c>
@@ -907,20 +949,20 @@
         <v>700000</v>
       </c>
       <c r="E9" s="13">
-        <v>350000</v>
+        <v>220000</v>
       </c>
       <c r="F9" s="14">
         <v>2</v>
       </c>
       <c r="G9" s="13">
         <f>E9*F9</f>
-        <v>700000</v>
+        <v>440000</v>
       </c>
       <c r="H9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>38</v>
       </c>
@@ -948,7 +990,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -963,17 +1005,17 @@
         <v>500000</v>
       </c>
       <c r="E11" s="1">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ref="G11:G19" si="2">E11*F11</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -988,17 +1030,17 @@
         <v>1750000</v>
       </c>
       <c r="E12" s="1">
-        <v>7100</v>
+        <v>5200</v>
       </c>
       <c r="F12" s="7">
         <v>350</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="2"/>
-        <v>2485000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>1820000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1023,7 +1065,7 @@
         <v>1062500</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>36</v>
       </c>
@@ -1048,7 +1090,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1076,7 +1118,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1151,14 +1193,14 @@
         <v>1300000</v>
       </c>
       <c r="E19" s="1">
-        <v>1300000</v>
+        <v>600000</v>
       </c>
       <c r="F19" s="7">
         <v>2</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>2600000</v>
+        <v>1200000</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
@@ -1808,7 +1850,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="1">
         <f>SUM(G2:G48)</f>
-        <v>102116300</v>
+        <v>99291300</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2197,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2645,4 +2687,138 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="16">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="16">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="16">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="16">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="16">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="16">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="16">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="16">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="16"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="16"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="16"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="16"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="16"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="16"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="16"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="16">
+        <f>SUM(B2:B20)</f>
+        <v>41000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="11760" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="11760" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -410,7 +410,7 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -716,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2693,7 +2693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2772,7 +2772,7 @@
         <v>89</v>
       </c>
       <c r="B9" s="16">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B21" s="16">
         <f>SUM(B2:B20)</f>
-        <v>41000000</v>
+        <v>48000000</v>
       </c>
     </row>
   </sheetData>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projects\incrediblejournEYBEEwithyou\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="11760" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="11760" windowHeight="8000"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="MAKE UP KELUARGA" sheetId="2" r:id="rId3"/>
     <sheet name="PAYMENT PLAN" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -292,14 +297,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,7 +477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,9 +509,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,6 +544,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -713,24 +720,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.453125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -756,7 +765,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>44</v>
       </c>
@@ -781,7 +790,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -806,7 +815,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -834,7 +843,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -859,7 +868,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -884,7 +893,7 @@
         <v>5750000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
@@ -909,7 +918,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
@@ -934,7 +943,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>37</v>
       </c>
@@ -962,7 +971,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>38</v>
       </c>
@@ -990,7 +999,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1015,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1040,7 +1049,7 @@
         <v>1820000</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1065,7 +1074,7 @@
         <v>1062500</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>36</v>
       </c>
@@ -1090,7 +1099,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1118,7 +1127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1143,7 +1152,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1153,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1178,7 +1187,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1206,7 +1215,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>24</v>
       </c>
@@ -1231,7 +1240,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1256,7 +1265,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1281,7 +1290,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1291,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1316,7 +1325,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>33</v>
       </c>
@@ -1341,7 +1350,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1366,7 +1375,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -1391,7 +1400,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>61</v>
       </c>
@@ -1416,7 +1425,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>62</v>
       </c>
@@ -1441,7 +1450,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>63</v>
       </c>
@@ -1466,7 +1475,7 @@
         <v>415000</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>21</v>
       </c>
@@ -1491,7 +1500,7 @@
         <v>560000</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>64</v>
       </c>
@@ -1516,7 +1525,7 @@
         <v>1227600</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>65</v>
       </c>
@@ -1541,7 +1550,7 @@
         <v>1551700</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>66</v>
       </c>
@@ -1569,7 +1578,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1594,7 +1603,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -1619,7 +1628,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -1644,7 +1653,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1669,7 +1678,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1679,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1704,7 +1713,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>49</v>
       </c>
@@ -1729,7 +1738,7 @@
         <v>74250</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>50</v>
       </c>
@@ -1754,7 +1763,7 @@
         <v>47250</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1779,7 +1788,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1789,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -1814,28 +1823,28 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="3"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="3"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="3"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>27</v>
       </c>
@@ -1853,21 +1862,21 @@
         <v>99291300</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75">
+    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="12"/>
       <c r="B52" s="15" t="s">
         <v>77</v>
@@ -1880,7 +1889,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="15.75">
+    <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="15" t="s">
         <v>35</v>
@@ -1893,336 +1902,336 @@
       <c r="F53" s="3"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="3"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="3"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="3"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="3"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="3"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="3"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="3"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="3"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="3"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="3"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="3"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="3"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="2:7">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -2236,22 +2245,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2265,7 +2274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -2279,7 +2288,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -2293,7 +2302,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2307,7 +2316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -2321,7 +2330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2335,7 +2344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2349,7 +2358,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -2363,7 +2372,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2377,7 +2386,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -2391,7 +2400,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -2405,159 +2414,159 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>27</v>
       </c>
@@ -2567,39 +2576,39 @@
         <v>13645550</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
     </row>
@@ -2610,21 +2619,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -2638,7 +2647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2647,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2659,7 +2668,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2671,7 +2680,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2690,20 +2699,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2711,15 +2720,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>87</v>
       </c>
       <c r="B2" s="16">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -2727,7 +2736,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2735,7 +2744,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -2743,7 +2752,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -2751,7 +2760,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -2759,7 +2768,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -2767,7 +2776,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -2775,46 +2784,46 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="16"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="16"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="16"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="16"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="16"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="16"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" s="16"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="16"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" s="16"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="16">
         <f>SUM(B2:B20)</f>
-        <v>48000000</v>
+        <v>50600000</v>
       </c>
     </row>
   </sheetData>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -292,6 +292,15 @@
   </si>
   <si>
     <t>CC BRI</t>
+  </si>
+  <si>
+    <t>BOUQUET BUNGA KELOBOT JAGUNG</t>
+  </si>
+  <si>
+    <t>TATAKAN WEDDING CAKE KAYU</t>
+  </si>
+  <si>
+    <t>BAHAN KAIN SATIN</t>
   </si>
 </sst>
 </file>
@@ -723,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -776,7 +785,7 @@
         <v>300</v>
       </c>
       <c r="D2" s="13">
-        <f t="shared" ref="D2:D43" si="0">B2*C2</f>
+        <f t="shared" ref="D2:D24" si="0">B2*C2</f>
         <v>30000000</v>
       </c>
       <c r="E2" s="13">
@@ -811,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G23" si="1">E3*F3</f>
+        <f t="shared" ref="G3:G24" si="1">E3*F3</f>
         <v>2500000</v>
       </c>
     </row>
@@ -1025,28 +1034,28 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="13">
         <v>5000</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="12">
         <v>350</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="13">
         <f t="shared" si="0"/>
         <v>1750000</v>
       </c>
-      <c r="E12" s="1">
-        <v>5200</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="E12" s="13">
+        <v>6500</v>
+      </c>
+      <c r="F12" s="14">
         <v>350</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="13">
         <f t="shared" si="2"/>
-        <v>1820000</v>
+        <v>2275000</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1291,511 +1300,541 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="1">
+      <c r="A23" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="10">
+        <v>300000</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+      <c r="E23" s="10">
+        <v>300000</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="10">
+        <v>130000</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="0"/>
+        <v>130000</v>
+      </c>
+      <c r="E24" s="10">
+        <v>130000</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>5000000</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:D39" si="3">B25*C25</f>
         <v>5000000</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <v>5000000</v>
       </c>
-      <c r="F24" s="7">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" ref="G24:G25" si="3">E24*F24</f>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" ref="G25:G26" si="4">E25*F25</f>
         <v>5000000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B26" s="13">
         <v>7000000</v>
       </c>
-      <c r="C25" s="12">
-        <v>1</v>
-      </c>
-      <c r="D25" s="13">
-        <f t="shared" si="0"/>
-        <v>7000000</v>
-      </c>
-      <c r="E25" s="13">
-        <v>7000000</v>
-      </c>
-      <c r="F25" s="14">
-        <v>1</v>
-      </c>
-      <c r="G25" s="13">
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13">
         <f t="shared" si="3"/>
         <v>7000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="E26" s="13">
+        <v>7000000</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" si="4"/>
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="1">
         <v>250000</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>3</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
+      <c r="D27" s="1">
+        <f t="shared" si="3"/>
         <v>750000</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <v>250000</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="7">
         <v>3</v>
       </c>
-      <c r="G26" s="1">
-        <f t="shared" ref="G26:G45" si="4">E26*F26</f>
+      <c r="G27" s="1">
+        <f t="shared" ref="G27:G44" si="5">E27*F27</f>
         <v>750000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="13">
-        <v>500000</v>
-      </c>
-      <c r="C27" s="12">
-        <v>1</v>
-      </c>
-      <c r="D27" s="13">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="E27" s="13">
-        <v>500000</v>
-      </c>
-      <c r="F27" s="14">
-        <v>1</v>
-      </c>
-      <c r="G27" s="13">
-        <f t="shared" si="4"/>
-        <v>500000</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B28" s="13">
-        <v>800000</v>
+        <v>500000</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
       </c>
       <c r="D28" s="13">
-        <f t="shared" si="0"/>
-        <v>800000</v>
+        <f t="shared" si="3"/>
+        <v>500000</v>
       </c>
       <c r="E28" s="13">
-        <v>800000</v>
+        <v>500000</v>
       </c>
       <c r="F28" s="14">
         <v>1</v>
       </c>
       <c r="G28" s="13">
-        <f t="shared" si="4"/>
-        <v>800000</v>
+        <f t="shared" si="5"/>
+        <v>500000</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="13">
-        <v>220000</v>
+        <v>800000</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
       </c>
       <c r="D29" s="13">
-        <f t="shared" si="0"/>
-        <v>220000</v>
+        <f t="shared" si="3"/>
+        <v>800000</v>
       </c>
       <c r="E29" s="13">
-        <v>220000</v>
+        <v>800000</v>
       </c>
       <c r="F29" s="14">
         <v>1</v>
       </c>
       <c r="G29" s="13">
-        <f t="shared" si="4"/>
-        <v>220000</v>
+        <f t="shared" si="5"/>
+        <v>800000</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="13">
-        <v>415000</v>
+        <v>220000</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
       </c>
       <c r="D30" s="13">
-        <f t="shared" si="0"/>
-        <v>415000</v>
+        <f t="shared" si="3"/>
+        <v>220000</v>
       </c>
       <c r="E30" s="13">
-        <v>415000</v>
+        <v>220000</v>
       </c>
       <c r="F30" s="14">
         <v>1</v>
       </c>
       <c r="G30" s="13">
-        <f t="shared" si="4"/>
-        <v>415000</v>
+        <f t="shared" si="5"/>
+        <v>220000</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="13">
+        <v>415000</v>
+      </c>
+      <c r="C31" s="12">
+        <v>1</v>
+      </c>
+      <c r="D31" s="13">
+        <f t="shared" si="3"/>
+        <v>415000</v>
+      </c>
+      <c r="E31" s="13">
+        <v>415000</v>
+      </c>
+      <c r="F31" s="14">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" si="5"/>
+        <v>415000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B32" s="13">
         <v>560000</v>
       </c>
-      <c r="C31" s="12">
-        <v>1</v>
-      </c>
-      <c r="D31" s="13">
-        <f t="shared" si="0"/>
+      <c r="C32" s="12">
+        <v>1</v>
+      </c>
+      <c r="D32" s="13">
+        <f t="shared" si="3"/>
         <v>560000</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="13">
         <v>560000</v>
       </c>
-      <c r="F31" s="14">
-        <v>1</v>
-      </c>
-      <c r="G31" s="13">
-        <f t="shared" si="4"/>
+      <c r="F32" s="14">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13">
+        <f t="shared" si="5"/>
         <v>560000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="10">
-        <v>1000000</v>
-      </c>
-      <c r="C32" s="9">
-        <v>1</v>
-      </c>
-      <c r="D32" s="10">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="E32" s="10">
-        <v>1227600</v>
-      </c>
-      <c r="F32" s="11">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10">
-        <f t="shared" si="4"/>
-        <v>1227600</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="10">
-        <v>1551700</v>
+        <v>1000000</v>
       </c>
       <c r="C33" s="9">
         <v>1</v>
       </c>
       <c r="D33" s="10">
-        <f t="shared" si="0"/>
-        <v>1551700</v>
+        <f t="shared" si="3"/>
+        <v>1000000</v>
       </c>
       <c r="E33" s="10">
-        <v>1551700</v>
+        <v>1227600</v>
       </c>
       <c r="F33" s="11">
         <v>1</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="4"/>
-        <v>1551700</v>
+        <f t="shared" si="5"/>
+        <v>1227600</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="10">
+        <v>1551700</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" si="3"/>
+        <v>1551700</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1551700</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" si="5"/>
+        <v>1551700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B35" s="10">
         <v>538000</v>
       </c>
-      <c r="C34" s="9">
-        <v>1</v>
-      </c>
-      <c r="D34" s="10">
-        <f t="shared" si="0"/>
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10">
+        <f t="shared" si="3"/>
         <v>538000</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <v>438000</v>
       </c>
-      <c r="F34" s="11">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10">
-        <f t="shared" si="4"/>
+      <c r="F35" s="11">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" si="5"/>
         <v>438000</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H35" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C35">
-        <v>500</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>1250000</v>
-      </c>
-      <c r="E35" s="1">
-        <v>2500</v>
-      </c>
-      <c r="F35" s="7">
-        <v>500</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="4"/>
-        <v>1250000</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1">
-        <v>15000</v>
+        <v>2500</v>
       </c>
       <c r="C36">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="0"/>
-        <v>4500000</v>
+        <f t="shared" si="3"/>
+        <v>1250000</v>
       </c>
       <c r="E36" s="1">
-        <v>15000</v>
+        <v>2500</v>
       </c>
       <c r="F36" s="7">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="4"/>
-        <v>4500000</v>
+        <f t="shared" si="5"/>
+        <v>1250000</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B37" s="1">
-        <v>1250000</v>
+        <v>15000</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="0"/>
-        <v>2500000</v>
+        <f t="shared" si="3"/>
+        <v>4500000</v>
       </c>
       <c r="E37" s="1">
-        <v>1250000</v>
+        <v>15000</v>
       </c>
       <c r="F37" s="7">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="4"/>
-        <v>2500000</v>
+        <f t="shared" si="5"/>
+        <v>4500000</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1250000</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="3"/>
+        <v>2500000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1250000</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="5"/>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B39" s="1">
         <v>25000</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>100</v>
       </c>
-      <c r="D38" s="1">
-        <f t="shared" si="0"/>
+      <c r="D39" s="1">
+        <f t="shared" si="3"/>
         <v>2500000</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E39" s="1">
         <v>25000</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="7">
         <v>100</v>
       </c>
-      <c r="G38" s="1">
-        <f t="shared" si="4"/>
+      <c r="G39" s="1">
+        <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="1">
-        <f t="shared" si="4"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B41" s="1">
         <v>138000</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="0"/>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <f>B41*C41</f>
         <v>138000</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="1">
         <v>125000</v>
       </c>
-      <c r="F40" s="7">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="4"/>
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="5"/>
         <v>125000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="10">
-        <v>110000</v>
-      </c>
-      <c r="C41" s="9">
-        <v>1</v>
-      </c>
-      <c r="D41" s="10">
-        <f t="shared" si="0"/>
-        <v>110000</v>
-      </c>
-      <c r="E41" s="10">
-        <v>74250</v>
-      </c>
-      <c r="F41" s="11">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10">
-        <f t="shared" si="4"/>
-        <v>74250</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="10">
+        <v>110000</v>
+      </c>
+      <c r="C42" s="9">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10">
+        <f>B42*C42</f>
+        <v>110000</v>
+      </c>
+      <c r="E42" s="10">
+        <v>74250</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10">
+        <f t="shared" si="5"/>
+        <v>74250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B43" s="10">
         <v>70000</v>
       </c>
-      <c r="C42" s="9">
-        <v>1</v>
-      </c>
-      <c r="D42" s="10">
-        <f t="shared" si="0"/>
+      <c r="C43" s="9">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10">
+        <f>B43*C43</f>
         <v>70000</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E43" s="10">
         <v>47250</v>
       </c>
-      <c r="F42" s="11">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10">
-        <f t="shared" si="4"/>
+      <c r="F43" s="11">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10">
+        <f t="shared" si="5"/>
         <v>47250</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B44" s="1">
         <v>15000</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>2</v>
       </c>
-      <c r="D43" s="1">
-        <f t="shared" si="0"/>
+      <c r="D44" s="1">
+        <f>B44*C44</f>
         <v>30000</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E44" s="1">
         <v>15000</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F44" s="7">
         <v>2</v>
       </c>
-      <c r="G43" s="1">
-        <f t="shared" si="4"/>
+      <c r="G44" s="1">
+        <f t="shared" si="5"/>
         <v>30000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -1819,16 +1858,34 @@
         <v>5</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G45:G46" si="6">E45*F45</f>
         <v>500000</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="1"/>
+      <c r="A46" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="10">
+        <v>224000</v>
+      </c>
+      <c r="C46" s="9">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10">
+        <f>C46*B46</f>
+        <v>224000</v>
+      </c>
+      <c r="E46" s="10">
+        <v>224000</v>
+      </c>
+      <c r="F46" s="11">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10">
+        <f t="shared" si="6"/>
+        <v>224000</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
@@ -1853,13 +1910,13 @@
       </c>
       <c r="D49" s="1">
         <f>SUM(D2:D48)</f>
-        <v>100525200</v>
+        <v>101179200</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
       <c r="G49" s="1">
         <f>SUM(G2:G48)</f>
-        <v>99291300</v>
+        <v>100400300</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2248,8 +2305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2415,20 +2472,60 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="4">
+        <v>43822</v>
+      </c>
+      <c r="C12" s="5">
+        <v>300000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="4">
+        <v>43822</v>
+      </c>
+      <c r="C13" s="5">
+        <v>130000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>43825</v>
+      </c>
+      <c r="C14" s="5">
+        <v>775000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="4">
+        <v>43826</v>
+      </c>
+      <c r="C15" s="5">
+        <v>224000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
@@ -2573,7 +2670,7 @@
       <c r="B50" s="4"/>
       <c r="C50" s="5">
         <f>SUM(C2:C49)</f>
-        <v>13645550</v>
+        <v>15074550</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>BAHAN KAIN SATIN</t>
+  </si>
+  <si>
+    <t>ALKITAB +ROSARIO</t>
+  </si>
+  <si>
+    <t>MANEKIN DRESS MAKER</t>
   </si>
 </sst>
 </file>
@@ -732,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:G46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="64" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1450,53 +1456,53 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="10">
         <v>800000</v>
       </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
-      <c r="D29" s="13">
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10">
         <f t="shared" si="3"/>
         <v>800000</v>
       </c>
-      <c r="E29" s="13">
-        <v>800000</v>
-      </c>
-      <c r="F29" s="14">
-        <v>1</v>
-      </c>
-      <c r="G29" s="13">
+      <c r="E29" s="10">
+        <v>824950</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10">
         <f t="shared" si="5"/>
-        <v>800000</v>
+        <v>824950</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="10">
         <v>220000</v>
       </c>
-      <c r="C30" s="12">
-        <v>1</v>
-      </c>
-      <c r="D30" s="13">
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10">
         <f t="shared" si="3"/>
         <v>220000</v>
       </c>
-      <c r="E30" s="13">
-        <v>220000</v>
-      </c>
-      <c r="F30" s="14">
-        <v>1</v>
-      </c>
-      <c r="G30" s="13">
+      <c r="E30" s="10">
+        <v>259900</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10">
         <f t="shared" si="5"/>
-        <v>220000</v>
+        <v>259900</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -1738,28 +1744,28 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="10">
         <v>138000</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10">
         <f>B41*C41</f>
         <v>138000</v>
       </c>
-      <c r="E41" s="1">
-        <v>125000</v>
-      </c>
-      <c r="F41" s="7">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
+      <c r="E41" s="10">
+        <v>111000</v>
+      </c>
+      <c r="F41" s="11">
+        <v>1</v>
+      </c>
+      <c r="G41" s="10">
         <f t="shared" si="5"/>
-        <v>125000</v>
+        <v>111000</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -1813,28 +1819,28 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="10">
         <v>15000</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="9">
         <v>2</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="10">
         <f>B44*C44</f>
         <v>30000</v>
       </c>
-      <c r="E44" s="1">
-        <v>15000</v>
-      </c>
-      <c r="F44" s="7">
+      <c r="E44" s="10">
+        <v>53000</v>
+      </c>
+      <c r="F44" s="11">
         <v>2</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="10">
         <f t="shared" si="5"/>
-        <v>30000</v>
+        <v>106000</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -1916,7 +1922,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="1">
         <f>SUM(G2:G48)</f>
-        <v>100400300</v>
+        <v>100527150</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -1939,7 +1945,7 @@
         <v>77</v>
       </c>
       <c r="C52">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1952,7 +1958,7 @@
         <v>35</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2305,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C15"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2528,70 +2534,110 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="4">
+        <v>43497</v>
+      </c>
+      <c r="C16" s="5">
+        <v>285000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="4">
+        <v>43498</v>
+      </c>
+      <c r="C17" s="5">
+        <v>824950</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="4">
+        <v>43498</v>
+      </c>
+      <c r="C18" s="5">
+        <v>259900</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="4">
+        <v>43500</v>
+      </c>
+      <c r="C19" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
     </row>
@@ -2670,7 +2716,7 @@
       <c r="B50" s="4"/>
       <c r="C50" s="5">
         <f>SUM(C2:C49)</f>
-        <v>15074550</v>
+        <v>16544400</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -2720,7 +2766,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2800,7 +2846,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2869,17 +2915,13 @@
       <c r="A8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="16">
-        <v>5000000</v>
-      </c>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="16">
-        <v>10000000</v>
-      </c>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="16"/>
@@ -2920,7 +2962,7 @@
       </c>
       <c r="B21" s="16">
         <f>SUM(B2:B20)</f>
-        <v>50600000</v>
+        <v>35600000</v>
       </c>
     </row>
   </sheetData>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -213,9 +213,6 @@
     <t>CELANA</t>
   </si>
   <si>
-    <t>VEST</t>
-  </si>
-  <si>
     <t>PREWEDDING OUTFIT</t>
   </si>
   <si>
@@ -307,6 +304,24 @@
   </si>
   <si>
     <t>MANEKIN DRESS MAKER</t>
+  </si>
+  <si>
+    <t>SEPATU</t>
+  </si>
+  <si>
+    <t>LUNAS, THANKS CI VY KASPRO &amp; OVO</t>
+  </si>
+  <si>
+    <t>DP MC</t>
+  </si>
+  <si>
+    <t>THANKS CI VY KASPRO &amp; OVO</t>
+  </si>
+  <si>
+    <t>KAOS KAKI</t>
+  </si>
+  <si>
+    <t>BELUM DAPAT</t>
   </si>
 </sst>
 </file>
@@ -413,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -432,6 +447,7 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="64" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -831,31 +847,31 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="13">
         <v>2500000</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
         <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="13">
         <v>2000000</v>
       </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13">
         <f>E4*F4</f>
         <v>2000000</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -983,7 +999,7 @@
         <v>440000</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1307,7 +1323,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="10">
         <v>300000</v>
@@ -1332,7 +1348,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="10">
         <v>130000</v>
@@ -1366,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:D39" si="3">B25*C25</f>
+        <f t="shared" ref="D25:D38" si="3">B25*C25</f>
         <v>5000000</v>
       </c>
       <c r="E25" s="1">
@@ -1426,7 +1442,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" ref="G27:G44" si="5">E27*F27</f>
+        <f t="shared" ref="G27:G43" si="5">E27*F27</f>
         <v>750000</v>
       </c>
     </row>
@@ -1506,53 +1522,53 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="13">
-        <v>415000</v>
-      </c>
-      <c r="C31" s="12">
-        <v>1</v>
-      </c>
-      <c r="D31" s="13">
-        <f t="shared" si="3"/>
-        <v>415000</v>
-      </c>
-      <c r="E31" s="13">
-        <v>415000</v>
-      </c>
-      <c r="F31" s="14">
-        <v>1</v>
-      </c>
-      <c r="G31" s="13">
-        <f t="shared" si="5"/>
-        <v>415000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
+      <c r="A31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B31" s="10">
         <v>560000</v>
       </c>
-      <c r="C32" s="12">
-        <v>1</v>
-      </c>
-      <c r="D32" s="13">
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="10">
         <f t="shared" si="3"/>
         <v>560000</v>
       </c>
-      <c r="E32" s="13">
-        <v>560000</v>
-      </c>
-      <c r="F32" s="14">
-        <v>1</v>
-      </c>
-      <c r="G32" s="13">
+      <c r="E31" s="10">
+        <v>559930</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10">
         <f t="shared" si="5"/>
-        <v>560000</v>
+        <v>559930</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1227600</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="5"/>
+        <v>1227600</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -1560,24 +1576,24 @@
         <v>64</v>
       </c>
       <c r="B33" s="10">
-        <v>1000000</v>
+        <v>1551700</v>
       </c>
       <c r="C33" s="9">
         <v>1</v>
       </c>
       <c r="D33" s="10">
         <f t="shared" si="3"/>
-        <v>1000000</v>
+        <v>1551700</v>
       </c>
       <c r="E33" s="10">
-        <v>1227600</v>
+        <v>1551700</v>
       </c>
       <c r="F33" s="11">
         <v>1</v>
       </c>
       <c r="G33" s="10">
         <f t="shared" si="5"/>
-        <v>1227600</v>
+        <v>1551700</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -1585,123 +1601,123 @@
         <v>65</v>
       </c>
       <c r="B34" s="10">
-        <v>1551700</v>
+        <v>538000</v>
       </c>
       <c r="C34" s="9">
         <v>1</v>
       </c>
       <c r="D34" s="10">
         <f t="shared" si="3"/>
-        <v>1551700</v>
+        <v>538000</v>
       </c>
       <c r="E34" s="10">
-        <v>1551700</v>
+        <v>438000</v>
       </c>
       <c r="F34" s="11">
         <v>1</v>
       </c>
       <c r="G34" s="10">
         <f t="shared" si="5"/>
-        <v>1551700</v>
+        <v>438000</v>
+      </c>
+      <c r="H34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="10">
-        <v>538000</v>
-      </c>
-      <c r="C35" s="9">
-        <v>1</v>
-      </c>
-      <c r="D35" s="10">
-        <f t="shared" si="3"/>
-        <v>538000</v>
-      </c>
-      <c r="E35" s="10">
-        <v>438000</v>
-      </c>
-      <c r="F35" s="11">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10">
-        <f t="shared" si="5"/>
-        <v>438000</v>
-      </c>
-      <c r="H35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A35" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B35" s="1">
         <v>2500</v>
       </c>
-      <c r="C36">
+      <c r="C35">
         <v>500</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D35" s="1">
         <f t="shared" si="3"/>
         <v>1250000</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E35" s="1">
         <v>2500</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F35" s="7">
         <v>500</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G35" s="1">
         <f t="shared" si="5"/>
         <v>1250000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="1">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="13">
         <v>15000</v>
       </c>
-      <c r="C37">
+      <c r="C36" s="12">
         <v>300</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D36" s="13">
         <f t="shared" si="3"/>
         <v>4500000</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E36" s="13">
         <v>15000</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F36" s="14">
         <v>300</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G36" s="13">
         <f t="shared" si="5"/>
         <v>4500000</v>
       </c>
     </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1250000</v>
+      </c>
+      <c r="C37" s="12">
+        <v>2</v>
+      </c>
+      <c r="D37" s="13">
+        <f t="shared" si="3"/>
+        <v>2500000</v>
+      </c>
+      <c r="E37" s="13">
+        <v>1250000</v>
+      </c>
+      <c r="F37" s="14">
+        <v>2</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" si="5"/>
+        <v>2500000</v>
+      </c>
+    </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1">
-        <v>1250000</v>
+        <v>25000</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="3"/>
         <v>2500000</v>
       </c>
       <c r="E38" s="1">
-        <v>1250000</v>
+        <v>25000</v>
       </c>
       <c r="F38" s="7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="5"/>
@@ -1709,189 +1725,179 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="1">
-        <v>25000</v>
-      </c>
-      <c r="C39">
-        <v>100</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="3"/>
-        <v>2500000</v>
-      </c>
-      <c r="E39" s="1">
-        <v>25000</v>
-      </c>
-      <c r="F39" s="7">
-        <v>100</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="A39" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10">
+        <v>33900</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10">
         <f t="shared" si="5"/>
-        <v>2500000</v>
+        <v>33900</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="1">
+      <c r="A40" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="10">
+        <v>138000</v>
+      </c>
+      <c r="C40" s="9">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10">
+        <f>B40*C40</f>
+        <v>138000</v>
+      </c>
+      <c r="E40" s="10">
+        <v>111000</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>111000</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" s="10">
-        <v>138000</v>
+        <v>110000</v>
       </c>
       <c r="C41" s="9">
         <v>1</v>
       </c>
       <c r="D41" s="10">
         <f>B41*C41</f>
-        <v>138000</v>
+        <v>110000</v>
       </c>
       <c r="E41" s="10">
-        <v>111000</v>
+        <v>74250</v>
       </c>
       <c r="F41" s="11">
         <v>1</v>
       </c>
       <c r="G41" s="10">
         <f t="shared" si="5"/>
-        <v>111000</v>
+        <v>74250</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" s="10">
-        <v>110000</v>
+        <v>70000</v>
       </c>
       <c r="C42" s="9">
         <v>1</v>
       </c>
       <c r="D42" s="10">
         <f>B42*C42</f>
-        <v>110000</v>
+        <v>70000</v>
       </c>
       <c r="E42" s="10">
-        <v>74250</v>
+        <v>47250</v>
       </c>
       <c r="F42" s="11">
         <v>1</v>
       </c>
       <c r="G42" s="10">
         <f t="shared" si="5"/>
-        <v>74250</v>
+        <v>47250</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" s="10">
-        <v>70000</v>
+        <v>15000</v>
       </c>
       <c r="C43" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="10">
         <f>B43*C43</f>
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="E43" s="10">
-        <v>47250</v>
+        <v>53000</v>
       </c>
       <c r="F43" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="10">
         <f t="shared" si="5"/>
-        <v>47250</v>
+        <v>106000</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="10">
-        <v>15000</v>
-      </c>
-      <c r="C44" s="9">
-        <v>2</v>
-      </c>
-      <c r="D44" s="10">
-        <f>B44*C44</f>
-        <v>30000</v>
-      </c>
-      <c r="E44" s="10">
-        <v>53000</v>
-      </c>
-      <c r="F44" s="11">
-        <v>2</v>
-      </c>
-      <c r="G44" s="10">
-        <f t="shared" si="5"/>
-        <v>106000</v>
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1">
+        <f>C44*B44</f>
+        <v>500000</v>
+      </c>
+      <c r="E44" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F44" s="7">
+        <v>5</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" ref="G44:G45" si="6">E44*F44</f>
+        <v>500000</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="1">
-        <v>100000</v>
-      </c>
-      <c r="C45">
-        <v>5</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="A45" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="10">
+        <v>224000</v>
+      </c>
+      <c r="C45" s="9">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10">
         <f>C45*B45</f>
-        <v>500000</v>
-      </c>
-      <c r="E45" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F45" s="7">
-        <v>5</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" ref="G45:G46" si="6">E45*F45</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="10">
         <v>224000</v>
       </c>
-      <c r="C46" s="9">
-        <v>1</v>
-      </c>
-      <c r="D46" s="10">
-        <f>C46*B46</f>
+      <c r="E45" s="10">
         <v>224000</v>
       </c>
-      <c r="E46" s="10">
-        <v>224000</v>
-      </c>
-      <c r="F46" s="11">
-        <v>1</v>
-      </c>
-      <c r="G46" s="10">
+      <c r="F45" s="11">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10">
         <f t="shared" si="6"/>
         <v>224000</v>
       </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
@@ -1901,29 +1907,29 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="A48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="1">
+        <f>SUM(D2:D47)</f>
+        <v>100764200</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1">
+        <f>SUM(G2:G47)</f>
+        <v>100145980</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="1">
-        <f>SUM(D2:D48)</f>
-        <v>101179200</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="1">
-        <f>SUM(G2:G48)</f>
-        <v>100527150</v>
-      </c>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
@@ -1932,33 +1938,38 @@
       <c r="F50" s="3"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B51" s="1"/>
+    <row r="51" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
+      <c r="B51" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="12"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="15" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="C52">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="9"/>
-      <c r="B53" s="15" t="s">
-        <v>35</v>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1966,7 +1977,12 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B54" s="1"/>
+      <c r="B54" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54">
+        <v>43</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3"/>
@@ -2293,13 +2309,6 @@
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
       <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2311,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C19"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2320,7 +2329,7 @@
     <col min="1" max="1" width="34.1796875" customWidth="1"/>
     <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -2409,7 +2418,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="4">
         <v>43455</v>
@@ -2418,12 +2427,12 @@
         <v>1551700</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="4">
         <v>43439</v>
@@ -2432,12 +2441,12 @@
         <v>1277600</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <v>43453</v>
@@ -2446,12 +2455,12 @@
         <v>438000</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="4">
         <v>43446</v>
@@ -2460,12 +2469,12 @@
         <v>128250</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <v>43827</v>
@@ -2474,15 +2483,15 @@
         <v>1000000</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="4">
-        <v>43822</v>
+        <v>43488</v>
       </c>
       <c r="C12" s="5">
         <v>300000</v>
@@ -2493,10 +2502,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="4">
-        <v>43822</v>
+        <v>43488</v>
       </c>
       <c r="C13" s="5">
         <v>130000</v>
@@ -2510,7 +2519,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>43825</v>
+        <v>43491</v>
       </c>
       <c r="C14" s="5">
         <v>775000</v>
@@ -2521,10 +2530,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="4">
-        <v>43826</v>
+        <v>43492</v>
       </c>
       <c r="C15" s="5">
         <v>224000</v>
@@ -2535,7 +2544,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="4">
         <v>43497</v>
@@ -2577,7 +2586,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="4">
         <v>43500</v>
@@ -2590,16 +2599,46 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="4">
+        <v>43503</v>
+      </c>
+      <c r="C20" s="5">
+        <v>559930</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="4">
+        <v>43503</v>
+      </c>
+      <c r="C21" s="5">
+        <v>500000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="4">
+        <v>43503</v>
+      </c>
+      <c r="C22" s="5">
+        <v>33900</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
@@ -2716,7 +2755,7 @@
       <c r="B50" s="4"/>
       <c r="C50" s="5">
         <f>SUM(C2:C49)</f>
-        <v>16544400</v>
+        <v>17638230</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -2860,12 +2899,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="16">
         <v>5600000</v>
@@ -2873,7 +2912,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="16">
         <v>3000000</v>
@@ -2881,7 +2920,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="16">
         <v>3000000</v>
@@ -2889,7 +2928,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="16">
         <v>15000000</v>
@@ -2897,7 +2936,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="16">
         <v>5000000</v>
@@ -2905,7 +2944,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="16">
         <v>4000000</v>
@@ -2913,13 +2952,13 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="16"/>
     </row>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -81,9 +81,6 @@
     <t>CINCIN</t>
   </si>
   <si>
-    <t>BALON + LED + BATERAI</t>
-  </si>
-  <si>
     <t>KAMAR HOTEL</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
     <t>Bonus Produksi 2018</t>
   </si>
   <si>
-    <t>Program Ce'em</t>
-  </si>
-  <si>
     <t>Bonus Persistency Q1</t>
   </si>
   <si>
@@ -322,6 +316,24 @@
   </si>
   <si>
     <t>BELUM DAPAT</t>
+  </si>
+  <si>
+    <t>BAHAN KAIN FURING</t>
+  </si>
+  <si>
+    <t>KAIN FURING</t>
+  </si>
+  <si>
+    <t>BALON</t>
+  </si>
+  <si>
+    <t>LED + BATERAI 50PCS</t>
+  </si>
+  <si>
+    <t>INFINITY</t>
+  </si>
+  <si>
+    <t>KAIN (LAGI)</t>
   </si>
 </sst>
 </file>
@@ -428,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -448,6 +460,9 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="68" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -793,12 +808,12 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="13">
         <v>100000</v>
@@ -822,28 +837,31 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="13">
         <v>2500000</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
         <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
-      <c r="E3" s="1">
-        <v>2500000</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="E3" s="13">
+        <v>3000000</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13">
         <f t="shared" ref="G3:G24" si="1">E3*F3</f>
-        <v>2500000</v>
+        <v>3000000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -871,12 +889,12 @@
         <v>2000000</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>10000000</v>
@@ -901,7 +919,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="13">
         <v>5750000</v>
@@ -976,7 +994,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="13">
         <v>350000</v>
@@ -999,12 +1017,12 @@
         <v>440000</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="13">
         <v>250000</v>
@@ -1027,12 +1045,12 @@
         <v>500000</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1">
         <v>500000</v>
@@ -1107,7 +1125,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="13">
         <v>750000</v>
@@ -1155,47 +1173,62 @@
         <v>30000</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B16" s="1">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="C16">
         <v>40</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>600000</v>
+        <v>280000</v>
       </c>
       <c r="E16" s="1">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="F16" s="7">
         <v>40</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="2"/>
-        <v>600000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="1">
+      <c r="A17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="10">
+        <v>55000</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+      <c r="E17" s="10">
+        <v>55000</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1">
         <v>30000</v>
@@ -1220,7 +1253,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>1300000</v>
@@ -1243,12 +1276,12 @@
         <v>1200000</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="10">
         <v>2000000</v>
@@ -1273,7 +1306,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>500000</v>
@@ -1323,7 +1356,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B23" s="10">
         <v>300000</v>
@@ -1348,7 +1381,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" s="10">
         <v>130000</v>
@@ -1398,7 +1431,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="13">
         <v>7000000</v>
@@ -1448,7 +1481,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="13">
         <v>500000</v>
@@ -1473,7 +1506,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="10">
         <v>800000</v>
@@ -1498,7 +1531,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="10">
         <v>220000</v>
@@ -1523,7 +1556,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="10">
         <v>560000</v>
@@ -1548,7 +1581,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="10">
         <v>1000000</v>
@@ -1573,7 +1606,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="10">
         <v>1551700</v>
@@ -1598,7 +1631,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="10">
         <v>538000</v>
@@ -1621,12 +1654,12 @@
         <v>438000</v>
       </c>
       <c r="H34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1">
         <v>2500</v>
@@ -1651,7 +1684,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B36" s="13">
         <v>15000</v>
@@ -1676,7 +1709,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="13">
         <v>1250000</v>
@@ -1701,7 +1734,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1">
         <v>25000</v>
@@ -1726,7 +1759,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="9"/>
@@ -1744,7 +1777,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="10">
         <v>138000</v>
@@ -1769,7 +1802,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="10">
         <v>110000</v>
@@ -1794,7 +1827,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="10">
         <v>70000</v>
@@ -1819,7 +1852,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="10">
         <v>15000</v>
@@ -1844,7 +1877,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="1">
         <v>100000</v>
@@ -1863,13 +1896,13 @@
         <v>5</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" ref="G44:G45" si="6">E44*F44</f>
+        <f t="shared" ref="G44:G46" si="6">E44*F44</f>
         <v>500000</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" s="10">
         <v>224000</v>
@@ -1893,11 +1926,28 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="1"/>
+      <c r="A46" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="19">
+        <v>157000</v>
+      </c>
+      <c r="C46" s="20">
+        <v>1</v>
+      </c>
+      <c r="D46" s="19">
+        <v>157000</v>
+      </c>
+      <c r="E46" s="19">
+        <v>157000</v>
+      </c>
+      <c r="F46" s="21">
+        <v>1</v>
+      </c>
+      <c r="G46" s="19">
+        <f t="shared" si="6"/>
+        <v>157000</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
@@ -1908,20 +1958,20 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" s="1">
         <f>SUM(D2:D47)</f>
-        <v>100764200</v>
+        <v>100656200</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="3"/>
       <c r="G48" s="1">
         <f>SUM(G2:G47)</f>
-        <v>100145980</v>
+        <v>100537980</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -1941,7 +1991,7 @@
     <row r="51" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
       <c r="B51" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51">
         <v>13</v>
@@ -1954,10 +2004,10 @@
     <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="9"/>
       <c r="B52" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1966,7 +2016,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B53" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C53">
         <v>15</v>
@@ -1978,10 +2028,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2320,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2337,18 +2387,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4">
         <v>43409</v>
@@ -2357,12 +2407,12 @@
         <v>2000000</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4">
         <v>43410</v>
@@ -2371,7 +2421,7 @@
         <v>1000000</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -2385,12 +2435,12 @@
         <v>1000000</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="4">
         <v>43454</v>
@@ -2399,12 +2449,12 @@
         <v>5000000</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4">
         <v>43434</v>
@@ -2413,12 +2463,12 @@
         <v>250000</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="4">
         <v>43455</v>
@@ -2427,12 +2477,12 @@
         <v>1551700</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="4">
         <v>43439</v>
@@ -2441,12 +2491,12 @@
         <v>1277600</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4">
         <v>43453</v>
@@ -2455,12 +2505,12 @@
         <v>438000</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="4">
         <v>43446</v>
@@ -2469,12 +2519,12 @@
         <v>128250</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <v>43827</v>
@@ -2483,12 +2533,12 @@
         <v>1000000</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="4">
         <v>43488</v>
@@ -2497,12 +2547,12 @@
         <v>300000</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" s="4">
         <v>43488</v>
@@ -2511,7 +2561,7 @@
         <v>130000</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -2525,12 +2575,12 @@
         <v>775000</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" s="4">
         <v>43492</v>
@@ -2539,12 +2589,12 @@
         <v>224000</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B16" s="4">
         <v>43497</v>
@@ -2553,12 +2603,12 @@
         <v>285000</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="4">
         <v>43498</v>
@@ -2567,12 +2617,12 @@
         <v>824950</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="4">
         <v>43498</v>
@@ -2581,12 +2631,12 @@
         <v>259900</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B19" s="4">
         <v>43500</v>
@@ -2595,12 +2645,12 @@
         <v>100000</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B20" s="4">
         <v>43503</v>
@@ -2609,12 +2659,12 @@
         <v>559930</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B21" s="4">
         <v>43503</v>
@@ -2623,12 +2673,12 @@
         <v>500000</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" s="4">
         <v>43503</v>
@@ -2637,20 +2687,47 @@
         <v>33900</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="4">
+        <v>43504</v>
+      </c>
+      <c r="C23" s="5">
+        <v>157000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4">
+        <v>43511</v>
+      </c>
+      <c r="C24" s="5">
+        <v>500000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="4">
+        <v>43512</v>
+      </c>
+      <c r="C25" s="5">
+        <v>50000</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
@@ -2750,12 +2827,12 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="5">
         <f>SUM(C2:C49)</f>
-        <v>17638230</v>
+        <v>18345230</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -2820,18 +2897,18 @@
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D5" si="0">C2+B2</f>
@@ -2840,7 +2917,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>250000</v>
@@ -2852,7 +2929,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>250000</v>
@@ -2864,7 +2941,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>250000</v>
@@ -2882,105 +2959,102 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="16">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="16">
-        <v>5600000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>81</v>
       </c>
       <c r="B3" s="16">
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="16">
         <v>3000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="16">
         <v>15000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="16">
         <v>5000000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="16">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="16"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>88</v>
-      </c>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="16"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="16"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="16"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="16"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="16"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="16"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -2993,15 +3067,12 @@
       <c r="B19" s="16"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="16"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="16">
-        <f>SUM(B2:B20)</f>
-        <v>35600000</v>
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="16">
+        <f>SUM(B2:B19)</f>
+        <v>26000000</v>
       </c>
     </row>
   </sheetData>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projects\incrediblejournEYBEEwithyou\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="11760" windowHeight="8000"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="11760" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="MAKE UP KELUARGA" sheetId="2" r:id="rId3"/>
     <sheet name="PAYMENT PLAN" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="112">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -334,6 +329,30 @@
   </si>
   <si>
     <t>KAIN (LAGI)</t>
+  </si>
+  <si>
+    <t>CI VE</t>
+  </si>
+  <si>
+    <t>DAFTAR KPP</t>
+  </si>
+  <si>
+    <t>KANOMAN</t>
+  </si>
+  <si>
+    <t>NIUMICH</t>
+  </si>
+  <si>
+    <t>DEKORASI</t>
+  </si>
+  <si>
+    <t>DP CINCIN</t>
+  </si>
+  <si>
+    <t>FOTO CAPIL</t>
+  </si>
+  <si>
+    <t>DUTA</t>
   </si>
 </sst>
 </file>
@@ -341,10 +360,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -442,25 +461,25 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -523,7 +542,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,7 +577,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -769,23 +788,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="68" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.453125" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -811,7 +830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
@@ -836,7 +855,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -864,7 +883,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
@@ -892,32 +911,35 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="13">
         <v>10000000</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
         <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
-      <c r="E5" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="E5" s="13">
+        <v>13000000</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13000000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>59</v>
       </c>
@@ -942,7 +964,7 @@
         <v>5750000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
@@ -967,7 +989,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
@@ -992,7 +1014,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>36</v>
       </c>
@@ -1020,7 +1042,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>37</v>
       </c>
@@ -1048,7 +1070,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1073,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -1098,7 +1120,7 @@
         <v>2275000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1123,7 +1145,7 @@
         <v>1062500</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>35</v>
       </c>
@@ -1148,7 +1170,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1176,7 +1198,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -1201,7 +1223,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>101</v>
       </c>
@@ -1226,7 +1248,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1251,27 +1273,27 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="13">
         <v>1300000</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="13">
         <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="13">
         <v>600000</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="14">
         <v>2</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="13">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
@@ -1279,7 +1301,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
@@ -1304,32 +1326,32 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="13">
         <v>500000</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="13">
         <v>500000</v>
       </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="F21" s="14">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1354,7 +1376,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>87</v>
       </c>
@@ -1379,7 +1401,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>88</v>
       </c>
@@ -1404,32 +1426,32 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="13">
         <v>5000000</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="13">
         <f t="shared" ref="D25:D38" si="3">B25*C25</f>
         <v>5000000</v>
       </c>
-      <c r="E25" s="1">
-        <v>5000000</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="E25" s="13">
+        <v>5800000</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13">
         <f t="shared" ref="G25:G26" si="4">E25*F25</f>
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5800000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>32</v>
       </c>
@@ -1454,32 +1476,32 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="13">
         <v>250000</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="12">
         <v>3</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="13">
         <f t="shared" si="3"/>
         <v>750000</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="13">
         <v>250000</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="14">
         <v>3</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="13">
         <f t="shared" ref="G27:G43" si="5">E27*F27</f>
         <v>750000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>31</v>
       </c>
@@ -1504,7 +1526,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>60</v>
       </c>
@@ -1529,7 +1551,7 @@
         <v>824950</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>61</v>
       </c>
@@ -1554,7 +1576,7 @@
         <v>259900</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>20</v>
       </c>
@@ -1579,7 +1601,7 @@
         <v>559930</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>62</v>
       </c>
@@ -1604,7 +1626,7 @@
         <v>1227600</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>63</v>
       </c>
@@ -1629,7 +1651,7 @@
         <v>1551700</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>64</v>
       </c>
@@ -1657,32 +1679,32 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="13">
         <v>2500</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="12">
         <v>500</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="13">
         <f t="shared" si="3"/>
         <v>1250000</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="13">
         <v>2500</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="14">
         <v>500</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="13">
         <f t="shared" si="5"/>
         <v>1250000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>72</v>
       </c>
@@ -1707,7 +1729,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>58</v>
       </c>
@@ -1732,32 +1754,35 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="13">
         <v>25000</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="12">
         <v>100</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="13">
         <f t="shared" si="3"/>
         <v>2500000</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="13">
         <v>25000</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="14">
         <v>100</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="13">
         <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>96</v>
       </c>
@@ -1775,7 +1800,7 @@
         <v>33900</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>47</v>
       </c>
@@ -1800,7 +1825,7 @@
         <v>111000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>48</v>
       </c>
@@ -1825,7 +1850,7 @@
         <v>74250</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>49</v>
       </c>
@@ -1850,7 +1875,7 @@
         <v>47250</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>50</v>
       </c>
@@ -1875,32 +1900,32 @@
         <v>106000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="13">
         <v>100000</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="12">
         <v>5</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="13">
         <f>C44*B44</f>
         <v>500000</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="13">
         <v>100000</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="14">
         <v>5</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="13">
         <f t="shared" ref="G44:G46" si="6">E44*F44</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>89</v>
       </c>
@@ -1925,7 +1950,7 @@
         <v>224000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>98</v>
       </c>
@@ -1949,14 +1974,14 @@
         <v>157000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="3"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>26</v>
       </c>
@@ -1971,37 +1996,37 @@
       <c r="F48" s="3"/>
       <c r="G48" s="1">
         <f>SUM(G2:G47)</f>
-        <v>100537980</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+        <v>104337980</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C51">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="15" t="s">
         <v>34</v>
@@ -2014,19 +2039,19 @@
       <c r="F52" s="3"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="3"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
         <v>26</v>
       </c>
@@ -2038,322 +2063,322 @@
       <c r="F54" s="3"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="3"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="3"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="3"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="3"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="3"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="3"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="3"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="3"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="3"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="3"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="3"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="3"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -2370,19 +2395,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="36.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2396,7 +2421,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2410,7 +2435,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2424,7 +2449,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2438,7 +2463,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2452,7 +2477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2466,7 +2491,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -2480,7 +2505,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -2494,7 +2519,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2508,7 +2533,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -2522,7 +2547,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -2536,7 +2561,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -2550,7 +2575,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -2564,7 +2589,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2578,7 +2603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -2592,7 +2617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -2606,7 +2631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -2620,7 +2645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -2634,7 +2659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -2648,7 +2673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -2662,7 +2687,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -2676,7 +2701,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -2690,7 +2715,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -2704,7 +2729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2718,7 +2743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -2729,145 +2754,185 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="4">
+        <v>43516</v>
+      </c>
+      <c r="C26" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="4">
+        <v>43514</v>
+      </c>
+      <c r="C27" s="5">
+        <v>350000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="4">
+        <v>43523</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="4">
+        <v>43521</v>
+      </c>
+      <c r="C29" s="5">
+        <v>39000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="5">
         <f>SUM(C2:C49)</f>
-        <v>18345230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>25234230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
     </row>
@@ -2885,14 +2950,14 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -2906,7 +2971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2915,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2927,7 +2992,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2939,7 +3004,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2962,18 +3027,18 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="21.08984375" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2981,7 +3046,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>84</v>
       </c>
@@ -2989,7 +3054,7 @@
         <v>5600000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2997,7 +3062,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -3005,7 +3070,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -3013,7 +3078,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -3021,52 +3086,52 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="16"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="16"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B9" s="16"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projects\incrediblejournEYBEEwithyou\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="11760" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="11760" windowHeight="8000"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="MAKE UP KELUARGA" sheetId="2" r:id="rId3"/>
     <sheet name="PAYMENT PLAN" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -353,6 +358,15 @@
   </si>
   <si>
     <t>DUTA</t>
+  </si>
+  <si>
+    <t>SANTIKA PAYMENT 2</t>
+  </si>
+  <si>
+    <t>PAYMEN 2</t>
+  </si>
+  <si>
+    <t>LAURA</t>
   </si>
 </sst>
 </file>
@@ -360,10 +374,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -461,25 +475,25 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -542,7 +556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,7 +591,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -789,22 +803,22 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.453125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -830,7 +844,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
@@ -855,7 +869,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -883,7 +897,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
@@ -911,7 +925,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
@@ -939,7 +953,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>59</v>
       </c>
@@ -964,7 +978,7 @@
         <v>5750000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
@@ -989,7 +1003,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
@@ -1014,7 +1028,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>36</v>
       </c>
@@ -1042,7 +1056,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>37</v>
       </c>
@@ -1070,7 +1084,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1095,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -1120,7 +1134,7 @@
         <v>2275000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1145,7 +1159,7 @@
         <v>1062500</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>35</v>
       </c>
@@ -1170,7 +1184,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1198,7 +1212,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -1223,7 +1237,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>101</v>
       </c>
@@ -1248,7 +1262,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1273,7 +1287,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
@@ -1301,7 +1315,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
@@ -1326,7 +1340,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>21</v>
       </c>
@@ -1351,7 +1365,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1376,7 +1390,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>87</v>
       </c>
@@ -1401,7 +1415,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>88</v>
       </c>
@@ -1426,7 +1440,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>18</v>
       </c>
@@ -1451,7 +1465,7 @@
         <v>5800000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>32</v>
       </c>
@@ -1476,7 +1490,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>17</v>
       </c>
@@ -1501,7 +1515,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>31</v>
       </c>
@@ -1526,7 +1540,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>60</v>
       </c>
@@ -1551,7 +1565,7 @@
         <v>824950</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>61</v>
       </c>
@@ -1576,7 +1590,7 @@
         <v>259900</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>20</v>
       </c>
@@ -1601,7 +1615,7 @@
         <v>559930</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>62</v>
       </c>
@@ -1626,7 +1640,7 @@
         <v>1227600</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>63</v>
       </c>
@@ -1651,7 +1665,7 @@
         <v>1551700</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>64</v>
       </c>
@@ -1679,7 +1693,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>45</v>
       </c>
@@ -1704,7 +1718,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>72</v>
       </c>
@@ -1729,7 +1743,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>58</v>
       </c>
@@ -1754,7 +1768,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>46</v>
       </c>
@@ -1782,7 +1796,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>96</v>
       </c>
@@ -1800,7 +1814,7 @@
         <v>33900</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>47</v>
       </c>
@@ -1825,7 +1839,7 @@
         <v>111000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>48</v>
       </c>
@@ -1850,7 +1864,7 @@
         <v>74250</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>49</v>
       </c>
@@ -1875,7 +1889,7 @@
         <v>47250</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>50</v>
       </c>
@@ -1900,7 +1914,7 @@
         <v>106000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -1925,7 +1939,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>89</v>
       </c>
@@ -1950,7 +1964,7 @@
         <v>224000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>98</v>
       </c>
@@ -1974,14 +1988,14 @@
         <v>157000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="3"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>26</v>
       </c>
@@ -1999,21 +2013,21 @@
         <v>104337980</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
       <c r="B51" s="15" t="s">
         <v>75</v>
@@ -2026,7 +2040,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="9"/>
       <c r="B52" s="15" t="s">
         <v>34</v>
@@ -2039,7 +2053,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B53" s="18" t="s">
         <v>97</v>
       </c>
@@ -2051,7 +2065,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B54" s="18" t="s">
         <v>26</v>
       </c>
@@ -2063,322 +2077,322 @@
       <c r="F54" s="3"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="3"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="3"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="3"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="3"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="3"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="3"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="3"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="3"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="3"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="3"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="3"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="3"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -2393,21 +2407,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2421,7 +2435,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2435,7 +2449,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2449,7 +2463,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2463,7 +2477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2477,7 +2491,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2491,7 +2505,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -2505,7 +2519,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -2519,7 +2533,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2533,7 +2547,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -2547,7 +2561,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -2561,7 +2575,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -2575,7 +2589,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -2589,7 +2603,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2603,7 +2617,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -2617,7 +2631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -2631,7 +2645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -2645,7 +2659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -2659,7 +2673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -2673,7 +2687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -2687,7 +2701,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -2701,7 +2715,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -2715,7 +2729,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -2729,7 +2743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2743,7 +2757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -2754,7 +2768,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2768,7 +2782,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -2782,21 +2796,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="4">
+      <c r="F28" s="4">
         <v>43523</v>
       </c>
-      <c r="C28" s="5">
+      <c r="G28" s="5">
         <v>1500000</v>
       </c>
-      <c r="D28" t="s">
+      <c r="H28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2810,129 +2824,149 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="4">
+        <v>43530</v>
+      </c>
+      <c r="C30" s="5">
+        <v>16250000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="4">
+        <v>43530</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="5">
         <f>SUM(C2:C49)</f>
-        <v>25234230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42484230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
     </row>
@@ -2947,17 +2981,17 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -2971,7 +3005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2980,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2992,7 +3026,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3004,7 +3038,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -3026,19 +3060,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -3046,7 +3080,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>84</v>
       </c>
@@ -3054,7 +3088,7 @@
         <v>5600000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -3062,7 +3096,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -3070,15 +3104,15 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="16">
-        <v>15000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D5" s="16">
+        <v>17000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -3086,58 +3120,58 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="16"/>
     </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="16"/>
     </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="16"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="16"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="16"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="16"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="16"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="16"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" s="16"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="16"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="16">
         <f>SUM(B2:B19)</f>
-        <v>26000000</v>
+        <v>11000000</v>
       </c>
     </row>
   </sheetData>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="119">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -367,6 +367,18 @@
   </si>
   <si>
     <t>LAURA</t>
+  </si>
+  <si>
+    <t>PELUNASAN CINCIN</t>
+  </si>
+  <si>
+    <t>PELUNASAN SOUVENIR</t>
+  </si>
+  <si>
+    <t>BOOKING PREWED VENUE</t>
+  </si>
+  <si>
+    <t>VENUE PREWEDDING</t>
   </si>
 </sst>
 </file>
@@ -802,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G47" sqref="A47:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -940,14 +952,14 @@
         <v>10000000</v>
       </c>
       <c r="E5" s="13">
-        <v>13000000</v>
+        <v>13837500</v>
       </c>
       <c r="F5" s="14">
         <v>1</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>13000000</v>
+        <v>13837500</v>
       </c>
       <c r="H5" t="s">
         <v>107</v>
@@ -1110,26 +1122,26 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>5000</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <v>350</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
         <v>1750000</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>6500</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="11">
         <v>350</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="10">
         <f t="shared" si="2"/>
         <v>2275000</v>
       </c>
@@ -1441,28 +1453,28 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="10">
         <v>5000000</v>
       </c>
-      <c r="C25" s="12">
-        <v>1</v>
-      </c>
-      <c r="D25" s="13">
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
         <f t="shared" ref="D25:D38" si="3">B25*C25</f>
         <v>5000000</v>
       </c>
-      <c r="E25" s="13">
-        <v>5800000</v>
-      </c>
-      <c r="F25" s="14">
-        <v>1</v>
-      </c>
-      <c r="G25" s="13">
+      <c r="E25" s="10">
+        <v>5848000</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
         <f t="shared" ref="G25:G26" si="4">E25*F25</f>
-        <v>5800000</v>
+        <v>5848000</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1935,7 +1947,7 @@
         <v>5</v>
       </c>
       <c r="G44" s="13">
-        <f t="shared" ref="G44:G46" si="6">E44*F44</f>
+        <f t="shared" ref="G44:G47" si="6">E44*F44</f>
         <v>500000</v>
       </c>
     </row>
@@ -1989,11 +2001,28 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="1"/>
+      <c r="A47" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="10">
+        <v>650000</v>
+      </c>
+      <c r="C47" s="20">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10">
+        <v>650000</v>
+      </c>
+      <c r="E47" s="10">
+        <v>650000</v>
+      </c>
+      <c r="F47" s="21">
+        <v>1</v>
+      </c>
+      <c r="G47" s="10">
+        <f t="shared" si="6"/>
+        <v>650000</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
@@ -2004,13 +2033,13 @@
       </c>
       <c r="D48" s="1">
         <f>SUM(D2:D47)</f>
-        <v>100656200</v>
+        <v>101306200</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="3"/>
       <c r="G48" s="1">
         <f>SUM(G2:G47)</f>
-        <v>104337980</v>
+        <v>105873480</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2407,9 +2436,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -2645,7 +2674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -2659,7 +2688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -2673,7 +2702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -2687,7 +2716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -2701,7 +2730,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -2715,7 +2744,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -2729,7 +2758,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -2743,7 +2772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2757,7 +2786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -2768,7 +2797,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2782,7 +2811,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -2796,21 +2825,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E28" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="4">
-        <v>43523</v>
-      </c>
-      <c r="G28" s="5">
-        <v>1500000</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="B28" s="4">
+        <v>43554</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="D28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2824,7 +2853,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -2838,7 +2867,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -2852,71 +2881,92 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="4">
+        <v>43554</v>
+      </c>
+      <c r="C32" s="5">
+        <v>848000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="4">
+        <v>43554</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="4">
+        <v>43554</v>
+      </c>
+      <c r="C34" s="5">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
     </row>
@@ -2931,7 +2981,7 @@
       <c r="B50" s="4"/>
       <c r="C50" s="5">
         <f>SUM(C2:C49)</f>
-        <v>42484230</v>
+        <v>47482230</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -3061,7 +3111,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3113,11 +3163,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="16">
-        <v>5000000</v>
+      <c r="D6" s="16">
+        <v>4000000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -3171,7 +3221,7 @@
       </c>
       <c r="B20" s="16">
         <f>SUM(B2:B19)</f>
-        <v>11000000</v>
+        <v>6000000</v>
       </c>
     </row>
   </sheetData>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projects\incrediblejournEYBEEwithyou\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="11760" windowHeight="8000"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="11760" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="MAKE UP KELUARGA" sheetId="2" r:id="rId3"/>
     <sheet name="PAYMENT PLAN" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="129">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -117,9 +112,6 @@
     <t>EPIN</t>
   </si>
   <si>
-    <t>HAIR PIECE</t>
-  </si>
-  <si>
     <t>bridal (makeup bee + 2 mama)</t>
   </si>
   <si>
@@ -255,9 +247,6 @@
     <t>36 ITEM</t>
   </si>
   <si>
-    <t>2 malam grand dian boutique hotel</t>
-  </si>
-  <si>
     <t>OGI</t>
   </si>
   <si>
@@ -363,9 +352,6 @@
     <t>SANTIKA PAYMENT 2</t>
   </si>
   <si>
-    <t>PAYMEN 2</t>
-  </si>
-  <si>
     <t>LAURA</t>
   </si>
   <si>
@@ -379,6 +365,45 @@
   </si>
   <si>
     <t>VENUE PREWEDDING</t>
+  </si>
+  <si>
+    <t>PAYMENT 2</t>
+  </si>
+  <si>
+    <t>Arisan</t>
+  </si>
+  <si>
+    <t>HAIR PIN &amp; FLOWER CROWN</t>
+  </si>
+  <si>
+    <t>PETTICOAT</t>
+  </si>
+  <si>
+    <t>KIMONO ROBE</t>
+  </si>
+  <si>
+    <t>HOTEL KOH BASTIAN</t>
+  </si>
+  <si>
+    <t>SMILE HOTEL VIA REDDOORZ</t>
+  </si>
+  <si>
+    <t>SEPATU ITTAHERL</t>
+  </si>
+  <si>
+    <t>HAIR PIECE, PETICOAT, ROBE</t>
+  </si>
+  <si>
+    <t>2 KAMAR 2 malam SMILE HOTEL VIA REDDOORZ</t>
+  </si>
+  <si>
+    <t>SEPATU BEE</t>
+  </si>
+  <si>
+    <t>STIKER KUE BAGI</t>
+  </si>
+  <si>
+    <t>CENDANA</t>
   </si>
 </sst>
 </file>
@@ -386,10 +411,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -487,25 +512,25 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -568,7 +593,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,7 +628,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -812,25 +837,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G47" sqref="A47:G47"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.453125" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -853,12 +878,12 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="13">
         <v>100000</v>
@@ -881,7 +906,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -906,10 +931,10 @@
         <v>3000000</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
@@ -934,10 +959,10 @@
         <v>2000000</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
@@ -962,12 +987,12 @@
         <v>13837500</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="13">
         <v>5750000</v>
@@ -990,7 +1015,7 @@
         <v>5750000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +1040,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
@@ -1040,37 +1065,37 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="13">
+    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="10">
         <v>350000</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>2</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-      <c r="E9" s="13">
-        <v>220000</v>
-      </c>
-      <c r="F9" s="14">
-        <v>2</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="E9" s="10">
+        <v>550440</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
         <f>E9*F9</f>
-        <v>440000</v>
+        <v>550440</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="13">
         <v>250000</v>
@@ -1093,12 +1118,12 @@
         <v>500000</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1">
         <v>500000</v>
@@ -1121,32 +1146,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="13">
         <v>5000</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="12">
         <v>350</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="13">
         <f t="shared" si="0"/>
         <v>1750000</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="13">
         <v>6500</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="14">
         <v>350</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="13">
         <f t="shared" si="2"/>
         <v>2275000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1171,9 +1196,9 @@
         <v>1062500</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="13">
         <v>750000</v>
@@ -1196,7 +1221,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1221,12 +1246,12 @@
         <v>30000</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B16" s="1">
         <v>7000</v>
@@ -1249,9 +1274,9 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" s="10">
         <v>55000</v>
@@ -1274,7 +1299,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1299,7 +1324,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
@@ -1324,10 +1349,10 @@
         <v>1200000</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
@@ -1352,7 +1377,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>21</v>
       </c>
@@ -1377,7 +1402,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1402,9 +1427,9 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B23" s="10">
         <v>300000</v>
@@ -1427,9 +1452,9 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B24" s="10">
         <v>130000</v>
@@ -1452,7 +1477,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
@@ -1463,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="10">
-        <f t="shared" ref="D25:D38" si="3">B25*C25</f>
+        <f t="shared" ref="D25:D40" si="3">B25*C25</f>
         <v>5000000</v>
       </c>
       <c r="E25" s="10">
@@ -1477,9 +1502,9 @@
         <v>5848000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="13">
         <v>7000000</v>
@@ -1502,7 +1527,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>17</v>
       </c>
@@ -1523,910 +1548,942 @@
         <v>3</v>
       </c>
       <c r="G27" s="13">
-        <f t="shared" ref="G27:G43" si="5">E27*F27</f>
+        <f t="shared" ref="G27:G44" si="5">E27*F27</f>
         <v>750000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="B28" s="13">
-        <v>500000</v>
+        <v>422000</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
       </c>
       <c r="D28" s="13">
         <f t="shared" si="3"/>
-        <v>500000</v>
+        <v>422000</v>
       </c>
       <c r="E28" s="13">
-        <v>500000</v>
+        <v>422000</v>
       </c>
       <c r="F28" s="14">
         <v>1</v>
       </c>
       <c r="G28" s="13">
         <f t="shared" si="5"/>
+        <v>422000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="10">
         <v>500000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="10">
-        <v>800000</v>
       </c>
       <c r="C29" s="9">
         <v>1</v>
       </c>
       <c r="D29" s="10">
         <f t="shared" si="3"/>
-        <v>800000</v>
+        <v>500000</v>
       </c>
       <c r="E29" s="10">
-        <v>824950</v>
+        <v>498500</v>
       </c>
       <c r="F29" s="11">
         <v>1</v>
       </c>
       <c r="G29" s="10">
         <f t="shared" si="5"/>
-        <v>824950</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>498500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="10">
-        <v>220000</v>
+        <v>800000</v>
       </c>
       <c r="C30" s="9">
         <v>1</v>
       </c>
       <c r="D30" s="10">
         <f t="shared" si="3"/>
-        <v>220000</v>
+        <v>800000</v>
       </c>
       <c r="E30" s="10">
-        <v>259900</v>
+        <v>824950</v>
       </c>
       <c r="F30" s="11">
         <v>1</v>
       </c>
       <c r="G30" s="10">
         <f t="shared" si="5"/>
-        <v>259900</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>824950</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B31" s="10">
-        <v>560000</v>
+        <v>220000</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
       </c>
       <c r="D31" s="10">
         <f t="shared" si="3"/>
-        <v>560000</v>
+        <v>220000</v>
       </c>
       <c r="E31" s="10">
-        <v>559930</v>
+        <v>259900</v>
       </c>
       <c r="F31" s="11">
         <v>1</v>
       </c>
       <c r="G31" s="10">
         <f t="shared" si="5"/>
-        <v>559930</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <v>259900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B32" s="10">
-        <v>1000000</v>
+        <v>560000</v>
       </c>
       <c r="C32" s="9">
         <v>1</v>
       </c>
       <c r="D32" s="10">
         <f t="shared" si="3"/>
-        <v>1000000</v>
+        <v>560000</v>
       </c>
       <c r="E32" s="10">
-        <v>1227600</v>
+        <v>559930</v>
       </c>
       <c r="F32" s="11">
         <v>1</v>
       </c>
       <c r="G32" s="10">
         <f t="shared" si="5"/>
-        <v>1227600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+        <v>559930</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" s="10">
-        <v>1551700</v>
+        <v>1000000</v>
       </c>
       <c r="C33" s="9">
         <v>1</v>
       </c>
       <c r="D33" s="10">
         <f t="shared" si="3"/>
-        <v>1551700</v>
+        <v>1000000</v>
       </c>
       <c r="E33" s="10">
-        <v>1551700</v>
+        <v>1227600</v>
       </c>
       <c r="F33" s="11">
         <v>1</v>
       </c>
       <c r="G33" s="10">
         <f t="shared" si="5"/>
+        <v>1227600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="10">
         <v>1551700</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="10">
-        <v>538000</v>
       </c>
       <c r="C34" s="9">
         <v>1</v>
       </c>
       <c r="D34" s="10">
         <f t="shared" si="3"/>
-        <v>538000</v>
+        <v>1551700</v>
       </c>
       <c r="E34" s="10">
-        <v>438000</v>
+        <v>1551700</v>
       </c>
       <c r="F34" s="11">
         <v>1</v>
       </c>
       <c r="G34" s="10">
         <f t="shared" si="5"/>
+        <v>1551700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="10">
+        <v>538000</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10">
+        <f t="shared" si="3"/>
+        <v>538000</v>
+      </c>
+      <c r="E35" s="10">
         <v>438000</v>
       </c>
-      <c r="H34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="13">
+      <c r="F35" s="11">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" si="5"/>
+        <v>438000</v>
+      </c>
+      <c r="H35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="13">
         <v>2500</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C36" s="12">
         <v>500</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <f t="shared" si="3"/>
         <v>1250000</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>2500</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F36" s="14">
         <v>500</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="13">
         <f t="shared" si="5"/>
         <v>1250000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="13">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="13">
         <v>15000</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C37" s="12">
         <v>300</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="13">
         <f t="shared" si="3"/>
         <v>4500000</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="13">
         <v>15000</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F37" s="14">
         <v>300</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G37" s="13">
         <f t="shared" si="5"/>
         <v>4500000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="13">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="13">
         <v>1250000</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C38" s="12">
         <v>2</v>
-      </c>
-      <c r="D37" s="13">
-        <f t="shared" si="3"/>
-        <v>2500000</v>
-      </c>
-      <c r="E37" s="13">
-        <v>1250000</v>
-      </c>
-      <c r="F37" s="14">
-        <v>2</v>
-      </c>
-      <c r="G37" s="13">
-        <f t="shared" si="5"/>
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="13">
-        <v>25000</v>
-      </c>
-      <c r="C38" s="12">
-        <v>100</v>
       </c>
       <c r="D38" s="13">
         <f t="shared" si="3"/>
         <v>2500000</v>
       </c>
       <c r="E38" s="13">
-        <v>25000</v>
+        <v>1250000</v>
       </c>
       <c r="F38" s="14">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G38" s="13">
         <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
-      <c r="H38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="13">
+        <v>25000</v>
+      </c>
+      <c r="C39" s="12">
+        <v>100</v>
+      </c>
+      <c r="D39" s="13">
+        <f t="shared" si="3"/>
+        <v>2500000</v>
+      </c>
+      <c r="E39" s="13">
+        <v>25000</v>
+      </c>
+      <c r="F39" s="14">
+        <v>100</v>
+      </c>
+      <c r="G39" s="13">
+        <f t="shared" si="5"/>
+        <v>2500000</v>
+      </c>
+      <c r="H39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="10">
         <v>33900</v>
       </c>
-      <c r="F39" s="11">
-        <v>1</v>
-      </c>
-      <c r="G39" s="10">
+      <c r="C40" s="9">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10">
+        <f t="shared" si="3"/>
+        <v>33900</v>
+      </c>
+      <c r="E40" s="10">
+        <v>33900</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10">
         <f t="shared" si="5"/>
         <v>33900</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="10">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="10">
         <v>138000</v>
       </c>
-      <c r="C40" s="9">
-        <v>1</v>
-      </c>
-      <c r="D40" s="10">
-        <f>B40*C40</f>
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10">
+        <f>B41*C41</f>
         <v>138000</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E41" s="10">
         <v>111000</v>
       </c>
-      <c r="F40" s="11">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10">
+      <c r="F41" s="11">
+        <v>1</v>
+      </c>
+      <c r="G41" s="10">
         <f t="shared" si="5"/>
         <v>111000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="10">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="10">
         <v>110000</v>
       </c>
-      <c r="C41" s="9">
-        <v>1</v>
-      </c>
-      <c r="D41" s="10">
-        <f>B41*C41</f>
+      <c r="C42" s="9">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10">
+        <f>B42*C42</f>
         <v>110000</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E42" s="10">
         <v>74250</v>
       </c>
-      <c r="F41" s="11">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10">
+      <c r="F42" s="11">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10">
         <f t="shared" si="5"/>
         <v>74250</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="10">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="10">
         <v>70000</v>
       </c>
-      <c r="C42" s="9">
-        <v>1</v>
-      </c>
-      <c r="D42" s="10">
-        <f>B42*C42</f>
+      <c r="C43" s="9">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10">
+        <f>B43*C43</f>
         <v>70000</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E43" s="10">
         <v>47250</v>
       </c>
-      <c r="F42" s="11">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10">
+      <c r="F43" s="11">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10">
         <f t="shared" si="5"/>
         <v>47250</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="10">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="10">
         <v>15000</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C44" s="9">
         <v>2</v>
       </c>
-      <c r="D43" s="10">
-        <f>B43*C43</f>
+      <c r="D44" s="10">
+        <f>B44*C44</f>
         <v>30000</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E44" s="10">
         <v>53000</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F44" s="11">
         <v>2</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G44" s="10">
         <f t="shared" si="5"/>
         <v>106000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="13">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="13">
         <v>100000</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C45" s="12">
         <v>5</v>
       </c>
-      <c r="D44" s="13">
-        <f>C44*B44</f>
+      <c r="D45" s="13">
+        <f>C45*B45</f>
         <v>500000</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="13">
         <v>100000</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F45" s="14">
         <v>5</v>
       </c>
-      <c r="G44" s="13">
-        <f t="shared" ref="G44:G47" si="6">E44*F44</f>
+      <c r="G45" s="13">
+        <f t="shared" ref="G45:G48" si="6">E45*F45</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="10">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="10">
         <v>224000</v>
       </c>
-      <c r="C45" s="9">
-        <v>1</v>
-      </c>
-      <c r="D45" s="10">
-        <f>C45*B45</f>
+      <c r="C46" s="9">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10">
+        <f>C46*B46</f>
         <v>224000</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E46" s="10">
         <v>224000</v>
       </c>
-      <c r="F45" s="11">
-        <v>1</v>
-      </c>
-      <c r="G45" s="10">
+      <c r="F46" s="11">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10">
         <f t="shared" si="6"/>
         <v>224000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" s="19">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="19">
         <v>157000</v>
       </c>
-      <c r="C46" s="20">
-        <v>1</v>
-      </c>
-      <c r="D46" s="19">
+      <c r="C47" s="20">
+        <v>1</v>
+      </c>
+      <c r="D47" s="19">
         <v>157000</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E47" s="19">
         <v>157000</v>
       </c>
-      <c r="F46" s="21">
-        <v>1</v>
-      </c>
-      <c r="G46" s="19">
+      <c r="F47" s="21">
+        <v>1</v>
+      </c>
+      <c r="G47" s="19">
         <f t="shared" si="6"/>
         <v>157000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B47" s="10">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="10">
         <v>650000</v>
       </c>
-      <c r="C47" s="20">
-        <v>1</v>
-      </c>
-      <c r="D47" s="10">
+      <c r="C48" s="20">
+        <v>1</v>
+      </c>
+      <c r="D48" s="10">
         <v>650000</v>
       </c>
-      <c r="E47" s="10">
-        <v>650000</v>
-      </c>
-      <c r="F47" s="21">
-        <v>1</v>
-      </c>
-      <c r="G47" s="10">
+      <c r="E48" s="10">
+        <v>600000</v>
+      </c>
+      <c r="F48" s="21">
+        <v>1</v>
+      </c>
+      <c r="G48" s="10">
         <f t="shared" si="6"/>
-        <v>650000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="1">
-        <f>SUM(D2:D47)</f>
-        <v>101306200</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="1">
-        <f>SUM(G2:G47)</f>
-        <v>105873480</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="1">
+        <f>SUM(D2:D48)</f>
+        <v>101762100</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G49" s="1">
+        <f>SUM(G2:G48)</f>
+        <v>106354420</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="12"/>
-      <c r="B51" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51">
-        <v>22</v>
-      </c>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="9"/>
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
       <c r="B52" s="15" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B53" s="18" t="s">
-        <v>97</v>
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="3"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="C54">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B55" s="1"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>45</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="3"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="3"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="3"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="3"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="3"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="3"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="3"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="3"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="3"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="3"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="3"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="3"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
       <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2438,35 +2495,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="36.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>40</v>
       </c>
       <c r="B2" s="4">
         <v>43409</v>
@@ -2475,12 +2532,12 @@
         <v>2000000</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="4">
         <v>43410</v>
@@ -2489,10 +2546,10 @@
         <v>1000000</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2503,12 +2560,12 @@
         <v>1000000</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="4">
         <v>43454</v>
@@ -2517,12 +2574,12 @@
         <v>5000000</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4">
         <v>43434</v>
@@ -2531,12 +2588,12 @@
         <v>250000</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="4">
         <v>43455</v>
@@ -2545,12 +2602,12 @@
         <v>1551700</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="4">
         <v>43439</v>
@@ -2559,12 +2616,12 @@
         <v>1277600</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="4">
         <v>43453</v>
@@ -2573,12 +2630,12 @@
         <v>438000</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="4">
         <v>43446</v>
@@ -2587,12 +2644,12 @@
         <v>128250</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <v>43827</v>
@@ -2601,12 +2658,12 @@
         <v>1000000</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" s="4">
         <v>43488</v>
@@ -2615,12 +2672,12 @@
         <v>300000</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" s="4">
         <v>43488</v>
@@ -2629,10 +2686,10 @@
         <v>130000</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2643,12 +2700,12 @@
         <v>775000</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B15" s="4">
         <v>43492</v>
@@ -2657,12 +2714,12 @@
         <v>224000</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="4">
         <v>43497</v>
@@ -2671,12 +2728,12 @@
         <v>285000</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="4">
         <v>43498</v>
@@ -2685,12 +2742,12 @@
         <v>824950</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="4">
         <v>43498</v>
@@ -2699,12 +2756,12 @@
         <v>259900</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B19" s="4">
         <v>43500</v>
@@ -2713,12 +2770,12 @@
         <v>100000</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B20" s="4">
         <v>43503</v>
@@ -2727,12 +2784,12 @@
         <v>559930</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B21" s="4">
         <v>43503</v>
@@ -2741,12 +2798,12 @@
         <v>500000</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" s="4">
         <v>43503</v>
@@ -2755,12 +2812,12 @@
         <v>33900</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B23" s="4">
         <v>43504</v>
@@ -2769,10 +2826,10 @@
         <v>157000</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2783,12 +2840,12 @@
         <v>500000</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B25" s="4">
         <v>43512</v>
@@ -2797,9 +2854,9 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B26" s="4">
         <v>43516</v>
@@ -2808,12 +2865,12 @@
         <v>5000000</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B27" s="4">
         <v>43514</v>
@@ -2822,201 +2879,249 @@
         <v>350000</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>108</v>
       </c>
       <c r="B28" s="4">
-        <v>43554</v>
+        <v>43521</v>
       </c>
       <c r="C28" s="5">
-        <v>2000000</v>
+        <v>39000</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>110</v>
       </c>
       <c r="B29" s="4">
-        <v>43521</v>
+        <v>43530</v>
       </c>
       <c r="C29" s="5">
-        <v>39000</v>
+        <v>16250000</v>
       </c>
       <c r="D29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>112</v>
       </c>
       <c r="B30" s="4">
         <v>43530</v>
       </c>
       <c r="C30" s="5">
-        <v>16250000</v>
+        <v>2500000</v>
       </c>
       <c r="D30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="4">
+        <v>43559</v>
+      </c>
+      <c r="C31" s="5">
+        <v>848000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B32" s="4">
+        <v>43559</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="4">
-        <v>43530</v>
-      </c>
-      <c r="C31" s="5">
-        <v>2500000</v>
-      </c>
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="4">
-        <v>43554</v>
-      </c>
-      <c r="C32" s="5">
-        <v>848000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>116</v>
-      </c>
       <c r="B33" s="4">
-        <v>43554</v>
+        <v>43559</v>
       </c>
       <c r="C33" s="5">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B34" s="4">
-        <v>43554</v>
+        <v>43559</v>
       </c>
       <c r="C34" s="5">
-        <v>650000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2000000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="4">
+        <v>43560</v>
+      </c>
+      <c r="C35" s="5">
+        <v>146750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="4">
+        <v>43560</v>
+      </c>
+      <c r="C36" s="5">
+        <v>127500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="4">
+        <v>43560</v>
+      </c>
+      <c r="C37" s="5">
+        <v>224250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="4">
+        <v>43560</v>
+      </c>
+      <c r="C38" s="5">
+        <v>550440</v>
+      </c>
+      <c r="D38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="4">
+        <v>43558</v>
+      </c>
+      <c r="C39" s="5">
+        <v>422000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="4">
+        <v>43560</v>
+      </c>
+      <c r="C40" s="5">
+        <v>32000</v>
+      </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="5">
         <f>SUM(C2:C49)</f>
-        <v>47482230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>48935170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
     </row>
@@ -3034,14 +3139,14 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -3055,7 +3160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3064,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3076,7 +3181,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3088,7 +3193,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -3110,16 +3215,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView zoomScale="98" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -3127,12 +3230,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="16">
         <v>5600000</v>
@@ -3140,7 +3243,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="16">
         <v>3000000</v>
@@ -3148,15 +3251,21 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="16">
         <v>3000000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5">
+        <v>6000000</v>
+      </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" s="16">
         <v>17000000</v>
@@ -3164,7 +3273,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="16">
         <v>4000000</v>
@@ -3172,13 +3281,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="16"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" s="16"/>
     </row>
@@ -3221,7 +3330,7 @@
       </c>
       <c r="B20" s="16">
         <f>SUM(B2:B19)</f>
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
     </row>
   </sheetData>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projects\incrediblejournEYBEEwithyou\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="11760" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="11760" windowHeight="8000"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="MAKE UP KELUARGA" sheetId="2" r:id="rId3"/>
     <sheet name="PAYMENT PLAN" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -178,9 +183,6 @@
     <t>NOTES</t>
   </si>
   <si>
-    <t>DAPET DARI DEKORASI</t>
-  </si>
-  <si>
     <t>2 MALAM</t>
   </si>
   <si>
@@ -404,6 +406,15 @@
   </si>
   <si>
     <t>CENDANA</t>
+  </si>
+  <si>
+    <t>PILLOW BOX</t>
+  </si>
+  <si>
+    <t>TOPED OVOPOINT</t>
+  </si>
+  <si>
+    <t>INTAN</t>
   </si>
 </sst>
 </file>
@@ -411,10 +422,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -510,29 +521,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,7 +606,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -628,7 +641,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -840,22 +853,22 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.453125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -881,7 +894,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>42</v>
       </c>
@@ -906,7 +919,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -931,10 +944,10 @@
         <v>3000000</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
@@ -959,10 +972,10 @@
         <v>2000000</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
@@ -987,12 +1000,12 @@
         <v>13837500</v>
       </c>
       <c r="H5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="13">
         <v>5750000</v>
@@ -1015,7 +1028,7 @@
         <v>5750000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
@@ -1040,7 +1053,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
@@ -1065,7 +1078,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>35</v>
       </c>
@@ -1090,10 +1103,10 @@
         <v>550440</v>
       </c>
       <c r="H9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -1121,9 +1134,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1">
         <v>500000</v>
@@ -1146,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -1171,32 +1184,32 @@
         <v>2275000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="13">
         <v>8500</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="12">
         <v>125</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="13">
         <f t="shared" si="0"/>
         <v>1062500</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="13">
         <v>8500</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="14">
         <v>125</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="13">
         <f t="shared" si="2"/>
         <v>1062500</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>34</v>
       </c>
@@ -1221,37 +1234,34 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="13">
         <v>15000</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="12">
         <v>2</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="13">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="13">
         <v>15000</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="14">
         <v>2</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="13">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="H15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="1">
         <v>7000</v>
@@ -1274,9 +1284,9 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="10">
         <v>55000</v>
@@ -1299,7 +1309,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1324,7 +1334,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
@@ -1349,10 +1359,10 @@
         <v>1200000</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
@@ -1377,7 +1387,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>21</v>
       </c>
@@ -1402,7 +1412,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1427,9 +1437,9 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="10">
         <v>300000</v>
@@ -1452,9 +1462,9 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="10">
         <v>130000</v>
@@ -1477,7 +1487,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
@@ -1502,7 +1512,7 @@
         <v>5848000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -1527,7 +1537,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>17</v>
       </c>
@@ -1552,9 +1562,9 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" s="13">
         <v>422000</v>
@@ -1577,9 +1587,9 @@
         <v>422000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" s="10">
         <v>500000</v>
@@ -1602,9 +1612,9 @@
         <v>498500</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="10">
         <v>800000</v>
@@ -1627,9 +1637,9 @@
         <v>824950</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="10">
         <v>220000</v>
@@ -1652,7 +1662,7 @@
         <v>259900</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>20</v>
       </c>
@@ -1677,9 +1687,9 @@
         <v>559930</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="10">
         <v>1000000</v>
@@ -1702,9 +1712,9 @@
         <v>1227600</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="10">
         <v>1551700</v>
@@ -1727,9 +1737,9 @@
         <v>1551700</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="10">
         <v>538000</v>
@@ -1752,10 +1762,10 @@
         <v>438000</v>
       </c>
       <c r="H35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>44</v>
       </c>
@@ -1780,9 +1790,9 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="13">
         <v>15000</v>
@@ -1805,9 +1815,9 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="13">
         <v>1250000</v>
@@ -1830,7 +1840,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>45</v>
       </c>
@@ -1855,12 +1865,12 @@
         <v>2500000</v>
       </c>
       <c r="H39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40" s="10">
         <v>33900</v>
@@ -1883,7 +1893,7 @@
         <v>33900</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>46</v>
       </c>
@@ -1908,7 +1918,7 @@
         <v>111000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>47</v>
       </c>
@@ -1933,7 +1943,7 @@
         <v>74250</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>48</v>
       </c>
@@ -1958,7 +1968,7 @@
         <v>47250</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>49</v>
       </c>
@@ -1983,9 +1993,9 @@
         <v>106000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="13">
         <v>100000</v>
@@ -2008,9 +2018,9 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="10">
         <v>224000</v>
@@ -2033,9 +2043,9 @@
         <v>224000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" s="19">
         <v>157000</v>
@@ -2057,9 +2067,9 @@
         <v>157000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B48" s="10">
         <v>650000</v>
@@ -2081,12 +2091,12 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" s="1">
         <f>SUM(D2:D48)</f>
@@ -2099,24 +2109,24 @@
         <v>106354420</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="12"/>
       <c r="B52" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52">
         <v>22</v>
@@ -2126,7 +2136,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="15" t="s">
         <v>33</v>
@@ -2139,9 +2149,9 @@
       <c r="F53" s="3"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B54" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -2151,7 +2161,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B55" s="18" t="s">
         <v>26</v>
       </c>
@@ -2163,322 +2173,322 @@
       <c r="F55" s="3"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="3"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="3"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="3"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="3"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="3"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="3"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="3"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="3"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="3"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="3"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="3"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="3"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -2495,19 +2505,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:C40"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2521,7 +2531,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -2535,7 +2545,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -2549,7 +2559,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2563,7 +2573,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2577,7 +2587,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -2591,9 +2601,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="4">
         <v>43455</v>
@@ -2602,12 +2612,12 @@
         <v>1551700</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4">
         <v>43439</v>
@@ -2616,12 +2626,12 @@
         <v>1277600</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="4">
         <v>43453</v>
@@ -2630,12 +2640,12 @@
         <v>438000</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="4">
         <v>43446</v>
@@ -2644,12 +2654,12 @@
         <v>128250</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <v>43827</v>
@@ -2658,12 +2668,12 @@
         <v>1000000</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="4">
         <v>43488</v>
@@ -2675,9 +2685,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="4">
         <v>43488</v>
@@ -2689,7 +2699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2703,9 +2713,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="4">
         <v>43492</v>
@@ -2717,9 +2727,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="4">
         <v>43497</v>
@@ -2731,9 +2741,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="4">
         <v>43498</v>
@@ -2745,9 +2755,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="4">
         <v>43498</v>
@@ -2759,9 +2769,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="4">
         <v>43500</v>
@@ -2773,9 +2783,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="4">
         <v>43503</v>
@@ -2784,12 +2794,12 @@
         <v>559930</v>
       </c>
       <c r="D20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>92</v>
       </c>
       <c r="B21" s="4">
         <v>43503</v>
@@ -2798,12 +2808,12 @@
         <v>500000</v>
       </c>
       <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>94</v>
       </c>
       <c r="B22" s="4">
         <v>43503</v>
@@ -2812,12 +2822,12 @@
         <v>33900</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="4">
         <v>43504</v>
@@ -2829,7 +2839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2843,9 +2853,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="4">
         <v>43512</v>
@@ -2854,9 +2864,9 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" s="4">
         <v>43516</v>
@@ -2865,12 +2875,12 @@
         <v>5000000</v>
       </c>
       <c r="D26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>103</v>
       </c>
       <c r="B27" s="4">
         <v>43514</v>
@@ -2882,9 +2892,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" s="4">
         <v>43521</v>
@@ -2893,12 +2903,12 @@
         <v>39000</v>
       </c>
       <c r="D28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>110</v>
       </c>
       <c r="B29" s="4">
         <v>43530</v>
@@ -2907,12 +2917,12 @@
         <v>16250000</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B30" s="4">
         <v>43530</v>
@@ -2924,9 +2934,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B31" s="4">
         <v>43559</v>
@@ -2935,20 +2945,20 @@
         <v>848000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="22">
+        <v>43559</v>
+      </c>
+      <c r="C32" s="23">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>113</v>
-      </c>
-      <c r="B32" s="4">
-        <v>43559</v>
-      </c>
-      <c r="C32" s="5">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>114</v>
       </c>
       <c r="B33" s="4">
         <v>43559</v>
@@ -2957,9 +2967,9 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B34" s="4">
         <v>43559</v>
@@ -2971,9 +2981,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35" s="4">
         <v>43560</v>
@@ -2982,9 +2992,9 @@
         <v>146750</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B36" s="4">
         <v>43560</v>
@@ -2993,9 +3003,9 @@
         <v>127500</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B37" s="4">
         <v>43560</v>
@@ -3004,9 +3014,9 @@
         <v>224250</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" s="4">
         <v>43560</v>
@@ -3015,12 +3025,12 @@
         <v>550440</v>
       </c>
       <c r="D38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>123</v>
       </c>
       <c r="B39" s="4">
         <v>43558</v>
@@ -3029,9 +3039,9 @@
         <v>422000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="4">
         <v>43560</v>
@@ -3040,88 +3050,115 @@
         <v>32000</v>
       </c>
       <c r="D40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="4">
+        <v>43567</v>
+      </c>
+      <c r="C41" s="5">
+        <v>449000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B42" s="4">
+        <v>43566</v>
+      </c>
+      <c r="C42" s="5">
+        <v>80000</v>
+      </c>
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="4">
+        <v>43569</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="5">
         <f>SUM(C2:C49)</f>
-        <v>48935170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+        <v>50464170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
     </row>
@@ -3139,14 +3176,14 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -3160,7 +3197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3169,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3181,7 +3218,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3193,7 +3230,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -3217,12 +3254,12 @@
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -3230,12 +3267,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="16">
         <v>5600000</v>
@@ -3243,7 +3280,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="16">
         <v>3000000</v>
@@ -3251,7 +3288,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="16">
         <v>3000000</v>
@@ -3259,13 +3296,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>6000000</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="16">
         <v>17000000</v>
@@ -3273,7 +3310,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="16">
         <v>4000000</v>
@@ -3281,13 +3318,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="16"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="16"/>
     </row>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="11760" windowHeight="8000"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="11760" windowHeight="8000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="134">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -327,9 +327,6 @@
     <t>KAIN (LAGI)</t>
   </si>
   <si>
-    <t>CI VE</t>
-  </si>
-  <si>
     <t>DAFTAR KPP</t>
   </si>
   <si>
@@ -415,6 +412,18 @@
   </si>
   <si>
     <t>INTAN</t>
+  </si>
+  <si>
+    <t>PELUNASAN DESIGN KETTY</t>
+  </si>
+  <si>
+    <t>PELUNASAN MC</t>
+  </si>
+  <si>
+    <t>PELUNASAN ENTERTAINMENT</t>
+  </si>
+  <si>
+    <t>THANKS CI VE</t>
   </si>
 </sst>
 </file>
@@ -477,7 +486,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +517,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -521,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -544,8 +559,9 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -920,26 +936,26 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="19">
         <v>2500000</v>
       </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C3" s="20">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19">
         <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="19">
         <v>3000000</v>
       </c>
-      <c r="F3" s="14">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13">
+      <c r="F3" s="21">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19">
         <f t="shared" ref="G3:G24" si="1">E3*F3</f>
         <v>3000000</v>
       </c>
@@ -948,26 +964,26 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>2500000</v>
       </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
         <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>2000000</v>
       </c>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
         <f>E4*F4</f>
         <v>2000000</v>
       </c>
@@ -1000,7 +1016,7 @@
         <v>13837500</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1103,7 +1119,7 @@
         <v>550440</v>
       </c>
       <c r="H9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1160,26 +1176,26 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="19">
         <v>5000</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="20">
         <v>350</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="19">
         <f t="shared" si="0"/>
         <v>1750000</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="19">
         <v>6500</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="21">
         <v>350</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="19">
         <f t="shared" si="2"/>
         <v>2275000</v>
       </c>
@@ -1199,64 +1215,64 @@
         <v>1062500</v>
       </c>
       <c r="E13" s="13">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="F13" s="14">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="G13" s="13">
         <f t="shared" si="2"/>
-        <v>1062500</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="10">
         <v>750000</v>
       </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10">
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
-      <c r="E14" s="13">
-        <v>750000</v>
-      </c>
-      <c r="F14" s="14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="E14" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
         <f t="shared" si="2"/>
-        <v>750000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="10">
         <v>15000</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>2</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="E15" s="13">
-        <v>15000</v>
-      </c>
-      <c r="F15" s="14">
+      <c r="E15" s="10">
+        <v>25000</v>
+      </c>
+      <c r="F15" s="11">
         <v>2</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="10">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1388,26 +1404,26 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="10">
         <v>500000</v>
       </c>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="10">
         <v>500000</v>
       </c>
-      <c r="F21" s="14">
-        <v>1</v>
-      </c>
-      <c r="G21" s="13">
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
@@ -1563,33 +1579,33 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="13">
-        <v>422000</v>
-      </c>
-      <c r="C28" s="12">
-        <v>1</v>
-      </c>
-      <c r="D28" s="13">
+      <c r="A28" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="10">
+        <v>449000</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10">
         <f t="shared" si="3"/>
-        <v>422000</v>
-      </c>
-      <c r="E28" s="13">
-        <v>422000</v>
-      </c>
-      <c r="F28" s="14">
-        <v>1</v>
-      </c>
-      <c r="G28" s="13">
+        <v>449000</v>
+      </c>
+      <c r="E28" s="10">
+        <v>449000</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10">
         <f t="shared" si="5"/>
-        <v>422000</v>
+        <v>449000</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="10">
         <v>500000</v>
@@ -1865,7 +1881,7 @@
         <v>2500000</v>
       </c>
       <c r="H39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -2069,7 +2085,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48" s="10">
         <v>650000</v>
@@ -2100,13 +2116,13 @@
       </c>
       <c r="D49" s="1">
         <f>SUM(D2:D48)</f>
-        <v>101762100</v>
+        <v>101789100</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
       <c r="G49" s="1">
         <f>SUM(G2:G48)</f>
-        <v>106354420</v>
+        <v>108088920</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2505,8 +2521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2866,7 +2882,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="4">
         <v>43516</v>
@@ -2875,12 +2891,12 @@
         <v>5000000</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" s="4">
         <v>43514</v>
@@ -2894,7 +2910,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" s="4">
         <v>43521</v>
@@ -2903,12 +2919,12 @@
         <v>39000</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="4">
         <v>43530</v>
@@ -2917,12 +2933,12 @@
         <v>16250000</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" s="4">
         <v>43530</v>
@@ -2936,7 +2952,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="4">
         <v>43559</v>
@@ -2946,19 +2962,19 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="22">
-        <v>43559</v>
-      </c>
-      <c r="C32" s="23">
+      <c r="A32" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="23">
+        <v>43584</v>
+      </c>
+      <c r="C32" s="24">
         <v>1500000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B33" s="4">
         <v>43559</v>
@@ -2969,7 +2985,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="4">
         <v>43559</v>
@@ -2983,7 +2999,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35" s="4">
         <v>43560</v>
@@ -2994,7 +3010,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B36" s="4">
         <v>43560</v>
@@ -3005,7 +3021,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B37" s="4">
         <v>43560</v>
@@ -3016,7 +3032,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38" s="4">
         <v>43560</v>
@@ -3025,23 +3041,23 @@
         <v>550440</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B39" s="4">
-        <v>43558</v>
+        <v>43584</v>
       </c>
       <c r="C39" s="5">
-        <v>422000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" s="4">
         <v>43560</v>
@@ -3050,12 +3066,12 @@
         <v>32000</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41" s="4">
         <v>43567</v>
@@ -3066,7 +3082,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B42" s="4">
         <v>43566</v>
@@ -3075,7 +3091,7 @@
         <v>80000</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -3089,24 +3105,61 @@
         <v>1000000</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="4">
+        <v>43585</v>
+      </c>
+      <c r="C44" s="5">
+        <v>50000</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
+      <c r="A45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="4">
+        <v>43585</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
+      <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="4">
+        <v>43585</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="4">
+        <v>43585</v>
+      </c>
+      <c r="C47" s="5">
+        <v>500000</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" s="4"/>
@@ -3123,7 +3176,7 @@
       <c r="B50" s="4"/>
       <c r="C50" s="5">
         <f>SUM(C2:C49)</f>
-        <v>50464170</v>
+        <v>55342170</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -3173,7 +3226,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3252,7 +3305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3279,11 +3334,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="16">
-        <v>3000000</v>
+      <c r="D3" s="16">
+        <v>6300000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -3296,7 +3351,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>6000000</v>
@@ -3367,7 +3422,7 @@
       </c>
       <c r="B20" s="16">
         <f>SUM(B2:B19)</f>
-        <v>12000000</v>
+        <v>9000000</v>
       </c>
     </row>
   </sheetData>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -9,20 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="11760" windowHeight="8000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="11760" windowHeight="8000"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
     <sheet name="PEMBAYARAN" sheetId="3" r:id="rId2"/>
-    <sheet name="MAKE UP KELUARGA" sheetId="2" r:id="rId3"/>
+    <sheet name="REKAP PEMBAYARAN" sheetId="6" r:id="rId3"/>
     <sheet name="PAYMENT PLAN" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="155">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -57,9 +60,6 @@
     <t>MC</t>
   </si>
   <si>
-    <t>NAMA</t>
-  </si>
-  <si>
     <t>DOKUMENTASI</t>
   </si>
   <si>
@@ -99,24 +99,9 @@
     <t>KUE BAGI</t>
   </si>
   <si>
-    <t>DRESS</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>LIAN</t>
-  </si>
-  <si>
-    <t>I TIEN</t>
-  </si>
-  <si>
-    <t>MAMIH</t>
-  </si>
-  <si>
-    <t>EPIN</t>
-  </si>
-  <si>
     <t>bridal (makeup bee + 2 mama)</t>
   </si>
   <si>
@@ -424,6 +409,87 @@
   </si>
   <si>
     <t>THANKS CI VE</t>
+  </si>
+  <si>
+    <t>VENDOR</t>
+  </si>
+  <si>
+    <t>Wong Art</t>
+  </si>
+  <si>
+    <t>Koh Bastian</t>
+  </si>
+  <si>
+    <t>Laura Salon</t>
+  </si>
+  <si>
+    <t>Hotel Santika</t>
+  </si>
+  <si>
+    <t>Ketty</t>
+  </si>
+  <si>
+    <t>D'lila</t>
+  </si>
+  <si>
+    <t>Miaunha</t>
+  </si>
+  <si>
+    <t>Fams Wo</t>
+  </si>
+  <si>
+    <t>Rustic Indonesia</t>
+  </si>
+  <si>
+    <t>Semarang Leather Souvenir</t>
+  </si>
+  <si>
+    <t>Ogie</t>
+  </si>
+  <si>
+    <t>Infinity Entertainment</t>
+  </si>
+  <si>
+    <t>Qayla Jewellery</t>
+  </si>
+  <si>
+    <t>Gereja</t>
+  </si>
+  <si>
+    <t>Capil</t>
+  </si>
+  <si>
+    <t>Niumich</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Cendana</t>
+  </si>
+  <si>
+    <t>Prewedding</t>
+  </si>
+  <si>
+    <t>Lyonly</t>
+  </si>
+  <si>
+    <t>Outfit Groom</t>
+  </si>
+  <si>
+    <t>Outfit Bride</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of NOMINAL</t>
+  </si>
+  <si>
+    <t>(blank)</t>
   </si>
 </sst>
 </file>
@@ -536,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -562,11 +628,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -577,6 +651,486 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Debby" refreshedDate="43585.987481481483" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="59">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:E100" sheet="PEMBAYARAN"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="NOMINAL" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="32000" maxValue="16250000"/>
+    </cacheField>
+    <cacheField name="STATUS" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="VENDOR" numFmtId="0">
+      <sharedItems containsBlank="1" count="23">
+        <s v="Wong Art"/>
+        <s v="Koh Bastian"/>
+        <s v="Laura Salon"/>
+        <s v="Hotel Santika"/>
+        <s v="Ketty"/>
+        <s v="D'lila"/>
+        <s v="Prewedding"/>
+        <s v="Miaunha"/>
+        <s v="Gereja"/>
+        <s v="Fams Wo"/>
+        <s v="Rustic Indonesia"/>
+        <s v="Semarang Leather Souvenir"/>
+        <s v="Outfit Groom"/>
+        <s v="Outfit Bride"/>
+        <s v="Ogie"/>
+        <s v="Infinity Entertainment"/>
+        <s v="Qayla Jewellery"/>
+        <s v="Capil"/>
+        <s v="Niumich"/>
+        <s v="Hotel"/>
+        <s v="Cendana"/>
+        <s v="Lyonly"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="59">
+  <r>
+    <n v="2000000"/>
+    <s v="LUNAS"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1000000"/>
+    <s v="DP"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1000000"/>
+    <s v="DP"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="5000000"/>
+    <s v="DP"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="250000"/>
+    <s v="DP"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="1551700"/>
+    <s v="CC"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="1277600"/>
+    <s v="OVO + CC"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="438000"/>
+    <s v="SHOPEE"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="128250"/>
+    <s v="HARBOLNAS LAZADA"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="1000000"/>
+    <s v="PROGRAM CI VE"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="300000"/>
+    <s v="LUNAS"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="130000"/>
+    <s v="LUNAS"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="775000"/>
+    <s v="DP"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="224000"/>
+    <s v="LUNAS"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="285000"/>
+    <s v="LUNAS"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="824950"/>
+    <s v="LUNAS"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="259900"/>
+    <s v="LUNAS"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="100000"/>
+    <s v="LUNAS"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="559930"/>
+    <s v="LUNAS, THANKS CI VY KASPRO &amp; OVO"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="500000"/>
+    <s v="THANKS CI VY KASPRO &amp; OVO"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <n v="33900"/>
+    <s v="LUNAS, THANKS CI VY KASPRO &amp; OVO"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="157000"/>
+    <s v="LUNAS"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="500000"/>
+    <s v="DP"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="50000"/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="5000000"/>
+    <s v="THANKS CI VE"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <n v="350000"/>
+    <s v="LUNAS"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="39000"/>
+    <s v="DUTA"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <n v="16250000"/>
+    <s v="PAYMENT 2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="2500000"/>
+    <s v="DP"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="848000"/>
+    <m/>
+    <x v="16"/>
+  </r>
+  <r>
+    <n v="1500000"/>
+    <m/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="600000"/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="2000000"/>
+    <s v="DP"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <n v="146750"/>
+    <m/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="127500"/>
+    <m/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="224250"/>
+    <m/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="550440"/>
+    <s v="SMILE HOTEL VIA REDDOORZ"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <n v="750000"/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="32000"/>
+    <s v="CENDANA"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <n v="449000"/>
+    <m/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="80000"/>
+    <s v="TOPED OVOPOINT"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="1000000"/>
+    <s v="INTAN"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <n v="54500"/>
+    <m/>
+    <x v="20"/>
+  </r>
+  <r>
+    <n v="1500000"/>
+    <s v="LUNAS"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <n v="2500000"/>
+    <s v="LUNAS"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="500000"/>
+    <s v="LUNAS"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="22"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="22"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="22"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="22"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="22"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="22"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="22"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="22"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="22"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="22"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="22"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="22"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="22"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="24">
+        <item x="17"/>
+        <item x="20"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="21"/>
+        <item x="7"/>
+        <item x="18"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="16"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="22"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="24">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of NOMINAL" fld="0" baseField="0" baseItem="0" numFmtId="167"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -868,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -907,12 +1461,12 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2" s="13">
         <v>100000</v>
@@ -960,7 +1514,7 @@
         <v>3000000</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -988,12 +1542,12 @@
         <v>2000000</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="13">
         <v>10000000</v>
@@ -1016,12 +1570,12 @@
         <v>13837500</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B6" s="13">
         <v>5750000</v>
@@ -1046,7 +1600,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="13">
         <v>5000000</v>
@@ -1071,7 +1625,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="13">
         <v>3000000</v>
@@ -1096,7 +1650,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B9" s="10">
         <v>350000</v>
@@ -1119,12 +1673,12 @@
         <v>550440</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B10" s="13">
         <v>250000</v>
@@ -1147,12 +1701,12 @@
         <v>500000</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1">
         <v>500000</v>
@@ -1177,7 +1731,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="19">
         <v>5000</v>
@@ -1202,7 +1756,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="13">
         <v>8500</v>
@@ -1227,7 +1781,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B14" s="10">
         <v>750000</v>
@@ -1252,7 +1806,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="10">
         <v>15000</v>
@@ -1277,7 +1831,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1">
         <v>7000</v>
@@ -1302,7 +1856,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B17" s="10">
         <v>55000</v>
@@ -1327,7 +1881,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>30000</v>
@@ -1352,7 +1906,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="13">
         <v>1300000</v>
@@ -1375,12 +1929,12 @@
         <v>1200000</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="10">
         <v>2000000</v>
@@ -1405,7 +1959,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="10">
         <v>500000</v>
@@ -1455,7 +2009,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B23" s="10">
         <v>300000</v>
@@ -1480,7 +2034,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B24" s="10">
         <v>130000</v>
@@ -1505,7 +2059,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="10">
         <v>5000000</v>
@@ -1530,7 +2084,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B26" s="13">
         <v>7000000</v>
@@ -1555,7 +2109,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="13">
         <v>250000</v>
@@ -1580,7 +2134,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B28" s="10">
         <v>449000</v>
@@ -1605,7 +2159,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B29" s="10">
         <v>500000</v>
@@ -1630,7 +2184,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B30" s="10">
         <v>800000</v>
@@ -1655,7 +2209,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B31" s="10">
         <v>220000</v>
@@ -1680,7 +2234,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" s="10">
         <v>560000</v>
@@ -1705,7 +2259,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B33" s="10">
         <v>1000000</v>
@@ -1730,7 +2284,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B34" s="10">
         <v>1551700</v>
@@ -1755,7 +2309,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B35" s="10">
         <v>538000</v>
@@ -1778,12 +2332,12 @@
         <v>438000</v>
       </c>
       <c r="H35" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B36" s="13">
         <v>2500</v>
@@ -1808,7 +2362,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B37" s="13">
         <v>15000</v>
@@ -1833,7 +2387,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B38" s="13">
         <v>1250000</v>
@@ -1858,7 +2412,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B39" s="13">
         <v>25000</v>
@@ -1881,12 +2435,12 @@
         <v>2500000</v>
       </c>
       <c r="H39" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B40" s="10">
         <v>33900</v>
@@ -1911,7 +2465,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B41" s="10">
         <v>138000</v>
@@ -1936,7 +2490,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B42" s="10">
         <v>110000</v>
@@ -1961,7 +2515,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B43" s="10">
         <v>70000</v>
@@ -1986,7 +2540,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B44" s="10">
         <v>15000</v>
@@ -2011,7 +2565,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B45" s="13">
         <v>100000</v>
@@ -2036,7 +2590,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B46" s="10">
         <v>224000</v>
@@ -2061,7 +2615,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B47" s="19">
         <v>157000</v>
@@ -2085,7 +2639,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B48" s="10">
         <v>650000</v>
@@ -2109,10 +2663,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D49" s="1">
         <f>SUM(D2:D48)</f>
@@ -2142,7 +2696,7 @@
     <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="12"/>
       <c r="B52" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C52">
         <v>22</v>
@@ -2155,7 +2709,7 @@
     <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C53">
         <v>17</v>
@@ -2167,7 +2721,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B54" s="18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -2179,7 +2733,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B55" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C55">
         <v>45</v>
@@ -2519,10 +3073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2531,25 +3085,29 @@
     <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" customWidth="1"/>
     <col min="4" max="4" width="36.26953125" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4">
         <v>43409</v>
@@ -2558,12 +3116,15 @@
         <v>2000000</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4">
         <v>43410</v>
@@ -2572,10 +3133,13 @@
         <v>1000000</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2586,12 +3150,15 @@
         <v>1000000</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4">
         <v>43454</v>
@@ -2600,12 +3167,15 @@
         <v>5000000</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B6" s="4">
         <v>43434</v>
@@ -2614,12 +3184,15 @@
         <v>250000</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B7" s="4">
         <v>43455</v>
@@ -2628,12 +3201,15 @@
         <v>1551700</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B8" s="4">
         <v>43439</v>
@@ -2642,12 +3218,15 @@
         <v>1277600</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B9" s="4">
         <v>43453</v>
@@ -2656,12 +3235,15 @@
         <v>438000</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B10" s="4">
         <v>43446</v>
@@ -2670,12 +3252,15 @@
         <v>128250</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B11" s="4">
         <v>43827</v>
@@ -2684,12 +3269,15 @@
         <v>1000000</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4">
         <v>43488</v>
@@ -2698,12 +3286,15 @@
         <v>300000</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <v>43488</v>
@@ -2712,12 +3303,15 @@
         <v>130000</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4">
         <v>43491</v>
@@ -2726,12 +3320,15 @@
         <v>775000</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B15" s="4">
         <v>43492</v>
@@ -2740,12 +3337,15 @@
         <v>224000</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B16" s="4">
         <v>43497</v>
@@ -2754,12 +3354,15 @@
         <v>285000</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B17" s="4">
         <v>43498</v>
@@ -2768,12 +3371,15 @@
         <v>824950</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B18" s="4">
         <v>43498</v>
@@ -2782,12 +3388,15 @@
         <v>259900</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B19" s="4">
         <v>43500</v>
@@ -2796,12 +3405,15 @@
         <v>100000</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B20" s="4">
         <v>43503</v>
@@ -2810,12 +3422,15 @@
         <v>559930</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B21" s="4">
         <v>43503</v>
@@ -2824,12 +3439,15 @@
         <v>500000</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B22" s="4">
         <v>43503</v>
@@ -2838,12 +3456,15 @@
         <v>33900</v>
       </c>
       <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>96</v>
       </c>
       <c r="B23" s="4">
         <v>43504</v>
@@ -2852,10 +3473,13 @@
         <v>157000</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2866,12 +3490,15 @@
         <v>500000</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B25" s="4">
         <v>43512</v>
@@ -2879,10 +3506,13 @@
       <c r="C25" s="5">
         <v>50000</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B26" s="4">
         <v>43516</v>
@@ -2891,12 +3521,15 @@
         <v>5000000</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+      <c r="E26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B27" s="4">
         <v>43514</v>
@@ -2905,12 +3538,15 @@
         <v>350000</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B28" s="4">
         <v>43521</v>
@@ -2919,12 +3555,15 @@
         <v>39000</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+      <c r="E28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B29" s="4">
         <v>43530</v>
@@ -2933,12 +3572,15 @@
         <v>16250000</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="E29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B30" s="4">
         <v>43530</v>
@@ -2947,12 +3589,15 @@
         <v>2500000</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B31" s="4">
         <v>43559</v>
@@ -2960,10 +3605,13 @@
       <c r="C31" s="5">
         <v>848000</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B32" s="23">
         <v>43584</v>
@@ -2971,10 +3619,13 @@
       <c r="C32" s="24">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B33" s="4">
         <v>43559</v>
@@ -2982,10 +3633,13 @@
       <c r="C33" s="5">
         <v>600000</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B34" s="4">
         <v>43559</v>
@@ -2994,12 +3648,15 @@
         <v>2000000</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B35" s="4">
         <v>43560</v>
@@ -3007,10 +3664,13 @@
       <c r="C35" s="5">
         <v>146750</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B36" s="4">
         <v>43560</v>
@@ -3018,10 +3678,13 @@
       <c r="C36" s="5">
         <v>127500</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B37" s="4">
         <v>43560</v>
@@ -3029,10 +3692,13 @@
       <c r="C37" s="5">
         <v>224250</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B38" s="4">
         <v>43560</v>
@@ -3041,12 +3707,15 @@
         <v>550440</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="E38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B39" s="4">
         <v>43584</v>
@@ -3054,10 +3723,13 @@
       <c r="C39" s="5">
         <v>750000</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B40" s="4">
         <v>43560</v>
@@ -3066,12 +3738,15 @@
         <v>32000</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="E40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B41" s="4">
         <v>43567</v>
@@ -3079,10 +3754,13 @@
       <c r="C41" s="5">
         <v>449000</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B42" s="4">
         <v>43566</v>
@@ -3091,12 +3769,15 @@
         <v>80000</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" s="4">
         <v>43569</v>
@@ -3105,23 +3786,29 @@
         <v>1000000</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="E43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B44" s="4">
         <v>43585</v>
       </c>
       <c r="C44" s="5">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54500</v>
+      </c>
+      <c r="E44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B45" s="4">
         <v>43585</v>
@@ -3130,12 +3817,15 @@
         <v>1500000</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B46" s="4">
         <v>43585</v>
@@ -3144,12 +3834,15 @@
         <v>2500000</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" s="4">
         <v>43585</v>
@@ -3158,10 +3851,13 @@
         <v>500000</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
     </row>
@@ -3170,14 +3866,9 @@
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="A50" s="8"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="5">
-        <f>SUM(C2:C49)</f>
-        <v>55342170</v>
-      </c>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="4"/>
@@ -3223,81 +3914,237 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A3:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="16">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="16">
+        <v>86500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1982700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1263250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="16">
+        <v>550440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="16">
+        <v>21250000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="16">
+        <v>3000000</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D5" si="0">C2+B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3">
-        <v>250000</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>250000</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>250000</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>250000</v>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="16">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="16">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="16">
+        <v>584750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="16">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="16">
+        <v>2000000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="16">
+        <v>900750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="16">
+        <v>1678680</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="16">
+        <v>1877600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="16">
+        <v>5848000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="16">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="16">
+        <v>2275000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="16">
+        <v>2000000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="16"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="16">
+        <v>55346670</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3306,7 +4153,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3322,12 +4169,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D2" s="16">
         <v>5600000</v>
@@ -3335,7 +4182,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D3" s="16">
         <v>6300000</v>
@@ -3343,7 +4190,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B4" s="16">
         <v>3000000</v>
@@ -3351,13 +4198,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>6000000</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D5" s="16">
         <v>17000000</v>
@@ -3365,7 +4212,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D6" s="16">
         <v>4000000</v>
@@ -3373,13 +4220,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B7" s="16"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B8" s="16"/>
     </row>
@@ -3418,7 +4265,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="16">
         <f>SUM(B2:B19)</f>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,13 +19,13 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="156">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>(blank)</t>
+  </si>
+  <si>
+    <t>lemuela printing</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1005,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
@@ -1423,7 +1426,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1719,14 +1722,17 @@
         <v>500000</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ref="G11:G19" si="2">E11*F11</f>
-        <v>0</v>
+        <v>1000000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -2676,7 +2682,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="1">
         <f>SUM(G2:G48)</f>
-        <v>108088920</v>
+        <v>109088920</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -3075,8 +3081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3916,8 +3922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="11760" windowHeight="8000"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="8600" windowHeight="8000"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="161">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -493,6 +493,21 @@
   </si>
   <si>
     <t>lemuela printing</t>
+  </si>
+  <si>
+    <t>DASI</t>
+  </si>
+  <si>
+    <t>ACC BEE</t>
+  </si>
+  <si>
+    <t>ACC BEE VNC</t>
+  </si>
+  <si>
+    <t>sepatu item</t>
+  </si>
+  <si>
+    <t>Tali sepatu karet</t>
   </si>
 </sst>
 </file>
@@ -505,13 +520,20 @@
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,26 +627,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -635,11 +657,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -657,7 +683,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Debby" refreshedDate="43585.987481481483" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="59">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Debby" refreshedDate="43608.899444907409" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="59">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:E100" sheet="PEMBAYARAN"/>
   </cacheSource>
@@ -937,29 +963,29 @@
     <x v="8"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="22"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="22"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="22"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="22"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="22"/>
+    <n v="669500"/>
+    <s v="LUNAS"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="85000"/>
+    <s v="LUNAS"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="245000"/>
+    <s v="LUNAS"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="270000"/>
+    <s v="LUNAS"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="138000"/>
+    <s v="LUNAS"/>
+    <x v="12"/>
   </r>
   <r>
     <m/>
@@ -1005,7 +1031,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
@@ -1123,7 +1149,7 @@
     <dataField name="Sum of NOMINAL" fld="0" baseField="0" baseItem="0" numFmtId="167"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1425,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="74" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3081,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3864,51 +3890,115 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="8"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="4">
+        <v>43608</v>
+      </c>
+      <c r="C48" s="5">
+        <v>669500</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="4">
+        <v>43605</v>
+      </c>
+      <c r="C49" s="5">
+        <v>85000</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="4">
+        <v>43605</v>
+      </c>
+      <c r="C50" s="5">
+        <v>245000</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="4">
+        <v>43607</v>
+      </c>
+      <c r="C51" s="5">
+        <v>270000</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="4">
+        <v>43608</v>
+      </c>
+      <c r="C52" s="5">
+        <v>138000</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
     </row>
@@ -3922,7 +4012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -4074,7 +4164,7 @@
         <v>150</v>
       </c>
       <c r="B19" s="16">
-        <v>900750</v>
+        <v>1230750</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -4082,7 +4172,7 @@
         <v>149</v>
       </c>
       <c r="B20" s="16">
-        <v>1678680</v>
+        <v>2756180</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -4145,7 +4235,7 @@
         <v>152</v>
       </c>
       <c r="B27" s="16">
-        <v>55346670</v>
+        <v>56754170</v>
       </c>
     </row>
   </sheetData>
@@ -4159,7 +4249,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projects\incrediblejournEYBEEwithyou\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="8600" windowHeight="8000"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -17,15 +12,15 @@
     <sheet name="REKAP PEMBAYARAN" sheetId="6" r:id="rId3"/>
     <sheet name="PAYMENT PLAN" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="162">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -508,6 +503,9 @@
   </si>
   <si>
     <t>Tali sepatu karet</t>
+  </si>
+  <si>
+    <t>Sabuk</t>
   </si>
 </sst>
 </file>
@@ -515,10 +513,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -629,30 +627,30 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="42" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -662,12 +660,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="167" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1031,10 +1026,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="42" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="24">
@@ -1146,10 +1141,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of NOMINAL" fld="0" baseField="0" baseItem="0" numFmtId="167"/>
+    <dataField name="Sum of NOMINAL" fld="0" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1205,7 +1200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1240,7 +1235,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1451,23 +1446,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="74" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A19" zoomScale="74" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.453125" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1488,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
@@ -1518,7 +1513,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1546,7 +1541,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1574,7 +1569,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
@@ -1602,7 +1597,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>51</v>
       </c>
@@ -1627,7 +1622,7 @@
         <v>5750000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -1652,7 +1647,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
@@ -1677,7 +1672,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
@@ -1705,7 +1700,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>30</v>
       </c>
@@ -1733,7 +1728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1761,7 +1756,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>13</v>
       </c>
@@ -1786,7 +1781,7 @@
         <v>2275000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
@@ -1811,7 +1806,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
@@ -1836,7 +1831,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -1861,7 +1856,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -1886,7 +1881,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>92</v>
       </c>
@@ -1911,7 +1906,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1936,7 +1931,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
@@ -1964,7 +1959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
@@ -1989,7 +1984,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -2014,7 +2009,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2039,7 +2034,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>78</v>
       </c>
@@ -2064,7 +2059,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>79</v>
       </c>
@@ -2089,7 +2084,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>17</v>
       </c>
@@ -2114,7 +2109,7 @@
         <v>5848000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>25</v>
       </c>
@@ -2139,7 +2134,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>16</v>
       </c>
@@ -2164,7 +2159,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>118</v>
       </c>
@@ -2189,7 +2184,7 @@
         <v>449000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>116</v>
       </c>
@@ -2214,7 +2209,7 @@
         <v>498500</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>52</v>
       </c>
@@ -2239,7 +2234,7 @@
         <v>824950</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>53</v>
       </c>
@@ -2264,7 +2259,7 @@
         <v>259900</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>19</v>
       </c>
@@ -2289,7 +2284,7 @@
         <v>559930</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>54</v>
       </c>
@@ -2314,7 +2309,7 @@
         <v>1227600</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>55</v>
       </c>
@@ -2339,7 +2334,7 @@
         <v>1551700</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>56</v>
       </c>
@@ -2367,7 +2362,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>38</v>
       </c>
@@ -2392,7 +2387,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>64</v>
       </c>
@@ -2417,7 +2412,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>50</v>
       </c>
@@ -2442,7 +2437,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>39</v>
       </c>
@@ -2470,7 +2465,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>87</v>
       </c>
@@ -2495,7 +2490,7 @@
         <v>33900</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>40</v>
       </c>
@@ -2520,7 +2515,7 @@
         <v>111000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>41</v>
       </c>
@@ -2545,7 +2540,7 @@
         <v>74250</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>42</v>
       </c>
@@ -2570,7 +2565,7 @@
         <v>47250</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>43</v>
       </c>
@@ -2595,7 +2590,7 @@
         <v>106000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>49</v>
       </c>
@@ -2620,7 +2615,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>80</v>
       </c>
@@ -2645,7 +2640,7 @@
         <v>224000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>89</v>
       </c>
@@ -2669,7 +2664,7 @@
         <v>157000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>107</v>
       </c>
@@ -2693,7 +2688,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>24</v>
       </c>
@@ -2711,21 +2706,21 @@
         <v>109088920</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A52" s="12"/>
       <c r="B52" s="15" t="s">
         <v>67</v>
@@ -2738,7 +2733,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="15" t="s">
         <v>27</v>
@@ -2751,7 +2746,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B54" s="18" t="s">
         <v>88</v>
       </c>
@@ -2763,7 +2758,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
         <v>24</v>
       </c>
@@ -2775,322 +2770,322 @@
       <c r="F55" s="3"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="3"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="3"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="3"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="3"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="3"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="3"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="3"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="3"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="3"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="3"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="3"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="3"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3107,17 +3102,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="36.26953125" customWidth="1"/>
-    <col min="5" max="5" width="25.81640625" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -3975,8 +3970,21 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
+      <c r="A53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="4">
+        <v>43619</v>
+      </c>
+      <c r="C53" s="5">
+        <v>158000</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B54" s="4"/>
@@ -4012,14 +4020,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4249,15 +4257,15 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -4293,12 +4301,6 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5">
-        <v>6000000</v>
-      </c>
       <c r="C5" t="s">
         <v>74</v>
       </c>
@@ -4319,6 +4321,12 @@
         <v>76</v>
       </c>
       <c r="B7" s="16"/>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7">
+        <v>6000000</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -4365,7 +4373,7 @@
       </c>
       <c r="B20" s="16">
         <f>SUM(B2:B19)</f>
-        <v>9000000</v>
+        <v>3000000</v>
       </c>
     </row>
   </sheetData>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -660,7 +660,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -678,7 +681,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Debby" refreshedDate="43608.899444907409" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="59">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43620.925285532408" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="59">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:E100" sheet="PEMBAYARAN"/>
   </cacheSource>
@@ -983,9 +986,9 @@
     <x v="12"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="22"/>
+    <n v="158000"/>
+    <s v="LUNAS"/>
+    <x v="12"/>
   </r>
   <r>
     <m/>
@@ -1026,7 +1029,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" numFmtId="42" showAll="0"/>
@@ -1144,7 +1147,7 @@
     <dataField name="Sum of NOMINAL" fld="0" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1446,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="74" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3102,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4018,19 +4021,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C27"/>
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>151</v>
       </c>
@@ -4038,7 +4042,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>143</v>
       </c>
@@ -4046,7 +4050,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>146</v>
       </c>
@@ -4054,7 +4058,7 @@
         <v>86500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>134</v>
       </c>
@@ -4062,15 +4066,22 @@
         <v>1982700</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>136</v>
       </c>
       <c r="B7" s="16">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>5750000</v>
+      </c>
+      <c r="D7">
+        <f>C7-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Fams Wo")</f>
+        <v>4750000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>142</v>
       </c>
@@ -4078,7 +4089,7 @@
         <v>1263250</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>145</v>
       </c>
@@ -4086,15 +4097,22 @@
         <v>550440</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="16">
         <v>21250000</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>35750000</v>
+      </c>
+      <c r="D10">
+        <f>C10-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Hotel Santika")</f>
+        <v>14500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>140</v>
       </c>
@@ -4105,7 +4123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>133</v>
       </c>
@@ -4116,31 +4134,52 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B13" s="16">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>8000000</v>
+      </c>
+      <c r="D13">
+        <f>C13-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Koh Bastian")</f>
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>131</v>
       </c>
       <c r="B14" s="16">
         <v>3500000</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>7000000</v>
+      </c>
+      <c r="D14">
+        <f>C14-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Laura Salon")</f>
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>148</v>
       </c>
       <c r="B15" s="16">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>2500000</v>
+      </c>
+      <c r="D15">
+        <f>C15-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Lyonly")</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>135</v>
       </c>
@@ -4148,15 +4187,22 @@
         <v>584750</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>144</v>
       </c>
       <c r="B17" s="16">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>13837500</v>
+      </c>
+      <c r="D17">
+        <f>C17-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Niumich")</f>
+        <v>11837500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>139</v>
       </c>
@@ -4167,7 +4213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>150</v>
       </c>
@@ -4175,15 +4221,15 @@
         <v>1230750</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>149</v>
       </c>
       <c r="B20" s="16">
-        <v>2756180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2914180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>147</v>
       </c>
@@ -4191,7 +4237,7 @@
         <v>1877600</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>141</v>
       </c>
@@ -4202,7 +4248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>137</v>
       </c>
@@ -4210,7 +4256,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>138</v>
       </c>
@@ -4221,7 +4267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>129</v>
       </c>
@@ -4232,18 +4278,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>154</v>
       </c>
       <c r="B26" s="16"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
         <v>152</v>
       </c>
       <c r="B27" s="16">
-        <v>56754170</v>
+        <v>56912170</v>
       </c>
     </row>
   </sheetData>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="166">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Venue + Makan</t>
   </si>
   <si>
-    <t>PEPES TAHU</t>
-  </si>
-  <si>
     <t>EMPAL GENTONG</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
     <t>BELUM LUNAS</t>
   </si>
   <si>
-    <t>36 ITEM</t>
-  </si>
-  <si>
     <t>OGI</t>
   </si>
   <si>
@@ -506,6 +500,24 @@
   </si>
   <si>
     <t>Sabuk</t>
+  </si>
+  <si>
+    <t>Verse Suite</t>
+  </si>
+  <si>
+    <t>Verse Superior</t>
+  </si>
+  <si>
+    <t>Topi</t>
+  </si>
+  <si>
+    <t>Pulpen Unyu</t>
+  </si>
+  <si>
+    <t>Ci Denty</t>
+  </si>
+  <si>
+    <t>47 ITEM</t>
   </si>
 </sst>
 </file>
@@ -681,13 +693,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43620.925285532408" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="59">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43623.824742939818" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="59">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:E100" sheet="PEMBAYARAN"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="NOMINAL" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="32000" maxValue="16250000"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="24000" maxValue="16250000"/>
     </cacheField>
     <cacheField name="STATUS" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -991,24 +1003,24 @@
     <x v="12"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="22"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="22"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="22"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="22"/>
+    <n v="481950"/>
+    <s v="LUNAS"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <n v="713592"/>
+    <s v="LUNAS"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <n v="45000"/>
+    <s v="LUNAS"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="24000"/>
+    <s v="LUNAS"/>
+    <x v="18"/>
   </r>
   <r>
     <m/>
@@ -1447,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,7 +1500,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
@@ -1541,7 +1553,7 @@
         <v>3000000</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
@@ -1569,7 +1581,7 @@
         <v>2000000</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
@@ -1597,12 +1609,12 @@
         <v>13837500</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="13">
         <v>5750000</v>
@@ -1700,7 +1712,7 @@
         <v>550440</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
@@ -1728,35 +1740,35 @@
         <v>500000</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="A11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13">
         <v>500000</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="13">
         <v>1000000</v>
       </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13">
         <f t="shared" ref="G11:G19" si="2">E11*F11</f>
         <v>1000000</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
@@ -1861,7 +1873,7 @@
     </row>
     <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="1">
         <v>7000</v>
@@ -1886,7 +1898,7 @@
     </row>
     <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B17" s="10">
         <v>55000</v>
@@ -1935,31 +1947,31 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="10">
         <v>1300000</v>
       </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
         <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="10">
         <v>600000</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="11">
         <v>2</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="10">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
@@ -2013,33 +2025,36 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="13">
         <v>20000</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="12">
         <v>100</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="13">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="13">
         <v>20000</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="14">
         <v>100</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="13">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
+      <c r="H22" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B23" s="10">
         <v>300000</v>
@@ -2064,7 +2079,7 @@
     </row>
     <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B24" s="10">
         <v>130000</v>
@@ -2098,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="10">
-        <f t="shared" ref="D25:D40" si="3">B25*C25</f>
+        <f t="shared" ref="D25:D39" si="3">B25*C25</f>
         <v>5000000</v>
       </c>
       <c r="E25" s="10">
@@ -2158,13 +2173,13 @@
         <v>3</v>
       </c>
       <c r="G27" s="13">
-        <f t="shared" ref="G27:G44" si="5">E27*F27</f>
+        <f t="shared" ref="G27:G43" si="5">E27*F27</f>
         <v>750000</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B28" s="10">
         <v>449000</v>
@@ -2189,7 +2204,7 @@
     </row>
     <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B29" s="10">
         <v>500000</v>
@@ -2214,7 +2229,7 @@
     </row>
     <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="10">
         <v>800000</v>
@@ -2239,7 +2254,7 @@
     </row>
     <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="10">
         <v>220000</v>
@@ -2289,7 +2304,7 @@
     </row>
     <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="10">
         <v>1000000</v>
@@ -2314,7 +2329,7 @@
     </row>
     <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="10">
         <v>1551700</v>
@@ -2339,7 +2354,7 @@
     </row>
     <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="10">
         <v>538000</v>
@@ -2362,399 +2377,386 @@
         <v>438000</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B36" s="13">
-        <v>2500</v>
+        <v>15000</v>
       </c>
       <c r="C36" s="12">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D36" s="13">
         <f t="shared" si="3"/>
-        <v>1250000</v>
+        <v>4500000</v>
       </c>
       <c r="E36" s="13">
-        <v>2500</v>
+        <v>15000</v>
       </c>
       <c r="F36" s="14">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G36" s="13">
         <f t="shared" si="5"/>
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="13">
         <v>1250000</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="13">
-        <v>15000</v>
-      </c>
       <c r="C37" s="12">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="D37" s="13">
         <f t="shared" si="3"/>
-        <v>4500000</v>
+        <v>2500000</v>
       </c>
       <c r="E37" s="13">
-        <v>15000</v>
+        <v>1250000</v>
       </c>
       <c r="F37" s="14">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="5"/>
-        <v>4500000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B38" s="13">
-        <v>1250000</v>
+        <v>25000</v>
       </c>
       <c r="C38" s="12">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D38" s="13">
         <f t="shared" si="3"/>
         <v>2500000</v>
       </c>
       <c r="E38" s="13">
-        <v>1250000</v>
+        <v>20000</v>
       </c>
       <c r="F38" s="14">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="G38" s="13">
         <f t="shared" si="5"/>
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="13">
-        <v>25000</v>
-      </c>
-      <c r="C39" s="12">
-        <v>100</v>
-      </c>
-      <c r="D39" s="13">
-        <f t="shared" si="3"/>
-        <v>2500000</v>
-      </c>
-      <c r="E39" s="13">
-        <v>25000</v>
-      </c>
-      <c r="F39" s="14">
-        <v>100</v>
-      </c>
-      <c r="G39" s="13">
-        <f t="shared" si="5"/>
-        <v>2500000</v>
-      </c>
-      <c r="H39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A40" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="10">
+        <v>3000000</v>
+      </c>
+      <c r="H38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="10">
         <v>33900</v>
       </c>
-      <c r="C40" s="9">
-        <v>1</v>
-      </c>
-      <c r="D40" s="10">
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10">
         <f t="shared" si="3"/>
         <v>33900</v>
       </c>
+      <c r="E39" s="10">
+        <v>33900</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10">
+        <f t="shared" si="5"/>
+        <v>33900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10">
+        <v>138000</v>
+      </c>
+      <c r="C40" s="9">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10">
+        <f>B40*C40</f>
+        <v>138000</v>
+      </c>
       <c r="E40" s="10">
-        <v>33900</v>
+        <v>111000</v>
       </c>
       <c r="F40" s="11">
         <v>1</v>
       </c>
       <c r="G40" s="10">
         <f t="shared" si="5"/>
-        <v>33900</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+        <v>111000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="10">
-        <v>138000</v>
+        <v>110000</v>
       </c>
       <c r="C41" s="9">
         <v>1</v>
       </c>
       <c r="D41" s="10">
         <f>B41*C41</f>
-        <v>138000</v>
+        <v>110000</v>
       </c>
       <c r="E41" s="10">
-        <v>111000</v>
+        <v>74250</v>
       </c>
       <c r="F41" s="11">
         <v>1</v>
       </c>
       <c r="G41" s="10">
         <f t="shared" si="5"/>
-        <v>111000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+        <v>74250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="10">
-        <v>110000</v>
+        <v>70000</v>
       </c>
       <c r="C42" s="9">
         <v>1</v>
       </c>
       <c r="D42" s="10">
         <f>B42*C42</f>
-        <v>110000</v>
+        <v>70000</v>
       </c>
       <c r="E42" s="10">
-        <v>74250</v>
+        <v>47250</v>
       </c>
       <c r="F42" s="11">
         <v>1</v>
       </c>
       <c r="G42" s="10">
         <f t="shared" si="5"/>
-        <v>74250</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+        <v>47250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="10">
-        <v>70000</v>
+        <v>15000</v>
       </c>
       <c r="C43" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="10">
         <f>B43*C43</f>
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="E43" s="10">
-        <v>47250</v>
+        <v>53000</v>
       </c>
       <c r="F43" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="10">
         <f t="shared" si="5"/>
-        <v>47250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A44" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="10">
-        <v>15000</v>
-      </c>
-      <c r="C44" s="9">
-        <v>2</v>
-      </c>
-      <c r="D44" s="10">
-        <f>B44*C44</f>
-        <v>30000</v>
-      </c>
-      <c r="E44" s="10">
-        <v>53000</v>
-      </c>
-      <c r="F44" s="11">
-        <v>2</v>
-      </c>
-      <c r="G44" s="10">
-        <f t="shared" si="5"/>
         <v>106000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="13">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="13">
         <v>100000</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C44" s="12">
         <v>5</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D44" s="13">
+        <f>C44*B44</f>
+        <v>500000</v>
+      </c>
+      <c r="E44" s="13">
+        <v>100000</v>
+      </c>
+      <c r="F44" s="14">
+        <v>5</v>
+      </c>
+      <c r="G44" s="13">
+        <f t="shared" ref="G44:G47" si="6">E44*F44</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="10">
+        <v>224000</v>
+      </c>
+      <c r="C45" s="9">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10">
         <f>C45*B45</f>
-        <v>500000</v>
-      </c>
-      <c r="E45" s="13">
-        <v>100000</v>
-      </c>
-      <c r="F45" s="14">
-        <v>5</v>
-      </c>
-      <c r="G45" s="13">
-        <f t="shared" ref="G45:G48" si="6">E45*F45</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A46" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="10">
         <v>224000</v>
       </c>
-      <c r="C46" s="9">
-        <v>1</v>
-      </c>
-      <c r="D46" s="10">
-        <f>C46*B46</f>
+      <c r="E45" s="10">
         <v>224000</v>
       </c>
-      <c r="E46" s="10">
-        <v>224000</v>
-      </c>
-      <c r="F46" s="11">
-        <v>1</v>
-      </c>
-      <c r="G46" s="10">
+      <c r="F45" s="11">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10">
         <f t="shared" si="6"/>
         <v>224000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A47" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="19">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="19">
         <v>157000</v>
       </c>
-      <c r="C47" s="20">
-        <v>1</v>
-      </c>
-      <c r="D47" s="19">
+      <c r="C46" s="20">
+        <v>1</v>
+      </c>
+      <c r="D46" s="19">
         <v>157000</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E46" s="19">
         <v>157000</v>
       </c>
-      <c r="F47" s="21">
-        <v>1</v>
-      </c>
-      <c r="G47" s="19">
+      <c r="F46" s="21">
+        <v>1</v>
+      </c>
+      <c r="G46" s="19">
         <f t="shared" si="6"/>
         <v>157000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A48" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" s="10">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="10">
         <v>650000</v>
       </c>
-      <c r="C48" s="20">
-        <v>1</v>
-      </c>
-      <c r="D48" s="10">
+      <c r="C47" s="20">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10">
         <v>650000</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E47" s="10">
         <v>600000</v>
       </c>
-      <c r="F48" s="21">
-        <v>1</v>
-      </c>
-      <c r="G48" s="10">
+      <c r="F47" s="21">
+        <v>1</v>
+      </c>
+      <c r="G47" s="10">
         <f t="shared" si="6"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="1">
-        <f>SUM(D2:D48)</f>
-        <v>101789100</v>
-      </c>
+      <c r="B48" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="1">
+        <f>SUM(D2:D47)</f>
+        <v>100539100</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="1">
+        <f>SUM(G2:G47)</f>
+        <v>108338920</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="1">
-        <f>SUM(G2:G48)</f>
-        <v>109088920</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B51" s="1"/>
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51">
+        <v>16</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A52" s="12"/>
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
       <c r="B52" s="15" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="C52">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A53" s="9"/>
-      <c r="B53" s="15" t="s">
-        <v>27</v>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="C53">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="3"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2762,12 +2764,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55">
-        <v>45</v>
-      </c>
+      <c r="B55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
@@ -3087,13 +3084,6 @@
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
       <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3105,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:C50"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,7 +3122,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -3149,7 +3139,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3166,7 +3156,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -3183,7 +3173,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -3200,12 +3190,12 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="4">
         <v>43434</v>
@@ -3217,12 +3207,12 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4">
         <v>43455</v>
@@ -3231,15 +3221,15 @@
         <v>1551700</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="4">
         <v>43439</v>
@@ -3248,15 +3238,15 @@
         <v>1277600</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="4">
         <v>43453</v>
@@ -3265,15 +3255,15 @@
         <v>438000</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="4">
         <v>43446</v>
@@ -3282,15 +3272,15 @@
         <v>128250</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="4">
         <v>43827</v>
@@ -3299,15 +3289,15 @@
         <v>1000000</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4">
         <v>43488</v>
@@ -3319,12 +3309,12 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <v>43488</v>
@@ -3336,7 +3326,7 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -3353,12 +3343,12 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="4">
         <v>43492</v>
@@ -3370,12 +3360,12 @@
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="4">
         <v>43497</v>
@@ -3387,12 +3377,12 @@
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="4">
         <v>43498</v>
@@ -3404,12 +3394,12 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4">
         <v>43498</v>
@@ -3421,12 +3411,12 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="4">
         <v>43500</v>
@@ -3438,12 +3428,12 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B20" s="4">
         <v>43503</v>
@@ -3452,15 +3442,15 @@
         <v>559930</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B21" s="4">
         <v>43503</v>
@@ -3469,15 +3459,15 @@
         <v>500000</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" s="4">
         <v>43503</v>
@@ -3486,15 +3476,15 @@
         <v>33900</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" s="4">
         <v>43504</v>
@@ -3506,7 +3496,7 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -3523,12 +3513,12 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B25" s="4">
         <v>43512</v>
@@ -3537,12 +3527,12 @@
         <v>50000</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B26" s="4">
         <v>43516</v>
@@ -3551,15 +3541,15 @@
         <v>5000000</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B27" s="4">
         <v>43514</v>
@@ -3571,12 +3561,12 @@
         <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B28" s="4">
         <v>43521</v>
@@ -3585,15 +3575,15 @@
         <v>39000</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B29" s="4">
         <v>43530</v>
@@ -3602,15 +3592,15 @@
         <v>16250000</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B30" s="4">
         <v>43530</v>
@@ -3622,12 +3612,12 @@
         <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B31" s="4">
         <v>43559</v>
@@ -3636,12 +3626,12 @@
         <v>848000</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B32" s="23">
         <v>43584</v>
@@ -3650,12 +3640,12 @@
         <v>1500000</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B33" s="4">
         <v>43559</v>
@@ -3664,12 +3654,12 @@
         <v>600000</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B34" s="4">
         <v>43559</v>
@@ -3681,12 +3671,12 @@
         <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B35" s="4">
         <v>43560</v>
@@ -3695,12 +3685,12 @@
         <v>146750</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B36" s="4">
         <v>43560</v>
@@ -3709,12 +3699,12 @@
         <v>127500</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B37" s="4">
         <v>43560</v>
@@ -3723,12 +3713,12 @@
         <v>224250</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B38" s="4">
         <v>43560</v>
@@ -3737,15 +3727,15 @@
         <v>550440</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B39" s="4">
         <v>43584</v>
@@ -3754,12 +3744,12 @@
         <v>750000</v>
       </c>
       <c r="E39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B40" s="4">
         <v>43560</v>
@@ -3768,15 +3758,15 @@
         <v>32000</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B41" s="4">
         <v>43567</v>
@@ -3785,12 +3775,12 @@
         <v>449000</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B42" s="4">
         <v>43566</v>
@@ -3799,10 +3789,10 @@
         <v>80000</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -3816,15 +3806,15 @@
         <v>1000000</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" s="4">
         <v>43585</v>
@@ -3833,12 +3823,12 @@
         <v>54500</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B45" s="4">
         <v>43585</v>
@@ -3850,12 +3840,12 @@
         <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B46" s="4">
         <v>43585</v>
@@ -3867,7 +3857,7 @@
         <v>27</v>
       </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -3884,12 +3874,12 @@
         <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B48" s="4">
         <v>43608</v>
@@ -3901,12 +3891,12 @@
         <v>27</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B49" s="4">
         <v>43605</v>
@@ -3918,12 +3908,12 @@
         <v>27</v>
       </c>
       <c r="E49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B50" s="4">
         <v>43605</v>
@@ -3935,12 +3925,12 @@
         <v>27</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B51" s="4">
         <v>43607</v>
@@ -3952,12 +3942,12 @@
         <v>27</v>
       </c>
       <c r="E51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B52" s="4">
         <v>43608</v>
@@ -3969,12 +3959,12 @@
         <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B53" s="4">
         <v>43619</v>
@@ -3986,24 +3976,76 @@
         <v>27</v>
       </c>
       <c r="E53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
+      <c r="A54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="4">
+        <v>43621</v>
+      </c>
+      <c r="C54" s="5">
+        <v>481950</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
+      <c r="A55" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="4">
+        <v>43621</v>
+      </c>
+      <c r="C55" s="5">
+        <v>713592</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
+      <c r="A56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="4">
+        <v>43621</v>
+      </c>
+      <c r="C56" s="5">
+        <v>45000</v>
+      </c>
+      <c r="D56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
+      <c r="A57" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" s="4">
+        <v>43621</v>
+      </c>
+      <c r="C57" s="5">
+        <v>24000</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B58" s="4"/>
@@ -4023,8 +4065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4036,15 +4078,15 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
         <v>151</v>
-      </c>
-      <c r="B3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" s="16">
         <v>39000</v>
@@ -4052,7 +4094,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" s="16">
         <v>86500</v>
@@ -4060,7 +4102,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B6" s="16">
         <v>1982700</v>
@@ -4068,7 +4110,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B7" s="16">
         <v>1000000</v>
@@ -4083,7 +4125,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B8" s="16">
         <v>1263250</v>
@@ -4091,15 +4133,15 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B9" s="16">
-        <v>550440</v>
+        <v>1745982</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" s="16">
         <v>21250000</v>
@@ -4114,7 +4156,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" s="16">
         <v>3000000</v>
@@ -4125,7 +4167,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B12" s="16">
         <v>1000000</v>
@@ -4136,7 +4178,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B13" s="16">
         <v>1000000</v>
@@ -4151,7 +4193,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B14" s="16">
         <v>3500000</v>
@@ -4166,7 +4208,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B15" s="16">
         <v>1000000</v>
@@ -4181,7 +4223,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B16" s="16">
         <v>584750</v>
@@ -4189,22 +4231,22 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B17" s="16">
-        <v>2000000</v>
+        <v>2024000</v>
       </c>
       <c r="C17">
         <v>13837500</v>
       </c>
       <c r="D17">
         <f>C17-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Niumich")</f>
-        <v>11837500</v>
+        <v>11813500</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B18" s="16">
         <v>2000000</v>
@@ -4215,15 +4257,15 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B19" s="16">
-        <v>1230750</v>
+        <v>1275750</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B20" s="16">
         <v>2914180</v>
@@ -4231,7 +4273,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B21" s="16">
         <v>1877600</v>
@@ -4239,7 +4281,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B22" s="16">
         <v>5848000</v>
@@ -4250,7 +4292,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B23" s="16">
         <v>510000</v>
@@ -4258,7 +4300,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B24" s="16">
         <v>2275000</v>
@@ -4269,7 +4311,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B25" s="16">
         <v>2000000</v>
@@ -4280,16 +4322,16 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B26" s="16"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B27" s="16">
-        <v>56912170</v>
+        <v>58176712</v>
       </c>
     </row>
   </sheetData>
@@ -4303,7 +4345,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B5"/>
+      <selection activeCell="B25" sqref="B25:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4319,12 +4361,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" s="16">
         <v>5600000</v>
@@ -4332,7 +4374,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="16">
         <v>6300000</v>
@@ -4340,7 +4382,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="16">
         <v>3000000</v>
@@ -4348,7 +4390,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="16">
         <v>17000000</v>
@@ -4356,7 +4398,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="16">
         <v>4000000</v>
@@ -4364,11 +4406,11 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7">
         <v>6000000</v>
@@ -4376,7 +4418,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="16"/>
     </row>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="169">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -518,6 +518,15 @@
   </si>
   <si>
     <t>47 ITEM</t>
+  </si>
+  <si>
+    <t>Jas + Celana Item</t>
+  </si>
+  <si>
+    <t>Boneka</t>
+  </si>
+  <si>
+    <t>Hadiah</t>
   </si>
 </sst>
 </file>
@@ -672,7 +681,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -693,7 +705,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43623.824742939818" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="59">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43631.506109490743" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:E100" sheet="PEMBAYARAN"/>
   </cacheSource>
@@ -705,7 +717,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="VENDOR" numFmtId="0">
-      <sharedItems containsBlank="1" count="23">
+      <sharedItems containsBlank="1" count="24">
         <s v="Wong Art"/>
         <s v="Koh Bastian"/>
         <s v="Laura Salon"/>
@@ -728,6 +740,7 @@
         <s v="Hotel"/>
         <s v="Cendana"/>
         <s v="Lyonly"/>
+        <s v="Hadiah"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -741,7 +754,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="59">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="64">
   <r>
     <n v="2000000"/>
     <s v="LUNAS"/>
@@ -1023,31 +1036,56 @@
     <x v="18"/>
   </r>
   <r>
+    <n v="726920"/>
+    <s v="LUNAS"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="1500000"/>
+    <s v="LUNAS"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <n v="717000"/>
+    <s v="LUNAS"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <n v="130000"/>
+    <s v="LUNAS"/>
+    <x v="22"/>
+  </r>
+  <r>
     <m/>
     <m/>
-    <x v="22"/>
+    <x v="23"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="22"/>
+    <x v="23"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="22"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="23"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" numFmtId="42" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="24">
+      <items count="25">
         <item x="17"/>
         <item x="20"/>
         <item x="5"/>
@@ -1070,6 +1108,7 @@
         <item x="10"/>
         <item x="11"/>
         <item x="0"/>
+        <item x="23"/>
         <item x="22"/>
         <item t="default"/>
       </items>
@@ -1078,7 +1117,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="24">
+  <rowItems count="25">
     <i>
       <x/>
     </i>
@@ -1148,6 +1187,9 @@
     <i>
       <x v="22"/>
     </i>
+    <i>
+      <x v="23"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -1159,7 +1201,7 @@
     <dataField name="Sum of NOMINAL" fld="0" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1461,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:G36"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,26 +1839,26 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>8500</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="9">
         <v>125</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <f t="shared" si="0"/>
         <v>1062500</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <v>12500</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="11">
         <v>200</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="10">
         <f t="shared" si="2"/>
         <v>2500000</v>
       </c>
@@ -2152,7 +2194,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>16</v>
       </c>
@@ -2177,7 +2219,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>116</v>
       </c>
@@ -2202,7 +2244,7 @@
         <v>449000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>114</v>
       </c>
@@ -2227,7 +2269,7 @@
         <v>498500</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>51</v>
       </c>
@@ -2252,7 +2294,7 @@
         <v>824950</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>52</v>
       </c>
@@ -2277,7 +2319,7 @@
         <v>259900</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>19</v>
       </c>
@@ -2302,7 +2344,7 @@
         <v>559930</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>53</v>
       </c>
@@ -2327,7 +2369,7 @@
         <v>1227600</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>54</v>
       </c>
@@ -2352,7 +2394,7 @@
         <v>1551700</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>55</v>
       </c>
@@ -2380,7 +2422,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>63</v>
       </c>
@@ -3093,10 +3135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3894,7 +3936,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>155</v>
       </c>
@@ -3911,7 +3953,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>156</v>
       </c>
@@ -3928,7 +3970,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>157</v>
       </c>
@@ -3945,7 +3987,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -3962,7 +4004,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>159</v>
       </c>
@@ -3979,7 +4021,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -3996,7 +4038,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -4013,7 +4055,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -4030,7 +4072,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -4047,13 +4089,340 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="4">
+        <v>43630</v>
+      </c>
+      <c r="C58" s="5">
+        <v>726920</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="4">
+        <v>43630</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="4">
+        <v>43627</v>
+      </c>
+      <c r="C60" s="5">
+        <v>717000</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" s="4">
+        <v>43629</v>
+      </c>
+      <c r="C61" s="5">
+        <v>130000</v>
+      </c>
+      <c r="D61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="4"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="4"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="4"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="4"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="4"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="4"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="4"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="4"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="4"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="4"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="4"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="4"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="4"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="4"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="4"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="4"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="4"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="4"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="4"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="4"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4063,10 +4432,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D27"/>
+  <dimension ref="A3:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4099,6 +4468,9 @@
       <c r="B5" s="16">
         <v>86500</v>
       </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
@@ -4107,6 +4479,9 @@
       <c r="B6" s="16">
         <v>1982700</v>
       </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
@@ -4136,7 +4511,10 @@
         <v>143</v>
       </c>
       <c r="B9" s="16">
-        <v>1745982</v>
+        <v>2462982</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -4211,25 +4589,24 @@
         <v>146</v>
       </c>
       <c r="B15" s="16">
-        <v>1000000</v>
-      </c>
-      <c r="C15">
         <v>2500000</v>
       </c>
-      <c r="D15">
-        <f>C15-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Lyonly")</f>
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>133</v>
       </c>
       <c r="B16" s="16">
         <v>584750</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>142</v>
       </c>
@@ -4244,7 +4621,7 @@
         <v>11813500</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>137</v>
       </c>
@@ -4255,31 +4632,40 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>148</v>
       </c>
       <c r="B19" s="16">
         <v>1275750</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>147</v>
       </c>
       <c r="B20" s="16">
-        <v>2914180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3641100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>145</v>
       </c>
       <c r="B21" s="16">
         <v>1877600</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>139</v>
       </c>
@@ -4290,15 +4676,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>135</v>
       </c>
       <c r="B23" s="16">
         <v>510000</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>136</v>
       </c>
@@ -4309,7 +4698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>127</v>
       </c>
@@ -4320,18 +4709,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>152</v>
       </c>
       <c r="B26" s="16"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="16">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="16">
-        <v>58176712</v>
+      <c r="B28" s="16">
+        <v>61250632</v>
       </c>
     </row>
   </sheetData>
@@ -4425,37 +4822,37 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="16"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="175">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -527,6 +527,24 @@
   </si>
   <si>
     <t>Hadiah</t>
+  </si>
+  <si>
+    <t>akomodasi prewedding</t>
+  </si>
+  <si>
+    <t>Dekorasi Gereja</t>
+  </si>
+  <si>
+    <t>DP Empal Rizqy</t>
+  </si>
+  <si>
+    <t>Empal Gentong</t>
+  </si>
+  <si>
+    <t>Mote &amp; Payet</t>
+  </si>
+  <si>
+    <t>KOBAYASHI</t>
   </si>
 </sst>
 </file>
@@ -646,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -654,7 +672,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -681,10 +698,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -705,7 +719,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43631.506109490743" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43649.322319212966" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="80">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:E100" sheet="PEMBAYARAN"/>
   </cacheSource>
@@ -717,7 +731,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="VENDOR" numFmtId="0">
-      <sharedItems containsBlank="1" count="24">
+      <sharedItems containsBlank="1" count="25">
         <s v="Wong Art"/>
         <s v="Koh Bastian"/>
         <s v="Laura Salon"/>
@@ -741,6 +755,7 @@
         <s v="Cendana"/>
         <s v="Lyonly"/>
         <s v="Hadiah"/>
+        <s v="Empal Gentong"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -754,7 +769,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="64">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="80">
   <r>
     <n v="2000000"/>
     <s v="LUNAS"/>
@@ -1056,36 +1071,116 @@
     <x v="22"/>
   </r>
   <r>
+    <n v="2400000"/>
+    <s v="LUNAS"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="500000"/>
+    <s v="LUNAS"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="200000"/>
+    <s v="LUNAS"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="400000"/>
+    <s v="DP"/>
+    <x v="23"/>
+  </r>
+  <r>
     <m/>
     <m/>
-    <x v="23"/>
+    <x v="24"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="23"/>
+    <x v="24"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="23"/>
+    <x v="24"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="23"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="24"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="24"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="24"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="24"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="24"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="24"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="24"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="24"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="24"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="24"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="24"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="24"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" numFmtId="42" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="25">
+      <items count="26">
         <item x="17"/>
         <item x="20"/>
         <item x="5"/>
@@ -1108,8 +1203,9 @@
         <item x="10"/>
         <item x="11"/>
         <item x="0"/>
+        <item x="24"/>
+        <item x="22"/>
         <item x="23"/>
-        <item x="22"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1117,7 +1213,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="25">
+  <rowItems count="26">
     <i>
       <x/>
     </i>
@@ -1190,6 +1286,9 @@
     <i>
       <x v="23"/>
     </i>
+    <i>
+      <x v="24"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -1201,7 +1300,7 @@
     <dataField name="Sum of NOMINAL" fld="0" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1503,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G8"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,51 +1645,51 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>100000</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>300</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <f t="shared" ref="D2:D24" si="0">B2*C2</f>
         <v>30000000</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>100000</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>300</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <f>E2*F2</f>
         <v>30000000</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>2500000</v>
       </c>
-      <c r="C3" s="20">
-        <v>1</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18">
         <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>3000000</v>
       </c>
-      <c r="F3" s="21">
-        <v>1</v>
-      </c>
-      <c r="G3" s="19">
+      <c r="F3" s="20">
+        <v>1</v>
+      </c>
+      <c r="G3" s="18">
         <f t="shared" ref="G3:G24" si="1">E3*F3</f>
         <v>3000000</v>
       </c>
@@ -1599,26 +1698,26 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>2500000</v>
       </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
         <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>2000000</v>
       </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
         <f>E4*F4</f>
         <v>2000000</v>
       </c>
@@ -1627,26 +1726,26 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>10000000</v>
       </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>13837500</v>
       </c>
-      <c r="F5" s="14">
-        <v>1</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
         <f t="shared" si="1"/>
         <v>13837500</v>
       </c>
@@ -1655,101 +1754,101 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>5750000</v>
       </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>5750000</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>5750000</v>
       </c>
-      <c r="F6" s="14">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
         <f t="shared" si="1"/>
         <v>5750000</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>5000000</v>
       </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>6000000</v>
       </c>
-      <c r="F7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
         <f t="shared" si="1"/>
         <v>6000000</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>3000000</v>
       </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>3000000</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>2000000</v>
       </c>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>350000</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>550440</v>
       </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
         <f>E9*F9</f>
         <v>550440</v>
       </c>
@@ -1758,26 +1857,26 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>250000</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>250000</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>2</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <f>E10*F10</f>
         <v>500000</v>
       </c>
@@ -1786,26 +1885,26 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>500000</v>
       </c>
-      <c r="C11" s="12">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>1000000</v>
       </c>
-      <c r="F11" s="14">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
         <f t="shared" ref="G11:G19" si="2">E11*F11</f>
         <v>1000000</v>
       </c>
@@ -1814,201 +1913,204 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>5000</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>350</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <f t="shared" si="0"/>
         <v>1750000</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>6500</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>350</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <f t="shared" si="2"/>
         <v>2275000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>8500</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>125</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <f t="shared" si="0"/>
         <v>1062500</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>12500</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>200</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <f t="shared" si="2"/>
         <v>2500000</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>750000</v>
       </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9">
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>1000000</v>
       </c>
-      <c r="F14" s="11">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>15000</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>2</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>25000</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>2</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="12">
         <v>7000</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="11">
         <v>40</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="12">
         <f t="shared" si="0"/>
         <v>280000</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="12">
         <v>7000</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="13">
         <v>40</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="12">
         <f t="shared" si="2"/>
         <v>280000</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>55000</v>
       </c>
-      <c r="C17" s="9">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10">
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
         <f t="shared" si="0"/>
         <v>55000</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>55000</v>
       </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
         <f t="shared" si="2"/>
         <v>55000</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="12">
         <v>30000</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="11">
         <v>5</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="12">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="E18" s="1">
-        <v>30000</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="E18" s="12">
+        <v>36000</v>
+      </c>
+      <c r="F18" s="13">
         <v>5</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="12">
         <f t="shared" si="2"/>
-        <v>150000</v>
+        <v>180000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>1300000</v>
       </c>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
         <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>600000</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>2</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
@@ -2017,404 +2119,404 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>2000000</v>
       </c>
-      <c r="C20" s="9">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>2000000</v>
       </c>
-      <c r="F20" s="11">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10">
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>500000</v>
       </c>
-      <c r="C21" s="9">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>500000</v>
       </c>
-      <c r="F21" s="11">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10">
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>20000</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>100</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="E22" s="13">
-        <v>20000</v>
-      </c>
-      <c r="F22" s="14">
-        <v>100</v>
-      </c>
-      <c r="G22" s="13">
+      <c r="E22" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F22" s="13">
+        <v>150</v>
+      </c>
+      <c r="G22" s="12">
         <f t="shared" si="1"/>
-        <v>2000000</v>
+        <v>2250000</v>
       </c>
       <c r="H22" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>300000</v>
       </c>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10">
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>300000</v>
       </c>
-      <c r="F23" s="11">
-        <v>1</v>
-      </c>
-      <c r="G23" s="10">
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
         <f t="shared" si="1"/>
         <v>300000</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>130000</v>
       </c>
-      <c r="C24" s="9">
-        <v>1</v>
-      </c>
-      <c r="D24" s="10">
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9">
         <f t="shared" si="0"/>
         <v>130000</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>130000</v>
       </c>
-      <c r="F24" s="11">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10">
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
         <f t="shared" si="1"/>
         <v>130000</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>5000000</v>
       </c>
-      <c r="C25" s="9">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9">
         <f t="shared" ref="D25:D39" si="3">B25*C25</f>
         <v>5000000</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>5848000</v>
       </c>
-      <c r="F25" s="11">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10">
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
         <f t="shared" ref="G25:G26" si="4">E25*F25</f>
         <v>5848000</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>7000000</v>
       </c>
-      <c r="C26" s="12">
-        <v>1</v>
-      </c>
-      <c r="D26" s="13">
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12">
         <f t="shared" si="3"/>
         <v>7000000</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <v>7000000</v>
       </c>
-      <c r="F26" s="14">
-        <v>1</v>
-      </c>
-      <c r="G26" s="13">
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+      <c r="G26" s="12">
         <f t="shared" si="4"/>
         <v>7000000</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>250000</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>3</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="12">
         <f t="shared" si="3"/>
         <v>750000</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <v>250000</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="13">
         <v>3</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="12">
         <f t="shared" ref="G27:G43" si="5">E27*F27</f>
         <v>750000</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>449000</v>
       </c>
-      <c r="C28" s="9">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10">
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9">
         <f t="shared" si="3"/>
         <v>449000</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <v>449000</v>
       </c>
-      <c r="F28" s="11">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
         <f t="shared" si="5"/>
         <v>449000</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>500000</v>
       </c>
-      <c r="C29" s="9">
-        <v>1</v>
-      </c>
-      <c r="D29" s="10">
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <v>498500</v>
       </c>
-      <c r="F29" s="11">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10">
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
         <f t="shared" si="5"/>
         <v>498500</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>800000</v>
       </c>
-      <c r="C30" s="9">
-        <v>1</v>
-      </c>
-      <c r="D30" s="10">
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9">
         <f t="shared" si="3"/>
         <v>800000</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <v>824950</v>
       </c>
-      <c r="F30" s="11">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10">
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
         <f t="shared" si="5"/>
         <v>824950</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>220000</v>
       </c>
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
-      <c r="D31" s="10">
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9">
         <f t="shared" si="3"/>
         <v>220000</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <v>259900</v>
       </c>
-      <c r="F31" s="11">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10">
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
         <f t="shared" si="5"/>
         <v>259900</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>560000</v>
       </c>
-      <c r="C32" s="9">
-        <v>1</v>
-      </c>
-      <c r="D32" s="10">
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9">
         <f t="shared" si="3"/>
         <v>560000</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <v>559930</v>
       </c>
-      <c r="F32" s="11">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10">
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
         <f t="shared" si="5"/>
         <v>559930</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>1000000</v>
       </c>
-      <c r="C33" s="9">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10">
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="9">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>1227600</v>
       </c>
-      <c r="F33" s="11">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10">
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9">
         <f t="shared" si="5"/>
         <v>1227600</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>1551700</v>
       </c>
-      <c r="C34" s="9">
-        <v>1</v>
-      </c>
-      <c r="D34" s="10">
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9">
         <f t="shared" si="3"/>
         <v>1551700</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>1551700</v>
       </c>
-      <c r="F34" s="11">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10">
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9">
         <f t="shared" si="5"/>
         <v>1551700</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>538000</v>
       </c>
-      <c r="C35" s="9">
-        <v>1</v>
-      </c>
-      <c r="D35" s="10">
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9">
         <f t="shared" si="3"/>
         <v>538000</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>438000</v>
       </c>
-      <c r="F35" s="11">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10">
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9">
         <f t="shared" si="5"/>
         <v>438000</v>
       </c>
@@ -2423,308 +2525,308 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <v>15000</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>300</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="12">
         <f t="shared" si="3"/>
         <v>4500000</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="12">
         <v>15000</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="13">
         <v>300</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="12">
         <f t="shared" si="5"/>
         <v>4500000</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>1250000</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <v>2</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="12">
         <f t="shared" si="3"/>
         <v>2500000</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <v>1250000</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="13">
         <v>2</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="12">
         <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>25000</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>100</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="12">
         <f t="shared" si="3"/>
         <v>2500000</v>
       </c>
-      <c r="E38" s="13">
-        <v>20000</v>
-      </c>
-      <c r="F38" s="14">
-        <v>150</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="E38" s="12">
+        <v>18000</v>
+      </c>
+      <c r="F38" s="13">
+        <v>200</v>
+      </c>
+      <c r="G38" s="12">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>3600000</v>
       </c>
       <c r="H38" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>33900</v>
       </c>
-      <c r="C39" s="9">
-        <v>1</v>
-      </c>
-      <c r="D39" s="10">
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9">
         <f t="shared" si="3"/>
         <v>33900</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="9">
         <v>33900</v>
       </c>
-      <c r="F39" s="11">
-        <v>1</v>
-      </c>
-      <c r="G39" s="10">
+      <c r="F39" s="10">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9">
         <f t="shared" si="5"/>
         <v>33900</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>138000</v>
       </c>
-      <c r="C40" s="9">
-        <v>1</v>
-      </c>
-      <c r="D40" s="10">
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+      <c r="D40" s="9">
         <f>B40*C40</f>
         <v>138000</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="9">
         <v>111000</v>
       </c>
-      <c r="F40" s="11">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10">
+      <c r="F40" s="10">
+        <v>1</v>
+      </c>
+      <c r="G40" s="9">
         <f t="shared" si="5"/>
         <v>111000</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>110000</v>
       </c>
-      <c r="C41" s="9">
-        <v>1</v>
-      </c>
-      <c r="D41" s="10">
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+      <c r="D41" s="9">
         <f>B41*C41</f>
         <v>110000</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="9">
         <v>74250</v>
       </c>
-      <c r="F41" s="11">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10">
+      <c r="F41" s="10">
+        <v>1</v>
+      </c>
+      <c r="G41" s="9">
         <f t="shared" si="5"/>
         <v>74250</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>70000</v>
       </c>
-      <c r="C42" s="9">
-        <v>1</v>
-      </c>
-      <c r="D42" s="10">
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
+      <c r="D42" s="9">
         <f>B42*C42</f>
         <v>70000</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="9">
         <v>47250</v>
       </c>
-      <c r="F42" s="11">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10">
+      <c r="F42" s="10">
+        <v>1</v>
+      </c>
+      <c r="G42" s="9">
         <f t="shared" si="5"/>
         <v>47250</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>15000</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>2</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <f>B43*C43</f>
         <v>30000</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="9">
         <v>53000</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <v>2</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <f t="shared" si="5"/>
         <v>106000</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <v>100000</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>5</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="12">
         <f>C44*B44</f>
         <v>500000</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="12">
         <v>100000</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="13">
         <v>5</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="12">
         <f t="shared" ref="G44:G47" si="6">E44*F44</f>
         <v>500000</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>224000</v>
       </c>
-      <c r="C45" s="9">
-        <v>1</v>
-      </c>
-      <c r="D45" s="10">
+      <c r="C45" s="8">
+        <v>1</v>
+      </c>
+      <c r="D45" s="9">
         <f>C45*B45</f>
         <v>224000</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="9">
         <v>224000</v>
       </c>
-      <c r="F45" s="11">
-        <v>1</v>
-      </c>
-      <c r="G45" s="10">
+      <c r="F45" s="10">
+        <v>1</v>
+      </c>
+      <c r="G45" s="9">
         <f t="shared" si="6"/>
         <v>224000</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="18">
         <v>157000</v>
       </c>
-      <c r="C46" s="20">
-        <v>1</v>
-      </c>
-      <c r="D46" s="19">
+      <c r="C46" s="19">
+        <v>1</v>
+      </c>
+      <c r="D46" s="18">
         <v>157000</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="18">
         <v>157000</v>
       </c>
-      <c r="F46" s="21">
-        <v>1</v>
-      </c>
-      <c r="G46" s="19">
+      <c r="F46" s="20">
+        <v>1</v>
+      </c>
+      <c r="G46" s="18">
         <f t="shared" si="6"/>
         <v>157000</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>650000</v>
       </c>
-      <c r="C47" s="20">
-        <v>1</v>
-      </c>
-      <c r="D47" s="10">
+      <c r="C47" s="19">
+        <v>1</v>
+      </c>
+      <c r="D47" s="9">
         <v>650000</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="9">
         <v>600000</v>
       </c>
-      <c r="F47" s="21">
-        <v>1</v>
-      </c>
-      <c r="G47" s="10">
+      <c r="F47" s="20">
+        <v>1</v>
+      </c>
+      <c r="G47" s="9">
         <f t="shared" si="6"/>
         <v>600000</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2738,7 +2840,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="1">
         <f>SUM(G2:G47)</f>
-        <v>108338920</v>
+        <v>109218920</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2756,8 +2858,8 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="15" t="s">
+      <c r="A51" s="11"/>
+      <c r="B51" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C51">
@@ -2769,8 +2871,8 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="15" t="s">
+      <c r="A52" s="8"/>
+      <c r="B52" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C52">
@@ -2782,7 +2884,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C53">
@@ -2794,7 +2896,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C54">
@@ -3137,8 +3239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,13 +3774,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="22">
         <v>43584</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="23">
         <v>1500000</v>
       </c>
       <c r="E32" t="s">
@@ -3954,7 +4056,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="26" t="s">
         <v>156</v>
       </c>
       <c r="B50" s="4">
@@ -4158,60 +4260,113 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="4"/>
+      <c r="A62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="4">
+        <v>43637</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2400000</v>
+      </c>
+      <c r="D62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="4"/>
+      <c r="A63" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="4">
+        <v>43636</v>
+      </c>
+      <c r="C63" s="5">
+        <v>500000</v>
+      </c>
+      <c r="D63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="4"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="4"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" s="4">
+        <v>43646</v>
+      </c>
+      <c r="C64" s="5">
+        <v>200000</v>
+      </c>
+      <c r="D64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" s="4">
+        <v>43648</v>
+      </c>
+      <c r="C65" s="5">
+        <v>400000</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
@@ -4432,10 +4587,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D28"/>
+  <dimension ref="A3:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D7:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4446,7 +4601,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>149</v>
       </c>
       <c r="B3" t="s">
@@ -4454,18 +4609,21 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>39000</v>
       </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>86500</v>
       </c>
       <c r="C5" t="s">
@@ -4473,10 +4631,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>1982700</v>
       </c>
       <c r="C6" t="s">
@@ -4484,10 +4642,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>1000000</v>
       </c>
       <c r="C7">
@@ -4499,18 +4657,21 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="16">
-        <v>1263250</v>
+      <c r="B8" s="15">
+        <v>1763250</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>2462982</v>
       </c>
       <c r="C9" t="s">
@@ -4518,25 +4679,25 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>21250000</v>
       </c>
       <c r="C10">
-        <v>35750000</v>
+        <v>37000000</v>
       </c>
       <c r="D10">
         <f>C10-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Hotel Santika")</f>
-        <v>14500000</v>
+        <v>15750000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>3000000</v>
       </c>
       <c r="C11" t="s">
@@ -4544,10 +4705,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>1000000</v>
       </c>
       <c r="C12" t="s">
@@ -4555,10 +4716,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>1000000</v>
       </c>
       <c r="C13">
@@ -4570,10 +4731,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>3500000</v>
       </c>
       <c r="C14">
@@ -4585,10 +4746,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>2500000</v>
       </c>
       <c r="C15" t="s">
@@ -4596,10 +4757,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>584750</v>
       </c>
       <c r="C16" t="s">
@@ -4607,10 +4768,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>2024000</v>
       </c>
       <c r="C17">
@@ -4622,10 +4783,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>2000000</v>
       </c>
       <c r="C18" t="s">
@@ -4633,21 +4794,21 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="16">
-        <v>1275750</v>
+      <c r="B19" s="15">
+        <v>1475750</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>3641100</v>
       </c>
       <c r="C20" t="s">
@@ -4655,21 +4816,21 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="16">
-        <v>1877600</v>
+      <c r="B21" s="15">
+        <v>4277600</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>5848000</v>
       </c>
       <c r="C22" t="s">
@@ -4677,10 +4838,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>510000</v>
       </c>
       <c r="C23" t="s">
@@ -4688,10 +4849,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>2275000</v>
       </c>
       <c r="C24" t="s">
@@ -4699,10 +4860,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>2000000</v>
       </c>
       <c r="C25" t="s">
@@ -4710,25 +4871,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="15"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="15">
         <v>130000</v>
       </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="15">
+        <v>400000</v>
+      </c>
+      <c r="C28">
+        <v>3600000</v>
+      </c>
+      <c r="D28">
+        <f>C28-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Empal Gentong")</f>
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="16">
-        <v>61250632</v>
+      <c r="B29" s="15">
+        <v>64750632</v>
       </c>
     </row>
   </sheetData>
@@ -4742,7 +4921,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B26"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4754,10 +4933,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4765,7 +4944,7 @@
       <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>5600000</v>
       </c>
     </row>
@@ -4773,7 +4952,7 @@
       <c r="C3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>6300000</v>
       </c>
     </row>
@@ -4781,7 +4960,7 @@
       <c r="A4" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>3000000</v>
       </c>
     </row>
@@ -4789,7 +4968,7 @@
       <c r="C5" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>17000000</v>
       </c>
     </row>
@@ -4797,7 +4976,7 @@
       <c r="C6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>4000000</v>
       </c>
     </row>
@@ -4805,7 +4984,7 @@
       <c r="A7" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="15"/>
       <c r="C7" t="s">
         <v>107</v>
       </c>
@@ -4817,46 +4996,46 @@
       <c r="A8" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="15"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="16"/>
+      <c r="B9" s="15"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
+      <c r="B11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
+      <c r="B13" s="15"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
+      <c r="B15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
+      <c r="B16" s="15"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
+      <c r="B17" s="15"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
+      <c r="B18" s="15"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
+      <c r="B19" s="15"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <f>SUM(B2:B19)</f>
         <v>3000000</v>
       </c>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="177">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -517,9 +517,6 @@
     <t>Ci Denty</t>
   </si>
   <si>
-    <t>47 ITEM</t>
-  </si>
-  <si>
     <t>Jas + Celana Item</t>
   </si>
   <si>
@@ -545,17 +542,27 @@
   </si>
   <si>
     <t>KOBAYASHI</t>
+  </si>
+  <si>
+    <t>DP Konsumsi Gereja</t>
+  </si>
+  <si>
+    <t>Konsumsi Gereja</t>
+  </si>
+  <si>
+    <t>46 ITEM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -664,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -694,6 +701,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,7 +727,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43649.322319212966" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="80">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43649.799558333332" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="80">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:E100" sheet="PEMBAYARAN"/>
   </cacheSource>
@@ -731,7 +739,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="VENDOR" numFmtId="0">
-      <sharedItems containsBlank="1" count="25">
+      <sharedItems containsBlank="1" count="26">
         <s v="Wong Art"/>
         <s v="Koh Bastian"/>
         <s v="Laura Salon"/>
@@ -756,6 +764,7 @@
         <s v="Lyonly"/>
         <s v="Hadiah"/>
         <s v="Empal Gentong"/>
+        <s v="Konsumsi Gereja"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1091,96 +1100,96 @@
     <x v="23"/>
   </r>
   <r>
+    <n v="1250000"/>
+    <s v="DP"/>
+    <x v="24"/>
+  </r>
+  <r>
     <m/>
     <m/>
-    <x v="24"/>
+    <x v="25"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="24"/>
+    <x v="25"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="24"/>
+    <x v="25"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="24"/>
+    <x v="25"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="24"/>
+    <x v="25"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="24"/>
+    <x v="25"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="24"/>
+    <x v="25"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="24"/>
+    <x v="25"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="24"/>
+    <x v="25"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="24"/>
+    <x v="25"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="24"/>
+    <x v="25"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="24"/>
+    <x v="25"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="24"/>
+    <x v="25"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="24"/>
+    <x v="25"/>
   </r>
   <r>
     <m/>
     <m/>
-    <x v="24"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="24"/>
+    <x v="25"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" numFmtId="42" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="26">
+      <items count="27">
         <item x="17"/>
         <item x="20"/>
         <item x="5"/>
@@ -1203,9 +1212,10 @@
         <item x="10"/>
         <item x="11"/>
         <item x="0"/>
-        <item x="24"/>
+        <item x="25"/>
         <item x="22"/>
         <item x="23"/>
+        <item x="24"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1213,7 +1223,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="26">
+  <rowItems count="27">
     <i>
       <x/>
     </i>
@@ -1288,6 +1298,9 @@
     </i>
     <i>
       <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
     </i>
     <i t="grand">
       <x/>
@@ -1602,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,7 +2100,7 @@
         <v>180000</v>
       </c>
       <c r="H18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
@@ -2830,7 +2843,7 @@
         <v>24</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D48" s="1">
         <f>SUM(D2:D47)</f>
@@ -2876,7 +2889,7 @@
         <v>27</v>
       </c>
       <c r="C52">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2888,7 +2901,7 @@
         <v>86</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2900,7 +2913,7 @@
         <v>24</v>
       </c>
       <c r="C54">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -3239,9 +3252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4193,7 +4204,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B58" s="4">
         <v>43630</v>
@@ -4244,7 +4255,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B61" s="4">
         <v>43629</v>
@@ -4256,12 +4267,12 @@
         <v>27</v>
       </c>
       <c r="E61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B62" s="4">
         <v>43637</v>
@@ -4278,7 +4289,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B63" s="4">
         <v>43636</v>
@@ -4295,7 +4306,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B64" s="4">
         <v>43646</v>
@@ -4312,7 +4323,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B65" s="4">
         <v>43648</v>
@@ -4324,145 +4335,196 @@
         <v>26</v>
       </c>
       <c r="E65" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="27">
+        <v>43649</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1250000</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="4"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="4"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="4"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="4"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="4"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="5"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="4"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="5"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="4"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="4"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="4"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="4"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="4"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="5"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="4"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="5"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="4"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="4"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="4"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="4"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="4"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="4"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="4"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="4"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="4"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="4"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="4"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="4"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="4"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="4"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="4"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="4"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="4"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="4"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="4"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="4"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="27"/>
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="27"/>
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="27"/>
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="27"/>
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="27"/>
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="27"/>
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="27"/>
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="27"/>
+      <c r="C87" s="5"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="27"/>
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="27"/>
+      <c r="C89" s="5"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="27"/>
+      <c r="C90" s="5"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="27"/>
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="27"/>
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="27"/>
+      <c r="C93" s="5"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="27"/>
+      <c r="C94" s="5"/>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="27"/>
+      <c r="C95" s="5"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="27"/>
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="27"/>
+      <c r="C97" s="5"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="27"/>
+      <c r="C98" s="5"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="27"/>
+      <c r="C99" s="5"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="27"/>
+      <c r="C100" s="5"/>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="4"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="4"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
@@ -4587,10 +4649,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D29"/>
+  <dimension ref="A3:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D28" sqref="D7:D28"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D29" sqref="D7:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4878,7 +4940,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" s="15">
         <v>130000</v>
@@ -4889,7 +4951,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="15">
         <v>400000</v>
@@ -4904,10 +4966,25 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="15">
+        <v>1250000</v>
+      </c>
+      <c r="C29">
+        <v>2250000</v>
+      </c>
+      <c r="D29">
+        <f>C29-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Konsumsi Gereja")</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="15">
-        <v>64750632</v>
+      <c r="B30" s="15">
+        <v>66000632</v>
       </c>
     </row>
   </sheetData>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -4,23 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
     <sheet name="PEMBAYARAN" sheetId="3" r:id="rId2"/>
     <sheet name="REKAP PEMBAYARAN" sheetId="6" r:id="rId3"/>
-    <sheet name="PAYMENT PLAN" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="184">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -223,33 +222,6 @@
     <t>BELUM LUNAS</t>
   </si>
   <si>
-    <t>OGI</t>
-  </si>
-  <si>
-    <t>JUMLAH</t>
-  </si>
-  <si>
-    <t>Bonus Persistency Q2</t>
-  </si>
-  <si>
-    <t>Bonus Persistency Q3</t>
-  </si>
-  <si>
-    <t>Motor</t>
-  </si>
-  <si>
-    <t>Bonus Produksi 2018</t>
-  </si>
-  <si>
-    <t>Bonus Persistency Q1</t>
-  </si>
-  <si>
-    <t>CC MEGA</t>
-  </si>
-  <si>
-    <t>CC BRI</t>
-  </si>
-  <si>
     <t>BOUQUET BUNGA KELOBOT JAGUNG</t>
   </si>
   <si>
@@ -295,9 +267,6 @@
     <t>LED + BATERAI 50PCS</t>
   </si>
   <si>
-    <t>INFINITY</t>
-  </si>
-  <si>
     <t>KAIN (LAGI)</t>
   </si>
   <si>
@@ -343,9 +312,6 @@
     <t>PAYMENT 2</t>
   </si>
   <si>
-    <t>Arisan</t>
-  </si>
-  <si>
     <t>HAIR PIN &amp; FLOWER CROWN</t>
   </si>
   <si>
@@ -550,7 +516,61 @@
     <t>Konsumsi Gereja</t>
   </si>
   <si>
-    <t>46 ITEM</t>
+    <t>krupuk soun</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Kekurangan</t>
+  </si>
+  <si>
+    <t>Bunga dekor</t>
+  </si>
+  <si>
+    <t>H+7</t>
+  </si>
+  <si>
+    <t>Cetak foto wedding galeri</t>
+  </si>
+  <si>
+    <t>Lemuel</t>
+  </si>
+  <si>
+    <t>balon</t>
+  </si>
+  <si>
+    <t>Jade Bubble</t>
+  </si>
+  <si>
+    <t>INFINITY LUNAS</t>
+  </si>
+  <si>
+    <t>OGI LUNAS</t>
+  </si>
+  <si>
+    <t>cake bagi</t>
+  </si>
+  <si>
+    <t>Kobayashi</t>
+  </si>
+  <si>
+    <t>Krupuk Soun</t>
+  </si>
+  <si>
+    <t>angpao</t>
+  </si>
+  <si>
+    <t>LUNAS THX MISTER ALADIN</t>
+  </si>
+  <si>
+    <t>Tiket kereta berangkat dokumentasi</t>
+  </si>
+  <si>
+    <t>Transport Koh Bastian</t>
+  </si>
+  <si>
+    <t>KURANG PULANGNYA</t>
   </si>
 </sst>
 </file>
@@ -562,9 +582,9 @@
     <numFmt numFmtId="44" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,16 +632,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,13 +660,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -688,27 +712,339 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="42" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="42" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="42" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="42" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="42" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="45">
     <dxf>
       <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
@@ -727,19 +1063,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43649.799558333332" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="80">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43657.410645949072" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="99">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:E100" sheet="PEMBAYARAN"/>
   </cacheSource>
   <cacheFields count="3">
-    <cacheField name="NOMINAL" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="24000" maxValue="16250000"/>
+    <cacheField name="NOMINAL" numFmtId="42">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="16250000"/>
     </cacheField>
     <cacheField name="STATUS" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="VENDOR" numFmtId="0">
-      <sharedItems containsBlank="1" count="26">
+      <sharedItems containsBlank="1" count="32">
         <s v="Wong Art"/>
         <s v="Koh Bastian"/>
         <s v="Laura Salon"/>
@@ -765,6 +1101,12 @@
         <s v="Hadiah"/>
         <s v="Empal Gentong"/>
         <s v="Konsumsi Gereja"/>
+        <s v="Transport Koh Bastian"/>
+        <s v="Lemuel"/>
+        <s v="Jade Bubble"/>
+        <s v="Kobayashi"/>
+        <s v="Krupuk Soun"/>
+        <s v="angpao"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -778,7 +1120,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="80">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="99">
   <r>
     <n v="2000000"/>
     <s v="LUNAS"/>
@@ -1105,91 +1447,186 @@
     <x v="24"/>
   </r>
   <r>
-    <m/>
-    <m/>
+    <n v="100000"/>
+    <s v="LUNAS"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="342000"/>
+    <s v="LUNAS THX MISTER ALADIN"/>
     <x v="25"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="25"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="25"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="25"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="25"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="25"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="25"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="25"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="25"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="25"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="25"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="25"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="25"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="25"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="25"/>
+    <n v="0"/>
+    <m/>
+    <x v="26"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <m/>
+    <x v="27"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <m/>
+    <x v="28"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <m/>
+    <x v="29"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <m/>
+    <x v="30"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="31"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" numFmtId="42" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="27">
+      <items count="33">
         <item x="17"/>
         <item x="20"/>
         <item x="5"/>
@@ -1212,10 +1649,16 @@
         <item x="10"/>
         <item x="11"/>
         <item x="0"/>
-        <item x="25"/>
+        <item x="31"/>
         <item x="22"/>
         <item x="23"/>
         <item x="24"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="25"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1223,7 +1666,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="27">
+  <rowItems count="33">
     <i>
       <x/>
     </i>
@@ -1302,6 +1745,24 @@
     <i>
       <x v="25"/>
     </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -1312,9 +1773,135 @@
   <dataFields count="1">
     <dataField name="Sum of NOMINAL" fld="0" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="1">
+  <formats count="15">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="41">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="39">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -1613,11 +2200,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1681,33 +2266,36 @@
         <f>E2*F2</f>
         <v>30000000</v>
       </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>2500000</v>
       </c>
-      <c r="C3" s="19">
-        <v>1</v>
-      </c>
-      <c r="D3" s="18">
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17">
         <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>3000000</v>
       </c>
-      <c r="F3" s="20">
-        <v>1</v>
-      </c>
-      <c r="G3" s="18">
+      <c r="F3" s="19">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17">
         <f t="shared" ref="G3:G24" si="1">E3*F3</f>
         <v>3000000</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
@@ -1735,7 +2323,7 @@
         <v>2000000</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
@@ -1763,7 +2351,7 @@
         <v>13837500</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
@@ -1790,6 +2378,9 @@
         <f t="shared" si="1"/>
         <v>5750000</v>
       </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
@@ -1815,6 +2406,9 @@
         <f t="shared" si="1"/>
         <v>6000000</v>
       </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
@@ -1840,6 +2434,9 @@
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
@@ -1866,7 +2463,7 @@
         <v>550440</v>
       </c>
       <c r="H9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
@@ -1884,14 +2481,14 @@
         <v>500000</v>
       </c>
       <c r="E10" s="12">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="F10" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="12">
         <f>E10*F10</f>
-        <v>500000</v>
+        <v>900000</v>
       </c>
       <c r="H10" t="s">
         <v>44</v>
@@ -1912,42 +2509,45 @@
         <v>500000</v>
       </c>
       <c r="E11" s="12">
-        <v>1000000</v>
+        <v>1390950</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" ref="G11:G19" si="2">E11*F11</f>
-        <v>1000000</v>
+        <v>1390950</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>5000</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>350</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <f t="shared" si="0"/>
         <v>1750000</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>6500</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <v>350</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <f t="shared" si="2"/>
         <v>2275000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
@@ -1974,6 +2574,9 @@
         <f t="shared" si="2"/>
         <v>2500000</v>
       </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
@@ -1999,6 +2602,9 @@
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
@@ -2024,10 +2630,13 @@
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B16" s="12">
         <v>7000</v>
@@ -2052,7 +2661,7 @@
     </row>
     <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B17" s="9">
         <v>55000</v>
@@ -2100,7 +2709,7 @@
         <v>180000</v>
       </c>
       <c r="H18" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
@@ -2206,12 +2815,12 @@
         <v>2250000</v>
       </c>
       <c r="H22" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B23" s="9">
         <v>300000</v>
@@ -2234,9 +2843,9 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B24" s="9">
         <v>130000</v>
@@ -2259,7 +2868,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>17</v>
       </c>
@@ -2270,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" ref="D25:D39" si="3">B25*C25</f>
+        <f t="shared" ref="D25:D40" si="3">B25*C25</f>
         <v>5000000</v>
       </c>
       <c r="E25" s="9">
@@ -2284,7 +2893,7 @@
         <v>5848000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>25</v>
       </c>
@@ -2330,13 +2939,13 @@
         <v>3</v>
       </c>
       <c r="G27" s="12">
-        <f t="shared" ref="G27:G43" si="5">E27*F27</f>
+        <f t="shared" ref="G27:G44" si="5">E27*F27</f>
         <v>750000</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B28" s="9">
         <v>449000</v>
@@ -2361,7 +2970,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B29" s="9">
         <v>500000</v>
@@ -2589,279 +3198,298 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="B38" s="12">
-        <v>25000</v>
+        <v>1000000</v>
       </c>
       <c r="C38" s="11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D38" s="12">
         <f t="shared" si="3"/>
-        <v>2500000</v>
+        <v>1000000</v>
       </c>
       <c r="E38" s="12">
-        <v>18000</v>
+        <v>1000000</v>
       </c>
       <c r="F38" s="13">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G38" s="12">
         <f t="shared" si="5"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12">
+        <v>25000</v>
+      </c>
+      <c r="C39" s="11">
+        <v>100</v>
+      </c>
+      <c r="D39" s="12">
+        <f t="shared" si="3"/>
+        <v>2500000</v>
+      </c>
+      <c r="E39" s="12">
+        <v>18000</v>
+      </c>
+      <c r="F39" s="13">
+        <v>200</v>
+      </c>
+      <c r="G39" s="12">
+        <f t="shared" si="5"/>
         <v>3600000</v>
       </c>
-      <c r="H38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="9">
+      <c r="H39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="9">
         <v>33900</v>
       </c>
-      <c r="C39" s="8">
-        <v>1</v>
-      </c>
-      <c r="D39" s="9">
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+      <c r="D40" s="9">
         <f t="shared" si="3"/>
         <v>33900</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="9">
         <v>33900</v>
       </c>
-      <c r="F39" s="10">
-        <v>1</v>
-      </c>
-      <c r="G39" s="9">
+      <c r="F40" s="10">
+        <v>1</v>
+      </c>
+      <c r="G40" s="9">
         <f t="shared" si="5"/>
         <v>33900</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B41" s="9">
         <v>138000</v>
       </c>
-      <c r="C40" s="8">
-        <v>1</v>
-      </c>
-      <c r="D40" s="9">
-        <f>B40*C40</f>
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+      <c r="D41" s="9">
+        <f>B41*C41</f>
         <v>138000</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>111000</v>
       </c>
-      <c r="F40" s="10">
-        <v>1</v>
-      </c>
-      <c r="G40" s="9">
+      <c r="F41" s="10">
+        <v>1</v>
+      </c>
+      <c r="G41" s="9">
         <f t="shared" si="5"/>
         <v>111000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B42" s="9">
         <v>110000</v>
       </c>
-      <c r="C41" s="8">
-        <v>1</v>
-      </c>
-      <c r="D41" s="9">
-        <f>B41*C41</f>
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
+      <c r="D42" s="9">
+        <f>B42*C42</f>
         <v>110000</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="9">
         <v>74250</v>
       </c>
-      <c r="F41" s="10">
-        <v>1</v>
-      </c>
-      <c r="G41" s="9">
+      <c r="F42" s="10">
+        <v>1</v>
+      </c>
+      <c r="G42" s="9">
         <f t="shared" si="5"/>
         <v>74250</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B43" s="9">
         <v>70000</v>
       </c>
-      <c r="C42" s="8">
-        <v>1</v>
-      </c>
-      <c r="D42" s="9">
-        <f>B42*C42</f>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="9">
+        <f>B43*C43</f>
         <v>70000</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>47250</v>
       </c>
-      <c r="F42" s="10">
-        <v>1</v>
-      </c>
-      <c r="G42" s="9">
+      <c r="F43" s="10">
+        <v>1</v>
+      </c>
+      <c r="G43" s="9">
         <f t="shared" si="5"/>
         <v>47250</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B44" s="9">
         <v>15000</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C44" s="8">
         <v>2</v>
       </c>
-      <c r="D43" s="9">
-        <f>B43*C43</f>
+      <c r="D44" s="9">
+        <f>B44*C44</f>
         <v>30000</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>53000</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F44" s="10">
         <v>2</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G44" s="9">
         <f t="shared" si="5"/>
         <v>106000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B45" s="12">
         <v>100000</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C45" s="11">
         <v>5</v>
       </c>
-      <c r="D44" s="12">
-        <f>C44*B44</f>
+      <c r="D45" s="12">
+        <f>C45*B45</f>
         <v>500000</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E45" s="12">
         <v>100000</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="13">
         <v>5</v>
       </c>
-      <c r="G44" s="12">
-        <f t="shared" ref="G44:G47" si="6">E44*F44</f>
+      <c r="G45" s="12">
+        <f t="shared" ref="G45:G48" si="6">E45*F45</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="9">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="9">
         <v>224000</v>
       </c>
-      <c r="C45" s="8">
-        <v>1</v>
-      </c>
-      <c r="D45" s="9">
-        <f>C45*B45</f>
+      <c r="C46" s="8">
+        <v>1</v>
+      </c>
+      <c r="D46" s="9">
+        <f>C46*B46</f>
         <v>224000</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>224000</v>
       </c>
-      <c r="F45" s="10">
-        <v>1</v>
-      </c>
-      <c r="G45" s="9">
+      <c r="F46" s="10">
+        <v>1</v>
+      </c>
+      <c r="G46" s="9">
         <f t="shared" si="6"/>
         <v>224000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="18">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="17">
         <v>157000</v>
       </c>
-      <c r="C46" s="19">
-        <v>1</v>
-      </c>
-      <c r="D46" s="18">
+      <c r="C47" s="18">
+        <v>1</v>
+      </c>
+      <c r="D47" s="17">
         <v>157000</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E47" s="17">
         <v>157000</v>
       </c>
-      <c r="F46" s="20">
-        <v>1</v>
-      </c>
-      <c r="G46" s="18">
+      <c r="F47" s="19">
+        <v>1</v>
+      </c>
+      <c r="G47" s="17">
         <f t="shared" si="6"/>
         <v>157000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" s="9">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="9">
         <v>650000</v>
       </c>
-      <c r="C47" s="19">
-        <v>1</v>
-      </c>
-      <c r="D47" s="9">
+      <c r="C48" s="18">
+        <v>1</v>
+      </c>
+      <c r="D48" s="9">
         <v>650000</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="9">
         <v>600000</v>
       </c>
-      <c r="F47" s="20">
-        <v>1</v>
-      </c>
-      <c r="G47" s="9">
+      <c r="F48" s="19">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9">
         <f t="shared" si="6"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="1">
-        <f>SUM(D2:D47)</f>
-        <v>100539100</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="1">
-        <f>SUM(G2:G47)</f>
-        <v>109218920</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="B49" s="3" t="str">
+        <f>CONCATENATE(COUNT(B2:B48), " ITEM")</f>
+        <v>47 ITEM</v>
+      </c>
+      <c r="D49" s="1">
+        <f>SUM(D2:D48)</f>
+        <v>101539100</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1">
+        <f>SUM(G2:G48)</f>
+        <v>111009870</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
@@ -2870,38 +3498,33 @@
       <c r="F50" s="3"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51">
-        <v>16</v>
-      </c>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="14" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C52">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="17" t="s">
-        <v>86</v>
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2909,11 +3532,11 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="17" t="s">
-        <v>24</v>
+      <c r="B54" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="C54">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2921,7 +3544,13 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
+      <c r="B55" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55">
+        <f>SUM(C52:C54)</f>
+        <v>47</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
@@ -3241,6 +3870,13 @@
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
       <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3252,7 +3888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3277,7 +3915,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -3294,7 +3932,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3311,7 +3949,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -3328,7 +3966,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -3345,7 +3983,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -3362,7 +4000,7 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -3379,7 +4017,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3396,7 +4034,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3413,7 +4051,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3430,7 +4068,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -3447,12 +4085,12 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B12" s="4">
         <v>43488</v>
@@ -3464,12 +4102,12 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B13" s="4">
         <v>43488</v>
@@ -3481,7 +4119,7 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -3498,12 +4136,12 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B15" s="4">
         <v>43492</v>
@@ -3515,12 +4153,12 @@
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B16" s="4">
         <v>43497</v>
@@ -3532,7 +4170,7 @@
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -3549,7 +4187,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -3566,12 +4204,12 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B19" s="4">
         <v>43500</v>
@@ -3583,12 +4221,12 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B20" s="4">
         <v>43503</v>
@@ -3597,15 +4235,15 @@
         <v>559930</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B21" s="4">
         <v>43503</v>
@@ -3614,15 +4252,15 @@
         <v>500000</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B22" s="4">
         <v>43503</v>
@@ -3631,15 +4269,15 @@
         <v>33900</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B23" s="4">
         <v>43504</v>
@@ -3651,7 +4289,7 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -3668,12 +4306,12 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B25" s="4">
         <v>43512</v>
@@ -3682,12 +4320,12 @@
         <v>50000</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B26" s="4">
         <v>43516</v>
@@ -3696,15 +4334,15 @@
         <v>5000000</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B27" s="4">
         <v>43514</v>
@@ -3716,12 +4354,12 @@
         <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B28" s="4">
         <v>43521</v>
@@ -3730,15 +4368,15 @@
         <v>39000</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B29" s="4">
         <v>43530</v>
@@ -3747,15 +4385,15 @@
         <v>16250000</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B30" s="4">
         <v>43530</v>
@@ -3767,12 +4405,12 @@
         <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B31" s="4">
         <v>43559</v>
@@ -3781,26 +4419,26 @@
         <v>848000</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="22">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="21">
         <v>43584</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="22">
         <v>1500000</v>
       </c>
       <c r="E32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B33" s="4">
         <v>43559</v>
@@ -3809,12 +4447,12 @@
         <v>600000</v>
       </c>
       <c r="E33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B34" s="4">
         <v>43559</v>
@@ -3826,12 +4464,12 @@
         <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B35" s="4">
         <v>43560</v>
@@ -3840,12 +4478,12 @@
         <v>146750</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B36" s="4">
         <v>43560</v>
@@ -3854,12 +4492,12 @@
         <v>127500</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B37" s="4">
         <v>43560</v>
@@ -3868,12 +4506,12 @@
         <v>224250</v>
       </c>
       <c r="E37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B38" s="4">
         <v>43560</v>
@@ -3882,15 +4520,15 @@
         <v>550440</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B39" s="4">
         <v>43584</v>
@@ -3899,12 +4537,12 @@
         <v>750000</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B40" s="4">
         <v>43560</v>
@@ -3913,15 +4551,15 @@
         <v>32000</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B41" s="4">
         <v>43567</v>
@@ -3930,12 +4568,12 @@
         <v>449000</v>
       </c>
       <c r="E41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B42" s="4">
         <v>43566</v>
@@ -3944,13 +4582,13 @@
         <v>80000</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -3961,15 +4599,15 @@
         <v>1000000</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B44" s="4">
         <v>43585</v>
@@ -3978,12 +4616,12 @@
         <v>54500</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B45" s="4">
         <v>43585</v>
@@ -3995,12 +4633,12 @@
         <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B46" s="4">
         <v>43585</v>
@@ -4012,10 +4650,10 @@
         <v>27</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -4029,12 +4667,12 @@
         <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B48" s="4">
         <v>43608</v>
@@ -4046,12 +4684,12 @@
         <v>27</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B49" s="4">
         <v>43605</v>
@@ -4063,12 +4701,12 @@
         <v>27</v>
       </c>
       <c r="E49" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
-        <v>156</v>
+      <c r="A50" s="25" t="s">
+        <v>145</v>
       </c>
       <c r="B50" s="4">
         <v>43605</v>
@@ -4080,12 +4718,12 @@
         <v>27</v>
       </c>
       <c r="E50" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B51" s="4">
         <v>43607</v>
@@ -4097,12 +4735,12 @@
         <v>27</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B52" s="4">
         <v>43608</v>
@@ -4114,12 +4752,12 @@
         <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B53" s="4">
         <v>43619</v>
@@ -4131,12 +4769,12 @@
         <v>27</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B54" s="4">
         <v>43621</v>
@@ -4148,12 +4786,12 @@
         <v>27</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B55" s="4">
         <v>43621</v>
@@ -4165,12 +4803,12 @@
         <v>27</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B56" s="4">
         <v>43621</v>
@@ -4182,12 +4820,12 @@
         <v>27</v>
       </c>
       <c r="E56" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B57" s="4">
         <v>43621</v>
@@ -4199,12 +4837,12 @@
         <v>27</v>
       </c>
       <c r="E57" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B58" s="4">
         <v>43630</v>
@@ -4216,7 +4854,7 @@
         <v>27</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4233,12 +4871,12 @@
         <v>27</v>
       </c>
       <c r="E59" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B60" s="4">
         <v>43627</v>
@@ -4250,12 +4888,12 @@
         <v>27</v>
       </c>
       <c r="E60" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B61" s="4">
         <v>43629</v>
@@ -4267,12 +4905,12 @@
         <v>27</v>
       </c>
       <c r="E61" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B62" s="4">
         <v>43637</v>
@@ -4284,12 +4922,12 @@
         <v>27</v>
       </c>
       <c r="E62" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B63" s="4">
         <v>43636</v>
@@ -4301,12 +4939,12 @@
         <v>27</v>
       </c>
       <c r="E63" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B64" s="4">
         <v>43646</v>
@@ -4318,12 +4956,12 @@
         <v>27</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B65" s="4">
         <v>43648</v>
@@ -4335,14 +4973,14 @@
         <v>26</v>
       </c>
       <c r="E65" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>174</v>
-      </c>
-      <c r="B66" s="27">
+        <v>163</v>
+      </c>
+      <c r="B66" s="26">
         <v>43649</v>
       </c>
       <c r="C66" s="5">
@@ -4352,143 +4990,219 @@
         <v>26</v>
       </c>
       <c r="E66" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="27"/>
-      <c r="C67" s="5"/>
+      <c r="A67" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" s="26">
+        <v>43649</v>
+      </c>
+      <c r="C67" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="27"/>
-      <c r="C68" s="5"/>
+      <c r="A68" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" s="26">
+        <v>43657</v>
+      </c>
+      <c r="C68" s="5">
+        <v>342000</v>
+      </c>
+      <c r="D68" t="s">
+        <v>180</v>
+      </c>
+      <c r="E68" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="27"/>
-      <c r="C69" s="5"/>
+      <c r="A69" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="26">
+        <v>43658</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="27"/>
-      <c r="C70" s="5"/>
+      <c r="A70" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" s="26">
+        <v>43658</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="27"/>
-      <c r="C71" s="5"/>
+      <c r="A71" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="26">
+        <v>43658</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="27"/>
-      <c r="C72" s="5"/>
+      <c r="A72" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="26">
+        <v>43658</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="27"/>
-      <c r="C73" s="5"/>
+      <c r="A73" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="26">
+        <v>43658</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="27"/>
+      <c r="B74" s="26"/>
       <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="27"/>
+      <c r="B75" s="26"/>
       <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="27"/>
+      <c r="B76" s="26"/>
       <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="27"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="5"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="27"/>
+      <c r="B78" s="26"/>
       <c r="C78" s="5"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="27"/>
+      <c r="B79" s="26"/>
       <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="27"/>
+      <c r="B80" s="26"/>
       <c r="C80" s="5"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="27"/>
+      <c r="B81" s="26"/>
       <c r="C81" s="5"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="27"/>
+      <c r="B82" s="26"/>
       <c r="C82" s="5"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="27"/>
+      <c r="B83" s="26"/>
       <c r="C83" s="5"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="27"/>
+      <c r="B84" s="26"/>
       <c r="C84" s="5"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="27"/>
+      <c r="B85" s="26"/>
       <c r="C85" s="5"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="27"/>
+      <c r="B86" s="26"/>
       <c r="C86" s="5"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="27"/>
+      <c r="B87" s="26"/>
       <c r="C87" s="5"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="27"/>
+      <c r="B88" s="26"/>
       <c r="C88" s="5"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="27"/>
+      <c r="B89" s="26"/>
       <c r="C89" s="5"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="27"/>
+      <c r="B90" s="26"/>
       <c r="C90" s="5"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="27"/>
+      <c r="B91" s="26"/>
       <c r="C91" s="5"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="27"/>
+      <c r="B92" s="26"/>
       <c r="C92" s="5"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="27"/>
+      <c r="B93" s="26"/>
       <c r="C93" s="5"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="27"/>
+      <c r="B94" s="26"/>
       <c r="C94" s="5"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="27"/>
+      <c r="B95" s="26"/>
       <c r="C95" s="5"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="27"/>
+      <c r="B96" s="26"/>
       <c r="C96" s="5"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="27"/>
+      <c r="B97" s="26"/>
       <c r="C97" s="5"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="27"/>
+      <c r="B98" s="26"/>
       <c r="C98" s="5"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="27"/>
+      <c r="B99" s="26"/>
       <c r="C99" s="5"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="27"/>
+      <c r="B100" s="26"/>
       <c r="C100" s="5"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
@@ -4649,476 +5363,466 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D30"/>
+  <dimension ref="A3:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D29" sqref="D7:D29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
-        <v>149</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>140</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
-        <v>141</v>
+      <c r="A4" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="B4" s="15">
         <v>39000</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
-        <v>144</v>
+      <c r="A5" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="B5" s="15">
         <v>86500</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
-        <v>132</v>
+      <c r="A6" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="B6" s="15">
         <v>1982700</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="A7" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="35">
         <v>1000000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="36">
         <v>5750000</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="36">
         <f>C7-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Fams Wo")</f>
         <v>4750000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
-        <v>140</v>
+      <c r="A8" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="B8" s="15">
         <v>1763250</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
-        <v>143</v>
+      <c r="A9" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="B9" s="15">
         <v>2462982</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="15">
+      <c r="A10" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="29">
         <v>21250000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="30">
         <v>37000000</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="30">
         <f>C10-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Hotel Santika")</f>
         <v>15750000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
-        <v>138</v>
+      <c r="A11" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="B11" s="15">
         <v>3000000</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
-        <v>131</v>
+      <c r="A12" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="B12" s="15">
         <v>1000000</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="15">
+      <c r="A13" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="29">
         <v>1000000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="30">
         <v>8000000</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="30">
         <f>C13-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Koh Bastian")</f>
         <v>7000000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="15">
+      <c r="A14" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="29">
         <v>3500000</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="30">
         <v>7000000</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="30">
         <f>C14-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Laura Salon")</f>
         <v>3500000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
-        <v>146</v>
+      <c r="A15" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="B15" s="15">
         <v>2500000</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>133</v>
+      <c r="A16" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="B16" s="15">
         <v>584750</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="15">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="29">
         <v>2024000</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="30">
         <v>13837500</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="30">
         <f>C17-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Niumich")</f>
         <v>11813500</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>137</v>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="B18" s="15">
         <v>2000000</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>148</v>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="B19" s="15">
         <v>1475750</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>147</v>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="B20" s="15">
         <v>3641100</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>145</v>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>134</v>
       </c>
       <c r="B21" s="15">
         <v>4277600</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>139</v>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="B22" s="15">
         <v>5848000</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>135</v>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="B23" s="15">
-        <v>510000</v>
-      </c>
-      <c r="C23" t="s">
+        <v>610000</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>136</v>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="B24" s="15">
         <v>2275000</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>127</v>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="B25" s="15">
         <v>2000000</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>152</v>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="B26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>167</v>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="B27" s="15">
         <v>130000</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="15">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="32">
         <v>400000</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="33">
         <v>3600000</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="33">
         <f>C28-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Empal Gentong")</f>
         <v>3200000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B29" s="15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="32">
         <v>1250000</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="33">
         <v>2250000</v>
       </c>
-      <c r="D29">
-        <f>C29-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Konsumsi Gereja")</f>
+      <c r="D29" s="33">
+        <f>C29-GETPIVOTDATA("NOMINAL",A3,"VENDOR","Konsumsi Gereja")</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>150</v>
+      <c r="E29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>171</v>
       </c>
       <c r="B30" s="15">
-        <v>66000632</v>
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="D30" s="5">
+        <f>C30-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Lemuel")</f>
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="15">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>280000</v>
+      </c>
+      <c r="D31">
+        <f>C31-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Jade Bubble")</f>
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="15">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>180000</v>
+      </c>
+      <c r="D32">
+        <f>C32-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Kobayashi")</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="15">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="D33">
+        <f>C33-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Krupuk Soun")</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34" s="15">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>500000</v>
+      </c>
+      <c r="D34">
+        <f>C34-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","angpao")</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="15">
+        <v>342000</v>
+      </c>
+      <c r="C35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="15">
+        <v>66442632</v>
+      </c>
+      <c r="D36" s="5">
+        <f>SUM(D4:D35)</f>
+        <v>50373500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="15">
-        <v>5600000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="15">
-        <v>6300000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="15">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="15">
-        <v>17000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="15">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="15">
-        <f>SUM(B2:B19)</f>
-        <v>3000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="185">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -571,6 +571,9 @@
   </si>
   <si>
     <t>KURANG PULANGNYA</t>
+  </si>
+  <si>
+    <t>mote sepatu</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,12 +676,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,64 +733,180 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="42" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="42" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="42" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="41">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -809,142 +922,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1620,7 +1597,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" numFmtId="42" showAll="0"/>
@@ -1773,11 +1750,11 @@
   <dataFields count="1">
     <dataField name="Sum of NOMINAL" fld="0" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
-  <formats count="15">
-    <format dxfId="44">
+  <formats count="39">
+    <format dxfId="40">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="39">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1786,7 +1763,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1795,7 +1772,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="37">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1804,7 +1781,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1813,7 +1790,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="35">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1822,7 +1799,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1831,7 +1808,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="33">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1840,7 +1817,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1849,7 +1826,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="31">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1858,7 +1835,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1867,7 +1844,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="29">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1876,7 +1853,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1885,7 +1862,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1894,11 +1871,259 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
             <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="25">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="5">
+            <x v="26"/>
+            <x v="27"/>
+            <x v="28"/>
+            <x v="29"/>
+            <x v="30"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="24">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="5">
+            <x v="26"/>
+            <x v="27"/>
+            <x v="28"/>
+            <x v="29"/>
+            <x v="30"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="2">
+            <x v="4"/>
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="2">
+            <x v="4"/>
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="2">
+            <x v="7"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="2">
+            <x v="7"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="2">
+            <x v="11"/>
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="2">
+            <x v="11"/>
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="8">
+            <x v="14"/>
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="20"/>
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="8">
+            <x v="14"/>
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="20"/>
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="23"/>
           </reference>
         </references>
       </pivotArea>
@@ -2202,7 +2427,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2522,7 +2749,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>13</v>
       </c>
@@ -2550,7 +2777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -2578,7 +2805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
@@ -2606,7 +2833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -2634,7 +2861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>80</v>
       </c>
@@ -2659,7 +2886,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>81</v>
       </c>
@@ -2684,7 +2911,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
@@ -2712,7 +2939,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
@@ -2740,7 +2967,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
@@ -2765,7 +2992,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
@@ -2790,7 +3017,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>7</v>
       </c>
@@ -2818,7 +3045,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>67</v>
       </c>
@@ -3389,14 +3616,14 @@
         <v>500000</v>
       </c>
       <c r="E45" s="12">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="F45" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G45" s="12">
         <f t="shared" ref="G45:G48" si="6">E45*F45</f>
-        <v>500000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3488,7 +3715,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="1">
         <f>SUM(G2:G48)</f>
-        <v>111009870</v>
+        <v>111109870</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3888,8 +4115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4054,7 +4281,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -4071,7 +4298,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -4088,7 +4315,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -4105,7 +4332,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -4122,7 +4349,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4139,7 +4366,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -4156,7 +4383,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -4173,7 +4400,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -4190,7 +4417,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -4207,7 +4434,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -4224,7 +4451,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -4241,7 +4468,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -4258,7 +4485,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -4275,7 +4502,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -4292,7 +4519,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -4309,7 +4536,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -4323,7 +4550,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -5098,8 +5325,18 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="26"/>
-      <c r="C74" s="5"/>
+      <c r="A74" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" s="26">
+        <v>43654</v>
+      </c>
+      <c r="C74" s="5">
+        <v>170000</v>
+      </c>
+      <c r="E74" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" s="26"/>
@@ -5365,8 +5602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5392,76 +5629,76 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="35">
         <v>39000</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="35">
         <v>86500</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="35">
         <v>1982700</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="32">
         <v>1000000</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="33">
         <v>5750000</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="33">
         <f>C7-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Fams Wo")</f>
         <v>4750000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="35">
         <v>1763250</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="35">
         <v>2462982</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="5"/>
@@ -5482,190 +5719,190 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="35">
         <v>3000000</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="35">
         <v>1000000</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="32">
         <v>1000000</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="33">
         <v>8000000</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="33">
         <f>C13-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Koh Bastian")</f>
         <v>7000000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="32">
         <v>3500000</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="33">
         <v>7000000</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="33">
         <f>C14-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Laura Salon")</f>
         <v>3500000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="35">
         <v>2500000</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="35">
         <v>584750</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="32">
         <v>2024000</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="33">
         <v>13837500</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="33">
         <f>C17-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Niumich")</f>
         <v>11813500</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="35">
         <v>2000000</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="35">
         <v>1475750</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="35">
         <v>3641100</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="35">
         <v>4277600</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="35">
         <v>5848000</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="35">
         <v>610000</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="35">
         <v>2275000</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="35">
         <v>2000000</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="5"/>
@@ -5679,28 +5916,28 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="35">
         <v>130000</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="29">
         <v>400000</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="30">
         <v>3600000</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="30">
         <f>C28-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Empal Gentong")</f>
         <v>3200000</v>
       </c>
@@ -5724,76 +5961,76 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="32">
         <v>0</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="33">
         <v>1400000</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="33">
         <f>C30-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Lemuel")</f>
         <v>1400000</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="32">
         <v>0</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="33">
         <v>280000</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="33">
         <f>C31-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Jade Bubble")</f>
         <v>280000</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="32">
         <v>0</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="33">
         <v>180000</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="33">
         <f>C32-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Kobayashi")</f>
         <v>180000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="32">
         <v>0</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="33">
         <v>1000000</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="33">
         <f>C33-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Krupuk Soun")</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="32">
         <v>0</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="33">
         <v>500000</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="33">
         <f>C34-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","angpao")</f>
         <v>500000</v>
       </c>
@@ -5808,6 +6045,7 @@
       <c r="C35" t="s">
         <v>183</v>
       </c>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="189">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -574,6 +574,18 @@
   </si>
   <si>
     <t>mote sepatu</t>
+  </si>
+  <si>
+    <t>Tiket kereta pulang dokumentasi</t>
+  </si>
+  <si>
+    <t>LUNAS THX BLI2</t>
+  </si>
+  <si>
+    <t>Veil</t>
+  </si>
+  <si>
+    <t>Sepatu Ittaherl (Lagi)</t>
   </si>
 </sst>
 </file>
@@ -742,7 +754,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -831,20 +843,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1751,10 +1749,10 @@
     <dataField name="Sum of NOMINAL" fld="0" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="39">
-    <format dxfId="40">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="37">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1763,7 +1761,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1772,7 +1770,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="35">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1781,7 +1779,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1790,7 +1788,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="33">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1799,7 +1797,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1808,7 +1806,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="31">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1817,7 +1815,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1826,7 +1824,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="29">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1835,7 +1833,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1844,7 +1842,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1853,7 +1851,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1862,7 +1860,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1871,7 +1869,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1880,7 +1878,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="5">
@@ -1893,7 +1891,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="5">
@@ -1906,7 +1904,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1915,7 +1913,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1924,7 +1922,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="19">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1933,7 +1931,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1942,7 +1940,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="17">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1951,7 +1949,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1960,7 +1958,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1969,7 +1967,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1978,7 +1976,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2427,7 +2425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
@@ -4116,7 +4114,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5334,21 +5332,63 @@
       <c r="C74" s="5">
         <v>170000</v>
       </c>
+      <c r="D74" t="s">
+        <v>27</v>
+      </c>
       <c r="E74" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="26"/>
-      <c r="C75" s="5"/>
+      <c r="A75" t="s">
+        <v>185</v>
+      </c>
+      <c r="B75" s="26">
+        <v>43659</v>
+      </c>
+      <c r="C75" s="5">
+        <v>517500</v>
+      </c>
+      <c r="D75" t="s">
+        <v>186</v>
+      </c>
+      <c r="E75" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="26"/>
-      <c r="C76" s="5"/>
+      <c r="A76" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" s="26">
+        <v>43660</v>
+      </c>
+      <c r="C76" s="5">
+        <v>50000</v>
+      </c>
+      <c r="D76" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="26"/>
-      <c r="C77" s="5"/>
+      <c r="A77" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" s="26">
+        <v>43659</v>
+      </c>
+      <c r="C77" s="5">
+        <v>461000</v>
+      </c>
+      <c r="D77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="26"/>
@@ -5602,8 +5642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="188">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -568,9 +568,6 @@
   </si>
   <si>
     <t>Transport Koh Bastian</t>
-  </si>
-  <si>
-    <t>KURANG PULANGNYA</t>
   </si>
   <si>
     <t>mote sepatu</t>
@@ -754,7 +751,290 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="80">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1038,7 +1318,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43657.410645949072" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="99">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43660.484292824076" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="99">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:E100" sheet="PEMBAYARAN"/>
   </cacheSource>
@@ -1457,24 +1737,24 @@
     <x v="30"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
+    <n v="170000"/>
+    <s v="LUNAS"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="517500"/>
+    <s v="LUNAS THX BLI2"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <n v="50000"/>
+    <s v="LUNAS"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="461000"/>
+    <s v="LUNAS"/>
+    <x v="13"/>
   </r>
   <r>
     <m/>
@@ -1595,7 +1875,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" numFmtId="42" showAll="0"/>
@@ -1748,11 +2028,11 @@
   <dataFields count="1">
     <dataField name="Sum of NOMINAL" fld="0" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
-  <formats count="39">
-    <format dxfId="38">
+  <formats count="41">
+    <format dxfId="79">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="78">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1761,7 +2041,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1770,7 +2050,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="76">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1779,7 +2059,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1788,7 +2068,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="74">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1797,7 +2077,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1806,7 +2086,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="72">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1815,7 +2095,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1824,7 +2104,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="70">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1833,7 +2113,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1842,7 +2122,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="68">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1851,7 +2131,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1860,7 +2140,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="66">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1869,7 +2149,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1878,7 +2158,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="64">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="5">
@@ -1891,7 +2171,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="5">
@@ -1904,7 +2184,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="62">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1913,7 +2193,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1922,7 +2202,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="60">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1931,7 +2211,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1940,7 +2220,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="58">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1949,7 +2229,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1958,7 +2238,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="56">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1967,7 +2247,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1976,7 +2256,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="54">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1985,7 +2265,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1994,7 +2274,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="52">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="3">
@@ -2005,7 +2285,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="3">
@@ -2016,7 +2296,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="50">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -2026,7 +2306,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -2036,7 +2316,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="48">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -2046,7 +2326,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -2056,7 +2336,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="46">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -2066,7 +2346,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -2076,7 +2356,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="44">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="8">
@@ -2092,7 +2372,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="8">
@@ -2108,7 +2388,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="42">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2117,11 +2397,29 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="31"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
-            <x v="23"/>
+            <x v="31"/>
           </reference>
         </references>
       </pivotArea>
@@ -2425,7 +2723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
@@ -5324,7 +5622,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B74" s="26">
         <v>43654</v>
@@ -5341,7 +5639,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B75" s="26">
         <v>43659</v>
@@ -5350,7 +5648,7 @@
         <v>517500</v>
       </c>
       <c r="D75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E75" t="s">
         <v>182</v>
@@ -5358,7 +5656,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B76" s="26">
         <v>43660</v>
@@ -5375,7 +5673,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B77" s="26">
         <v>43659</v>
@@ -5642,8 +5940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5868,7 +6166,7 @@
         <v>137</v>
       </c>
       <c r="B19" s="35">
-        <v>1475750</v>
+        <v>2156750</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>27</v>
@@ -6076,14 +6374,14 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="15">
-        <v>342000</v>
-      </c>
-      <c r="C35" t="s">
-        <v>183</v>
+      <c r="B35" s="35">
+        <v>859500</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D35" s="5"/>
     </row>
@@ -6092,7 +6390,7 @@
         <v>139</v>
       </c>
       <c r="B36" s="15">
-        <v>66442632</v>
+        <v>67641132</v>
       </c>
       <c r="D36" s="5">
         <f>SUM(D4:D35)</f>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="8595" windowHeight="7815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
     <sheet name="PEMBAYARAN" sheetId="3" r:id="rId2"/>
     <sheet name="REKAP PEMBAYARAN" sheetId="6" r:id="rId3"/>
+    <sheet name="PAYMENT PLAN" sheetId="7" r:id="rId4"/>
+    <sheet name="PAYMENT PLAN JULI" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="219">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -583,18 +585,113 @@
   </si>
   <si>
     <t>Sepatu Ittaherl (Lagi)</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>bonus persistency</t>
+  </si>
+  <si>
+    <t>komisi ceem</t>
+  </si>
+  <si>
+    <t>komisi ncek</t>
+  </si>
+  <si>
+    <t>duit skrg</t>
+  </si>
+  <si>
+    <t>arisan ci opie</t>
+  </si>
+  <si>
+    <t>shopback</t>
+  </si>
+  <si>
+    <t>program Niko</t>
+  </si>
+  <si>
+    <t>website niko</t>
+  </si>
+  <si>
+    <t>santika</t>
+  </si>
+  <si>
+    <t>dokumentasi</t>
+  </si>
+  <si>
+    <t>laura salon</t>
+  </si>
+  <si>
+    <t>niumich</t>
+  </si>
+  <si>
+    <t>empal</t>
+  </si>
+  <si>
+    <t>konsumsi gereja</t>
+  </si>
+  <si>
+    <t>lemuel</t>
+  </si>
+  <si>
+    <t>jade</t>
+  </si>
+  <si>
+    <t>kobayashi</t>
+  </si>
+  <si>
+    <t>perpanjang mobil</t>
+  </si>
+  <si>
+    <t>cicilan mbl</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>TOTAL HARGA</t>
+  </si>
+  <si>
+    <t>DP/MAU DIBAYAR</t>
+  </si>
+  <si>
+    <t>DUIT SKRG</t>
+  </si>
+  <si>
+    <t>ARISAN CI OPIE</t>
+  </si>
+  <si>
+    <t>BONUS PERSISTENCY</t>
+  </si>
+  <si>
+    <t>SHOPBACK</t>
+  </si>
+  <si>
+    <t>KURANG 1.500.000</t>
+  </si>
+  <si>
+    <t>softlens (LAGI)</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -701,7 +798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -747,280 +844,16 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="42" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1318,7 +1151,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43660.484292824076" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="99">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43663.678376620373" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="99">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:E100" sheet="PEMBAYARAN"/>
   </cacheSource>
@@ -1757,14 +1590,14 @@
     <x v="13"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
+    <n v="6500000"/>
+    <s v="KURANG 1.500.000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="157500"/>
+    <s v="LUNAS"/>
+    <x v="13"/>
   </r>
   <r>
     <m/>
@@ -1875,7 +1708,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" numFmtId="42" showAll="0"/>
@@ -2029,10 +1862,10 @@
     <dataField name="Sum of NOMINAL" fld="0" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="41">
-    <format dxfId="79">
+    <format dxfId="40">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="39">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2041,7 +1874,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2050,7 +1883,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="37">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2059,7 +1892,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2068,7 +1901,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="35">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2077,7 +1910,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2086,7 +1919,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="33">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2095,7 +1928,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2104,7 +1937,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="31">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2113,7 +1946,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2122,7 +1955,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="29">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2131,7 +1964,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2140,7 +1973,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2149,7 +1982,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2158,7 +1991,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="5">
@@ -2171,7 +2004,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="5">
@@ -2184,7 +2017,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2193,7 +2026,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2202,7 +2035,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2211,7 +2044,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2220,7 +2053,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="19">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2229,7 +2062,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2238,7 +2071,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="17">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2247,7 +2080,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2256,7 +2089,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2265,7 +2098,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2274,7 +2107,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="3">
@@ -2285,7 +2118,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="3">
@@ -2296,7 +2129,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -2306,7 +2139,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -2316,7 +2149,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -2326,7 +2159,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -2336,7 +2169,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -2346,7 +2179,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -2356,7 +2189,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="8">
@@ -2372,7 +2205,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="8">
@@ -2388,7 +2221,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2397,7 +2230,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2723,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2948,14 +2781,14 @@
         <v>3000000</v>
       </c>
       <c r="E8" s="12">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="1"/>
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -3004,14 +2837,14 @@
         <v>500000</v>
       </c>
       <c r="E10" s="12">
-        <v>300000</v>
+        <v>286667</v>
       </c>
       <c r="F10" s="13">
         <v>3</v>
       </c>
       <c r="G10" s="12">
         <f>E10*F10</f>
-        <v>900000</v>
+        <v>860001</v>
       </c>
       <c r="H10" t="s">
         <v>44</v>
@@ -3250,14 +3083,14 @@
         <v>1300000</v>
       </c>
       <c r="E19" s="9">
-        <v>600000</v>
+        <v>1912542</v>
       </c>
       <c r="F19" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="9">
         <f t="shared" si="2"/>
-        <v>1200000</v>
+        <v>1912542</v>
       </c>
       <c r="H19" t="s">
         <v>46</v>
@@ -3531,14 +3364,14 @@
         <v>800000</v>
       </c>
       <c r="E30" s="9">
-        <v>824950</v>
+        <v>1551870</v>
       </c>
       <c r="F30" s="10">
         <v>1</v>
       </c>
       <c r="G30" s="9">
         <f t="shared" si="5"/>
-        <v>824950</v>
+        <v>1551870</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4011,7 +3844,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="1">
         <f>SUM(G2:G48)</f>
-        <v>111109870</v>
+        <v>113509333</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4411,8 +4244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5689,12 +5522,38 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="26"/>
-      <c r="C78" s="5"/>
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" s="26">
+        <v>43663</v>
+      </c>
+      <c r="C78" s="5">
+        <v>6500000</v>
+      </c>
+      <c r="D78" t="s">
+        <v>216</v>
+      </c>
+      <c r="E78" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="26"/>
-      <c r="C79" s="5"/>
+      <c r="A79" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" s="26">
+        <v>43663</v>
+      </c>
+      <c r="C79" s="5">
+        <v>157500</v>
+      </c>
+      <c r="D79" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" s="26"/>
@@ -5940,8 +5799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6085,14 +5944,14 @@
         <v>117</v>
       </c>
       <c r="B13" s="32">
-        <v>1000000</v>
+        <v>7500000</v>
       </c>
       <c r="C13" s="33">
-        <v>8000000</v>
+        <v>9000000</v>
       </c>
       <c r="D13" s="33">
         <f>C13-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Koh Bastian")</f>
-        <v>7000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -6166,7 +6025,7 @@
         <v>137</v>
       </c>
       <c r="B19" s="35">
-        <v>2156750</v>
+        <v>2314250</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>27</v>
@@ -6390,15 +6249,590 @@
         <v>139</v>
       </c>
       <c r="B36" s="15">
-        <v>67641132</v>
+        <v>74298632</v>
       </c>
       <c r="D36" s="5">
         <f>SUM(D4:D35)</f>
-        <v>50373500</v>
+        <v>44873500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="36">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="5">
+        <v>16350000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="5">
+        <v>3800000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="36">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="36">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="36">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="5">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="5">
+        <v>-4750000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="5">
+        <v>-15750000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="5">
+        <v>-8000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="5">
+        <v>-3500000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="5">
+        <v>-11837500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="5">
+        <v>-3200000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="5">
+        <v>-1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="5">
+        <v>-1400000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="5">
+        <v>-280000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="5">
+        <v>-180000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="5">
+        <v>-1000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="5">
+        <v>-500000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="5">
+        <v>-2300000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="5">
+        <v>-2658000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="5">
+        <f>SUM(C2:C34)</f>
+        <v>-11705500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C9" activeCellId="1" sqref="C5 C9:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="39">
+        <v>-4750000</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="41">
+        <v>-15750000</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="40">
+        <v>43678</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="41">
+        <v>-8000000</v>
+      </c>
+      <c r="C4" s="41">
+        <v>-6500000</v>
+      </c>
+      <c r="D4" s="40">
+        <v>43663</v>
+      </c>
+      <c r="E4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="41">
+        <v>-3500000</v>
+      </c>
+      <c r="C5" s="41">
+        <v>-3500000</v>
+      </c>
+      <c r="D5" s="40">
+        <v>43682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="39">
+        <v>-11837500</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="38"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="39">
+        <v>-3200000</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="38"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="39">
+        <v>-1000000</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="38"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="41">
+        <v>-1400000</v>
+      </c>
+      <c r="C9" s="41">
+        <v>-1400000</v>
+      </c>
+      <c r="D9" s="40">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="41">
+        <v>-280000</v>
+      </c>
+      <c r="C10" s="41">
+        <v>-280000</v>
+      </c>
+      <c r="D10" s="40">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="41">
+        <v>-180000</v>
+      </c>
+      <c r="C11" s="41">
+        <v>-180000</v>
+      </c>
+      <c r="D11" s="40">
+        <v>43687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="41">
+        <v>-1000000</v>
+      </c>
+      <c r="C12" s="41">
+        <v>-500000</v>
+      </c>
+      <c r="D12" s="40">
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="41">
+        <v>-500000</v>
+      </c>
+      <c r="C13" s="41">
+        <v>-500000</v>
+      </c>
+      <c r="D13" s="40">
+        <v>43688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="41">
+        <v>-2300000</v>
+      </c>
+      <c r="C14" s="41">
+        <v>-2300000</v>
+      </c>
+      <c r="D14" s="40">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="41">
+        <v>-2658000</v>
+      </c>
+      <c r="C15" s="41">
+        <v>-2658000</v>
+      </c>
+      <c r="D15" s="40">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="38"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39">
+        <v>3500000</v>
+      </c>
+      <c r="D17" s="38"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39">
+        <v>11000000</v>
+      </c>
+      <c r="D18" s="38"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39">
+        <v>4000000</v>
+      </c>
+      <c r="D19" s="38"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39">
+        <v>1500000</v>
+      </c>
+      <c r="D20" s="38"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="38"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="38"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="38"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="38"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="38"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="39">
+        <f>SUM(B2:B25)</f>
+        <v>-56355500</v>
+      </c>
+      <c r="C26" s="39">
+        <f>SUM(C2:C25)</f>
+        <v>2182000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="2321" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
+</worksheet>
 </file>
--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="8595" windowHeight="7815" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="8595" windowHeight="7815" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="221">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -678,6 +678,12 @@
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>komisi lian</t>
+  </si>
+  <si>
+    <t>ptda ocil</t>
   </si>
 </sst>
 </file>
@@ -2556,9 +2562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
-    </sheetView>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4244,9 +4248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
-    </sheetView>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5799,9 +5801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6266,8 +6266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="36">
-        <v>4000000</v>
+        <v>4300000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6361,10 +6361,21 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
+      <c r="A10" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="36">
+        <v>3300000</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
+      <c r="A11" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4600000</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
@@ -6527,7 +6538,7 @@
       </c>
       <c r="C36" s="5">
         <f>SUM(C2:C34)</f>
-        <v>-11705500</v>
+        <v>-3505500</v>
       </c>
     </row>
   </sheetData>
@@ -6539,8 +6550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C9" activeCellId="1" sqref="C5 C9:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6571,7 +6582,9 @@
       <c r="B2" s="39">
         <v>-4750000</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="39">
+        <v>-4750000</v>
+      </c>
       <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6627,7 +6640,9 @@
       <c r="B6" s="39">
         <v>-11837500</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="39">
+        <v>-11837500</v>
+      </c>
       <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6637,7 +6652,9 @@
       <c r="B7" s="39">
         <v>-3200000</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="39">
+        <v>-3200000</v>
+      </c>
       <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6779,7 +6796,7 @@
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="39">
-        <v>4000000</v>
+        <v>4300000</v>
       </c>
       <c r="D19" s="38"/>
     </row>
@@ -6794,28 +6811,52 @@
       <c r="D20" s="38"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
+      <c r="A21" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="22">
+        <v>3300000</v>
+      </c>
       <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="A22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="5">
+        <v>3800000</v>
+      </c>
       <c r="D22" s="38"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+      <c r="A23" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="5">
+        <v>4600000</v>
+      </c>
       <c r="D23" s="38"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
+      <c r="A24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="5">
+        <v>1000000</v>
+      </c>
       <c r="D24" s="38"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
+      <c r="A25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="5">
+        <v>3500000</v>
+      </c>
       <c r="D25" s="38"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -6828,7 +6869,7 @@
       </c>
       <c r="C26" s="39">
         <f>SUM(C2:C25)</f>
-        <v>2182000</v>
+        <v>-1105500</v>
       </c>
     </row>
   </sheetData>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="224">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -593,9 +593,6 @@
     <t>Tanggal</t>
   </si>
   <si>
-    <t>bonus persistency</t>
-  </si>
-  <si>
     <t>komisi ceem</t>
   </si>
   <si>
@@ -605,9 +602,6 @@
     <t>duit skrg</t>
   </si>
   <si>
-    <t>arisan ci opie</t>
-  </si>
-  <si>
     <t>shopback</t>
   </si>
   <si>
@@ -659,15 +653,6 @@
     <t>DP/MAU DIBAYAR</t>
   </si>
   <si>
-    <t>DUIT SKRG</t>
-  </si>
-  <si>
-    <t>ARISAN CI OPIE</t>
-  </si>
-  <si>
-    <t>BONUS PERSISTENCY</t>
-  </si>
-  <si>
     <t>SHOPBACK</t>
   </si>
   <si>
@@ -684,6 +669,30 @@
   </si>
   <si>
     <t>ptda ocil</t>
+  </si>
+  <si>
+    <t>komisi polis baru ocil</t>
+  </si>
+  <si>
+    <t>DUIT SEKARANG</t>
+  </si>
+  <si>
+    <t>H+2</t>
+  </si>
+  <si>
+    <t>sebelom hari H</t>
+  </si>
+  <si>
+    <t>Sesudah jadi filenya</t>
+  </si>
+  <si>
+    <t>Sebelom Hari H</t>
+  </si>
+  <si>
+    <t>Sebelom hari H</t>
+  </si>
+  <si>
+    <t>Hari H</t>
   </si>
 </sst>
 </file>
@@ -2562,7 +2571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5534,7 +5543,7 @@
         <v>6500000</v>
       </c>
       <c r="D78" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E78" t="s">
         <v>117</v>
@@ -5542,7 +5551,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B79" s="26">
         <v>43663</v>
@@ -5801,7 +5810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5811,7 +5822,7 @@
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>138</v>
       </c>
@@ -5825,7 +5836,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>130</v>
       </c>
@@ -5837,7 +5848,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>133</v>
       </c>
@@ -5849,7 +5860,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>121</v>
       </c>
@@ -5861,7 +5872,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>123</v>
       </c>
@@ -5875,8 +5886,11 @@
         <f>C7-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Fams Wo")</f>
         <v>4750000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
         <v>129</v>
       </c>
@@ -5888,7 +5902,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
         <v>132</v>
       </c>
@@ -5900,7 +5914,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
         <v>119</v>
       </c>
@@ -5915,7 +5929,7 @@
         <v>15750000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
         <v>127</v>
       </c>
@@ -5927,7 +5941,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
         <v>120</v>
       </c>
@@ -5939,7 +5953,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>117</v>
       </c>
@@ -5953,8 +5967,11 @@
         <f>C13-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Koh Bastian")</f>
         <v>1500000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
         <v>118</v>
       </c>
@@ -5968,8 +5985,11 @@
         <f>C14-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Laura Salon")</f>
         <v>3500000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>135</v>
       </c>
@@ -5981,7 +6001,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>122</v>
       </c>
@@ -6007,6 +6027,9 @@
         <f>C17-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Niumich")</f>
         <v>11813500</v>
       </c>
+      <c r="E17" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
@@ -6171,6 +6194,9 @@
         <f>C30-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Lemuel")</f>
         <v>1400000</v>
       </c>
+      <c r="E30" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
@@ -6186,6 +6212,9 @@
         <f>C31-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Jade Bubble")</f>
         <v>280000</v>
       </c>
+      <c r="E31" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
@@ -6201,8 +6230,11 @@
         <f>C32-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Kobayashi")</f>
         <v>180000</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>178</v>
       </c>
@@ -6216,8 +6248,11 @@
         <f>C33-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Krupuk Soun")</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>179</v>
       </c>
@@ -6231,8 +6266,11 @@
         <f>C34-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","angpao")</f>
         <v>500000</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>182</v>
       </c>
@@ -6244,7 +6282,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>139</v>
       </c>
@@ -6264,10 +6302,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6289,12 +6327,12 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="36">
-        <v>4300000</v>
+      <c r="B2" s="38"/>
+      <c r="C2" s="5">
+        <v>16350000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6303,16 +6341,16 @@
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="5">
-        <v>16350000</v>
+        <v>3800000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="5">
-        <v>3800000</v>
+      <c r="B4" s="40"/>
+      <c r="C4" s="36">
+        <v>11000000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6321,83 +6359,88 @@
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="36">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="5">
         <v>3500000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="36">
-        <v>11000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="36">
-        <v>1500000</v>
-      </c>
-    </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="36">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7300000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="5">
+        <v>-4750000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="5">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="5">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="36">
-        <v>3300000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" s="5">
-        <v>4600000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
+      <c r="C13" s="5">
+        <v>-15750000</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="5">
-        <v>-4750000</v>
+        <v>-8000000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>198</v>
       </c>
+      <c r="B15" s="38"/>
       <c r="C15" s="5">
-        <v>-15750000</v>
+        <v>-3500000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6406,7 +6449,7 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="5">
-        <v>-8000000</v>
+        <v>-11837500</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6415,7 +6458,7 @@
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="5">
-        <v>-3500000</v>
+        <v>-3200000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6424,7 +6467,7 @@
       </c>
       <c r="B18" s="38"/>
       <c r="C18" s="5">
-        <v>-11837500</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6433,7 +6476,7 @@
       </c>
       <c r="B19" s="38"/>
       <c r="C19" s="5">
-        <v>-3200000</v>
+        <v>-1400000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6442,7 +6485,7 @@
       </c>
       <c r="B20" s="38"/>
       <c r="C20" s="5">
-        <v>-1000000</v>
+        <v>-280000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -6451,62 +6494,50 @@
       </c>
       <c r="B21" s="38"/>
       <c r="C21" s="5">
-        <v>-1400000</v>
+        <v>-180000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="B22" s="38"/>
       <c r="C22" s="5">
-        <v>-280000</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="B23" s="38"/>
       <c r="C23" s="5">
-        <v>-180000</v>
+        <v>-500000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="B24" s="38"/>
       <c r="C24" s="5">
-        <v>-1000000</v>
+        <v>-2300000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="B25" s="38"/>
       <c r="C25" s="5">
-        <v>-500000</v>
+        <v>-2658000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>207</v>
-      </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="5">
-        <v>-2300000</v>
-      </c>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>208</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="5">
-        <v>-2658000</v>
-      </c>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
@@ -6527,18 +6558,12 @@
       <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36" s="5">
-        <f>SUM(C2:C34)</f>
-        <v>-3505500</v>
+      <c r="A34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="5">
+        <f>SUM(C2:C32)</f>
+        <v>-4005500</v>
       </c>
     </row>
   </sheetData>
@@ -6548,10 +6573,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6559,23 +6584,24 @@
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D1" s="37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -6587,9 +6613,9 @@
       </c>
       <c r="D2" s="38"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B3" s="41">
         <v>-15750000</v>
@@ -6602,26 +6628,26 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B4" s="41">
         <v>-8000000</v>
       </c>
-      <c r="C4" s="41">
-        <v>-6500000</v>
-      </c>
       <c r="D4" s="40">
         <v>43663</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="F4" s="41">
+        <v>-6500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B5" s="41">
         <v>-3500000</v>
@@ -6633,9 +6659,9 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B6" s="39">
         <v>-11837500</v>
@@ -6645,9 +6671,9 @@
       </c>
       <c r="D6" s="38"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B7" s="39">
         <v>-3200000</v>
@@ -6657,9 +6683,9 @@
       </c>
       <c r="D7" s="38"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B8" s="39">
         <v>-1000000</v>
@@ -6667,9 +6693,9 @@
       <c r="C8" s="39"/>
       <c r="D8" s="38"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B9" s="41">
         <v>-1400000</v>
@@ -6681,9 +6707,9 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B10" s="41">
         <v>-280000</v>
@@ -6695,9 +6721,9 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B11" s="41">
         <v>-180000</v>
@@ -6709,7 +6735,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>165</v>
       </c>
@@ -6723,7 +6749,7 @@
         <v>43665</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>48</v>
       </c>
@@ -6737,9 +6763,9 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B14" s="41">
         <v>-2300000</v>
@@ -6751,9 +6777,9 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B15" s="41">
         <v>-2658000</v>
@@ -6765,24 +6791,19 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="38"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>212</v>
-      </c>
       <c r="B17" s="39"/>
-      <c r="C17" s="39">
-        <v>3500000</v>
-      </c>
+      <c r="C17" s="39"/>
       <c r="D17" s="38"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="39">
@@ -6791,18 +6812,13 @@
       <c r="D18" s="38"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>214</v>
-      </c>
       <c r="B19" s="39"/>
-      <c r="C19" s="39">
-        <v>4300000</v>
-      </c>
+      <c r="C19" s="39"/>
       <c r="D19" s="38"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="39">
@@ -6812,7 +6828,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="22">
@@ -6822,7 +6838,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" s="38"/>
       <c r="C22" s="5">
@@ -6832,7 +6848,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C23" s="5">
         <v>4600000</v>
@@ -6841,7 +6857,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B24" s="38"/>
       <c r="C24" s="5">
@@ -6851,7 +6867,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B25" s="38"/>
       <c r="C25" s="5">
@@ -6869,7 +6885,7 @@
       </c>
       <c r="C26" s="39">
         <f>SUM(C2:C25)</f>
-        <v>-1105500</v>
+        <v>-2405500</v>
       </c>
     </row>
   </sheetData>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="8595" windowHeight="7815" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="8595" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="223">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -594,9 +594,6 @@
   </si>
   <si>
     <t>komisi ceem</t>
-  </si>
-  <si>
-    <t>komisi ncek</t>
   </si>
   <si>
     <t>duit skrg</t>
@@ -813,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -864,6 +861,9 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2571,7 +2571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4257,7 +4257,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C79"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5543,7 +5545,7 @@
         <v>6500000</v>
       </c>
       <c r="D78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E78" t="s">
         <v>117</v>
@@ -5551,7 +5553,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B79" s="26">
         <v>43663</v>
@@ -5810,7 +5812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -5887,7 +5889,7 @@
         <v>4750000</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -5968,7 +5970,7 @@
         <v>1500000</v>
       </c>
       <c r="E13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -5986,7 +5988,7 @@
         <v>3500000</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -6028,7 +6030,7 @@
         <v>11813500</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6195,7 +6197,7 @@
         <v>1400000</v>
       </c>
       <c r="E30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -6213,7 +6215,7 @@
         <v>280000</v>
       </c>
       <c r="E31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -6231,7 +6233,7 @@
         <v>180000</v>
       </c>
       <c r="E32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -6249,7 +6251,7 @@
         <v>1000000</v>
       </c>
       <c r="E33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -6267,7 +6269,7 @@
         <v>500000</v>
       </c>
       <c r="E34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -6302,15 +6304,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -6336,12 +6339,12 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="5">
-        <v>3800000</v>
+      <c r="B3" s="40"/>
+      <c r="C3" s="36">
+        <v>5000000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6350,16 +6353,16 @@
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="36">
-        <v>11000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="36">
-        <v>1500000</v>
+      <c r="B5" s="38"/>
+      <c r="C5" s="5">
+        <v>1000000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6368,16 +6371,16 @@
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="5">
-        <v>1000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="5">
-        <v>3500000</v>
+      <c r="A7" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="36">
+        <v>3300000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6386,43 +6389,45 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="36">
-        <v>3300000</v>
+        <v>4600000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="5">
-        <v>4600000</v>
+      <c r="B9" s="8"/>
+      <c r="C9" s="36">
+        <v>7300000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="5">
-        <v>7300000</v>
-      </c>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="5">
+        <v>-4750000</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="38"/>
+        <v>195</v>
+      </c>
       <c r="C12" s="5">
-        <v>-4750000</v>
+        <v>-15750000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>196</v>
       </c>
+      <c r="B13" s="38"/>
       <c r="C13" s="5">
-        <v>-15750000</v>
+        <v>-1500000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6431,7 +6436,7 @@
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="5">
-        <v>-8000000</v>
+        <v>-3500000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6440,7 +6445,7 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="5">
-        <v>-3500000</v>
+        <v>-11837500</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6449,7 +6454,7 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="5">
-        <v>-11837500</v>
+        <v>-3200000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6458,7 +6463,7 @@
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="5">
-        <v>-3200000</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6467,7 +6472,7 @@
       </c>
       <c r="B18" s="38"/>
       <c r="C18" s="5">
-        <v>-1000000</v>
+        <v>-1400000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6476,7 +6481,7 @@
       </c>
       <c r="B19" s="38"/>
       <c r="C19" s="5">
-        <v>-1400000</v>
+        <v>-280000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6485,53 +6490,41 @@
       </c>
       <c r="B20" s="38"/>
       <c r="C20" s="5">
-        <v>-280000</v>
+        <v>-180000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B21" s="38"/>
       <c r="C21" s="5">
-        <v>-180000</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="B22" s="38"/>
       <c r="C22" s="5">
-        <v>-1000000</v>
+        <v>-500000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="B23" s="38"/>
       <c r="C23" s="5">
-        <v>-500000</v>
+        <v>-2300000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="5">
-        <v>-2300000</v>
-      </c>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="5">
-        <v>-2658000</v>
-      </c>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
@@ -6552,18 +6545,12 @@
       <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="5">
-        <f>SUM(C2:C32)</f>
-        <v>-4005500</v>
+      <c r="A32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="5">
+        <f>SUM(C2:C30)</f>
+        <v>-4647500</v>
       </c>
     </row>
   </sheetData>
@@ -6573,10 +6560,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6592,10 +6579,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>208</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>209</v>
       </c>
       <c r="D1" s="37" t="s">
         <v>31</v>
@@ -6608,14 +6595,17 @@
       <c r="B2" s="39">
         <v>-4750000</v>
       </c>
-      <c r="C2" s="39">
+      <c r="D2" s="38"/>
+      <c r="E2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="39">
         <v>-4750000</v>
       </c>
-      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="41">
         <v>-15750000</v>
@@ -6630,16 +6620,17 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" s="41">
         <v>-8000000</v>
       </c>
+      <c r="C4" s="42"/>
       <c r="D4" s="40">
         <v>43663</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F4" s="41">
         <v>-6500000</v>
@@ -6647,7 +6638,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" s="41">
         <v>-3500000</v>
@@ -6661,7 +6652,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="39">
         <v>-11837500</v>
@@ -6673,7 +6664,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7" s="39">
         <v>-3200000</v>
@@ -6685,7 +6676,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B8" s="39">
         <v>-1000000</v>
@@ -6695,7 +6686,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" s="41">
         <v>-1400000</v>
@@ -6704,12 +6695,12 @@
         <v>-1400000</v>
       </c>
       <c r="D9" s="40">
-        <v>43670</v>
+        <v>43674</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="41">
         <v>-280000</v>
@@ -6723,7 +6714,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" s="41">
         <v>-180000</v>
@@ -6746,7 +6737,7 @@
         <v>-500000</v>
       </c>
       <c r="D12" s="40">
-        <v>43665</v>
+        <v>43670</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6765,7 +6756,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14" s="41">
         <v>-2300000</v>
@@ -6774,21 +6765,24 @@
         <v>-2300000</v>
       </c>
       <c r="D14" s="40">
-        <v>43670</v>
+        <v>43677</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B15" s="41">
         <v>-2658000</v>
       </c>
-      <c r="C15" s="41">
-        <v>-2658000</v>
-      </c>
       <c r="D15" s="40">
         <v>43670</v>
+      </c>
+      <c r="E15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="41">
+        <v>-2658000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6803,89 +6797,75 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="39">
-        <v>11000000</v>
+        <v>5000000</v>
       </c>
       <c r="D18" s="38"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>215</v>
+      </c>
       <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
+      <c r="C19" s="5">
+        <v>7300000</v>
+      </c>
       <c r="D19" s="38"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" s="39"/>
+      <c r="A20" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" s="43"/>
       <c r="C20" s="39">
         <v>1500000</v>
       </c>
       <c r="D20" s="38"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="44">
+        <v>3300000</v>
+      </c>
+      <c r="D21" s="38"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="22">
-        <v>3300000</v>
-      </c>
-      <c r="D21" s="38"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="5">
-        <v>3800000</v>
+      <c r="B22" s="11"/>
+      <c r="C22" s="33">
+        <v>4600000</v>
       </c>
       <c r="D22" s="38"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>215</v>
-      </c>
+      <c r="A23" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="38"/>
       <c r="C23" s="5">
-        <v>4600000</v>
+        <v>1000000</v>
       </c>
       <c r="D23" s="38"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D24" s="38"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="5">
-        <v>3500000</v>
-      </c>
-      <c r="D25" s="38"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="39">
-        <f>SUM(B2:B25)</f>
+      <c r="B24" s="39">
+        <f>SUM(B2:B23)</f>
         <v>-56355500</v>
       </c>
-      <c r="C26" s="39">
-        <f>SUM(C2:C25)</f>
-        <v>-2405500</v>
+      <c r="C24" s="39">
+        <f>SUM(C2:C23)</f>
+        <v>-997500</v>
       </c>
     </row>
   </sheetData>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -15,13 +15,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="220">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -530,9 +530,6 @@
     <t>Bunga dekor</t>
   </si>
   <si>
-    <t>H+7</t>
-  </si>
-  <si>
     <t>Cetak foto wedding galeri</t>
   </si>
   <si>
@@ -593,21 +590,12 @@
     <t>Tanggal</t>
   </si>
   <si>
-    <t>komisi ceem</t>
-  </si>
-  <si>
     <t>duit skrg</t>
   </si>
   <si>
     <t>shopback</t>
   </si>
   <si>
-    <t>program Niko</t>
-  </si>
-  <si>
-    <t>website niko</t>
-  </si>
-  <si>
     <t>santika</t>
   </si>
   <si>
@@ -650,9 +638,6 @@
     <t>DP/MAU DIBAYAR</t>
   </si>
   <si>
-    <t>SHOPBACK</t>
-  </si>
-  <si>
     <t>KURANG 1.500.000</t>
   </si>
   <si>
@@ -668,9 +653,6 @@
     <t>ptda ocil</t>
   </si>
   <si>
-    <t>komisi polis baru ocil</t>
-  </si>
-  <si>
     <t>DUIT SEKARANG</t>
   </si>
   <si>
@@ -683,13 +665,22 @@
     <t>Sesudah jadi filenya</t>
   </si>
   <si>
-    <t>Sebelom Hari H</t>
-  </si>
-  <si>
     <t>Sebelom hari H</t>
   </si>
   <si>
     <t>Hari H</t>
+  </si>
+  <si>
+    <t>SANTIKA PAYMENT 3</t>
+  </si>
+  <si>
+    <t>Streamer</t>
+  </si>
+  <si>
+    <t>Jam Tangan</t>
+  </si>
+  <si>
+    <t>LEMUEL</t>
   </si>
 </sst>
 </file>
@@ -810,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -841,10 +832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="42" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -868,7 +855,206 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="90">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -970,14 +1156,154 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1166,13 +1492,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43663.678376620373" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="99">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43681.411939004633" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="99">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:E100" sheet="PEMBAYARAN"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="NOMINAL" numFmtId="42">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="16250000"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="22050000"/>
     </cacheField>
     <cacheField name="STATUS" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1560,8 +1886,8 @@
     <x v="25"/>
   </r>
   <r>
-    <n v="0"/>
-    <m/>
+    <n v="1000000"/>
+    <s v="DP"/>
     <x v="26"/>
   </r>
   <r>
@@ -1575,7 +1901,7 @@
     <x v="28"/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="500000"/>
     <m/>
     <x v="29"/>
   </r>
@@ -1615,34 +1941,34 @@
     <x v="13"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
+    <n v="3200000"/>
+    <s v="LUNAS"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <n v="1375000"/>
+    <s v="LUNAS"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <n v="1850000"/>
+    <s v="LUNAS"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="22050000"/>
+    <s v="LUNAS"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="349300"/>
+    <s v="LUNAS"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="411000"/>
+    <s v="LUNAS"/>
+    <x v="26"/>
   </r>
   <r>
     <m/>
@@ -1723,7 +2049,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" numFmtId="42" showAll="0"/>
@@ -1876,11 +2202,11 @@
   <dataFields count="1">
     <dataField name="Sum of NOMINAL" fld="0" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
-  <formats count="41">
-    <format dxfId="40">
+  <formats count="47">
+    <format dxfId="89">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="88">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1889,7 +2215,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1898,7 +2224,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="86">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1907,7 +2233,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1916,7 +2242,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="84">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1925,7 +2251,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1934,7 +2260,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="82">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1943,7 +2269,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1952,7 +2278,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="80">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1961,7 +2287,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1970,7 +2296,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="78">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1979,7 +2305,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1988,7 +2314,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="76">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -1997,7 +2323,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2006,7 +2332,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="74">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="5">
@@ -2019,7 +2345,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="5">
@@ -2032,7 +2358,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="72">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2041,7 +2367,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2050,7 +2376,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="70">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2059,7 +2385,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2068,7 +2394,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="68">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2077,7 +2403,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2086,7 +2412,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="66">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2095,7 +2421,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2104,25 +2430,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="24"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="24"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="13">
+    <format dxfId="64">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="3">
@@ -2133,7 +2441,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="3">
@@ -2144,7 +2452,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="62">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -2154,7 +2462,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -2164,7 +2472,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="60">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -2174,7 +2482,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -2184,7 +2492,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="58">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -2194,7 +2502,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -2204,7 +2512,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="56">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="8">
@@ -2220,7 +2528,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="8">
@@ -2236,7 +2544,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="54">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2245,7 +2553,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2254,7 +2562,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="52">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2263,11 +2571,83 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="51">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="31"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="50">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="47">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
-            <x v="31"/>
+            <x v="26"/>
           </reference>
         </references>
       </pivotArea>
@@ -2664,7 +3044,7 @@
         <v>3000000</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
@@ -2692,7 +3072,7 @@
         <v>2000000</v>
       </c>
       <c r="H4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
@@ -4257,8 +4637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C79"/>
+    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5381,7 +5761,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B68" s="26">
         <v>43657</v>
@@ -5390,29 +5770,32 @@
         <v>342000</v>
       </c>
       <c r="D68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="26">
+        <v>43676</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="D69" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" t="s">
         <v>170</v>
-      </c>
-      <c r="B69" s="26">
-        <v>43658</v>
-      </c>
-      <c r="C69" s="5">
-        <v>0</v>
-      </c>
-      <c r="E69" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B70" s="26">
         <v>43658</v>
@@ -5421,12 +5804,12 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B71" s="26">
         <v>43658</v>
@@ -5435,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -5443,13 +5826,13 @@
         <v>165</v>
       </c>
       <c r="B72" s="26">
-        <v>43658</v>
+        <v>43676</v>
       </c>
       <c r="C72" s="5">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="E72" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -5463,12 +5846,12 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B74" s="26">
         <v>43654</v>
@@ -5485,7 +5868,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B75" s="26">
         <v>43659</v>
@@ -5494,15 +5877,15 @@
         <v>517500</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B76" s="26">
         <v>43660</v>
@@ -5519,7 +5902,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B77" s="26">
         <v>43659</v>
@@ -5545,7 +5928,7 @@
         <v>6500000</v>
       </c>
       <c r="D78" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E78" t="s">
         <v>117</v>
@@ -5553,7 +5936,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B79" s="26">
         <v>43663</v>
@@ -5569,70 +5952,148 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="26"/>
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="26"/>
-      <c r="C81" s="5"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="26"/>
-      <c r="C82" s="5"/>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="26"/>
-      <c r="C83" s="5"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="26"/>
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="26"/>
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="26">
+        <v>43671</v>
+      </c>
+      <c r="C80" s="5">
+        <v>3200000</v>
+      </c>
+      <c r="D80" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="26">
+        <v>43676</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1375000</v>
+      </c>
+      <c r="D81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" s="26">
+        <v>43680</v>
+      </c>
+      <c r="C82" s="5">
+        <v>1850000</v>
+      </c>
+      <c r="D82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>216</v>
+      </c>
+      <c r="B83" s="26">
+        <v>43678</v>
+      </c>
+      <c r="C83" s="5">
+        <v>22050000</v>
+      </c>
+      <c r="D83" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>217</v>
+      </c>
+      <c r="B84" s="26">
+        <v>43677</v>
+      </c>
+      <c r="C84" s="5">
+        <v>349300</v>
+      </c>
+      <c r="D84" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>219</v>
+      </c>
+      <c r="B85" s="26">
+        <v>43679</v>
+      </c>
+      <c r="C85" s="5">
+        <v>411000</v>
+      </c>
+      <c r="D85" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B86" s="26"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B87" s="26"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88" s="26"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" s="26"/>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" s="26"/>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" s="26"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" s="26"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" s="26"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B94" s="26"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" s="26"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" s="26"/>
       <c r="C96" s="5"/>
     </row>
@@ -5812,14 +6273,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -5839,292 +6300,289 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="33">
         <v>39000</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="33">
         <v>86500</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="33">
         <v>1982700</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="30">
         <v>1000000</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="31">
         <v>5750000</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="31">
         <f>C7-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Fams Wo")</f>
         <v>4750000</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="33">
         <v>1763250</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="33">
         <v>2462982</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="29">
-        <v>21250000</v>
-      </c>
-      <c r="C10" s="30">
-        <v>37000000</v>
-      </c>
-      <c r="D10" s="30">
-        <f>C10-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Hotel Santika")</f>
-        <v>15750000</v>
-      </c>
+      <c r="B10" s="33">
+        <v>43300000</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="33">
         <v>3000000</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="33">
         <v>1000000</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="30">
         <v>7500000</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="31">
         <v>9000000</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="31">
         <f>C13-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Koh Bastian")</f>
         <v>1500000</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="30">
         <v>3500000</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="31">
         <v>7000000</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="31">
         <f>C14-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Laura Salon")</f>
         <v>3500000</v>
       </c>
       <c r="E14" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="33">
         <v>2500000</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="33">
         <v>584750</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="30">
         <v>2024000</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="31">
         <v>13837500</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="31">
         <f>C17-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Niumich")</f>
         <v>11813500</v>
       </c>
       <c r="E17" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="33">
         <v>2000000</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="33">
         <v>2314250</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="35">
-        <v>3641100</v>
-      </c>
-      <c r="C20" s="36" t="s">
+      <c r="B20" s="33">
+        <v>5840400</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="33">
         <v>4277600</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="33">
         <v>5848000</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="33">
         <v>610000</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="33">
         <v>2275000</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="33">
         <v>2000000</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="5"/>
@@ -6138,145 +6596,130 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="33">
         <v>130000</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="B28" s="29">
-        <v>400000</v>
-      </c>
-      <c r="C28" s="30">
+      <c r="B28" s="33">
         <v>3600000</v>
       </c>
-      <c r="D28" s="30">
-        <f>C28-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Empal Gentong")</f>
-        <v>3200000</v>
-      </c>
+      <c r="C28" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="42"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="32">
-        <v>1250000</v>
-      </c>
-      <c r="C29" s="33">
-        <v>2250000</v>
-      </c>
-      <c r="D29" s="33">
-        <f>C29-GETPIVOTDATA("NOMINAL",A3,"VENDOR","Konsumsi Gereja")</f>
-        <v>1000000</v>
-      </c>
-      <c r="E29" t="s">
-        <v>169</v>
-      </c>
+      <c r="B29" s="33">
+        <v>2625000</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="42"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="32">
+      <c r="A30" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="33">
+        <v>1411000</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="42"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="30">
         <v>0</v>
       </c>
-      <c r="C30" s="33">
-        <v>1400000</v>
-      </c>
-      <c r="D30" s="33">
-        <f>C30-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Lemuel")</f>
-        <v>1400000</v>
-      </c>
-      <c r="E30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="B31" s="32">
-        <v>0</v>
-      </c>
-      <c r="C31" s="33">
+      <c r="C31" s="31">
         <v>280000</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="31">
         <f>C31-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Jade Bubble")</f>
         <v>280000</v>
       </c>
       <c r="E31" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="B32" s="32">
+      <c r="A32" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="30">
         <v>0</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="31">
         <v>180000</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="31">
         <f>C32-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Kobayashi")</f>
         <v>180000</v>
       </c>
       <c r="E32" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="30">
+        <v>500000</v>
+      </c>
+      <c r="C33" s="31">
+        <v>1000000</v>
+      </c>
+      <c r="D33" s="31">
+        <f>C33-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Krupuk Soun")</f>
+        <v>500000</v>
+      </c>
+      <c r="E33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B34" s="30">
         <v>0</v>
       </c>
-      <c r="C33" s="33">
-        <v>1000000</v>
-      </c>
-      <c r="D33" s="33">
-        <f>C33-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Krupuk Soun")</f>
-        <v>1000000</v>
-      </c>
-      <c r="E33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B34" s="32">
-        <v>0</v>
-      </c>
-      <c r="C34" s="33">
+      <c r="C34" s="31">
         <v>500000</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="31">
         <f>C34-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","angpao")</f>
         <v>500000</v>
       </c>
       <c r="E34" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="B35" s="35">
+      <c r="A35" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="33">
         <v>859500</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -6289,11 +6732,11 @@
         <v>139</v>
       </c>
       <c r="B36" s="15">
-        <v>74298632</v>
+        <v>105033932</v>
       </c>
       <c r="D36" s="5">
         <f>SUM(D4:D35)</f>
-        <v>44873500</v>
+        <v>23023500</v>
       </c>
     </row>
   </sheetData>
@@ -6304,10 +6747,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6319,206 +6762,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>190</v>
-      </c>
       <c r="B2" s="38"/>
-      <c r="C2" s="5">
-        <v>16350000</v>
+      <c r="C2" s="34">
+        <v>27000000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="36">
-        <v>5000000</v>
+        <v>190</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="34">
+        <v>1500000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="34">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="34">
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="5">
+        <v>-4750000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-15750000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="36">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="5">
+        <v>-1500000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="5">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="5">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="36">
-        <v>3300000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="36">
-        <v>4600000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="36">
-        <v>7300000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="5">
+        <v>-3500000</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="38"/>
+        <v>194</v>
+      </c>
+      <c r="B11" s="36"/>
       <c r="C11" s="5">
-        <v>-4750000</v>
+        <v>-11837500</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>195</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B12" s="36"/>
       <c r="C12" s="5">
-        <v>-15750000</v>
+        <v>-400000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13" s="38"/>
+        <v>198</v>
+      </c>
+      <c r="B13" s="36"/>
       <c r="C13" s="5">
-        <v>-1500000</v>
+        <v>-280000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" s="38"/>
+        <v>199</v>
+      </c>
+      <c r="B14" s="36"/>
       <c r="C14" s="5">
-        <v>-3500000</v>
+        <v>-180000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="38"/>
+        <v>165</v>
+      </c>
+      <c r="B15" s="36"/>
       <c r="C15" s="5">
-        <v>-11837500</v>
+        <v>-500000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="38"/>
+        <v>48</v>
+      </c>
+      <c r="B16" s="36"/>
       <c r="C16" s="5">
-        <v>-3200000</v>
+        <v>-500000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="5">
-        <v>-1000000</v>
+        <v>-2300000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="5">
-        <v>-1400000</v>
-      </c>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="5">
-        <v>-280000</v>
-      </c>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>203</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="5">
-        <v>-180000</v>
-      </c>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="5">
-        <v>-1000000</v>
-      </c>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="5">
-        <v>-500000</v>
-      </c>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="5">
-        <v>-2300000</v>
-      </c>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
@@ -6527,30 +6934,12 @@
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>206</v>
-      </c>
-      <c r="C32" s="5">
-        <f>SUM(C2:C30)</f>
-        <v>-4647500</v>
+      <c r="A26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUM(C2:C24)</f>
+        <v>-5097500</v>
       </c>
     </row>
   </sheetData>
@@ -6562,9 +6951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6575,16 +6962,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="B1" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6592,26 +6979,26 @@
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="37">
         <v>-4750000</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="36"/>
       <c r="E2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F2" s="39">
+        <v>211</v>
+      </c>
+      <c r="F2" s="37">
         <v>-4750000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="41">
+        <v>191</v>
+      </c>
+      <c r="B3" s="39">
         <v>-15750000</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="40">
+      <c r="C3" s="39"/>
+      <c r="D3" s="38">
         <v>43678</v>
       </c>
       <c r="E3" t="s">
@@ -6620,109 +7007,114 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="41">
+        <v>192</v>
+      </c>
+      <c r="B4" s="39">
         <v>-8000000</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="40">
+      <c r="C4" s="40"/>
+      <c r="D4" s="38">
         <v>43663</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F4" s="41">
+        <v>207</v>
+      </c>
+      <c r="F4" s="39">
         <v>-6500000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="41">
+        <v>193</v>
+      </c>
+      <c r="B5" s="39">
         <v>-3500000</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="39">
         <v>-3500000</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="38">
         <v>43682</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="39">
+        <v>194</v>
+      </c>
+      <c r="B6" s="37">
         <v>-11837500</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="37">
         <v>-11837500</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>199</v>
+      <c r="A7" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="B7" s="39">
         <v>-3200000</v>
       </c>
-      <c r="C7" s="39">
-        <v>-3200000</v>
-      </c>
+      <c r="C7" s="39"/>
       <c r="D7" s="38"/>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>200</v>
+      <c r="A8" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="B8" s="39">
         <v>-1000000</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="38"/>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="41">
+        <v>197</v>
+      </c>
+      <c r="B9" s="39">
         <v>-1400000</v>
       </c>
-      <c r="C9" s="41">
-        <v>-1400000</v>
-      </c>
-      <c r="D9" s="40">
+      <c r="C9" s="39"/>
+      <c r="D9" s="38">
         <v>43674</v>
+      </c>
+      <c r="E9" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="41">
+        <v>198</v>
+      </c>
+      <c r="B10" s="39">
         <v>-280000</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="39">
         <v>-280000</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="38">
         <v>43678</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B11" s="41">
+        <v>199</v>
+      </c>
+      <c r="B11" s="39">
         <v>-180000</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="39">
         <v>-180000</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="38">
         <v>43687</v>
       </c>
     </row>
@@ -6730,142 +7122,132 @@
       <c r="A12" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="39">
         <v>-1000000</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="39">
         <v>-500000</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="38">
         <v>43670</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <v>500000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="39">
         <v>-500000</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="39">
         <v>-500000</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="38">
         <v>43688</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" s="41">
+        <v>200</v>
+      </c>
+      <c r="B14" s="39">
         <v>-2300000</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="8"/>
+      <c r="D14" s="38">
+        <v>43677</v>
+      </c>
+      <c r="E14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="39">
         <v>-2300000</v>
-      </c>
-      <c r="D14" s="40">
-        <v>43677</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" s="41">
+        <v>201</v>
+      </c>
+      <c r="B15" s="39">
         <v>-2658000</v>
       </c>
-      <c r="D15" s="40">
+      <c r="C15" s="8"/>
+      <c r="D15" s="38">
         <v>43670</v>
       </c>
       <c r="E15" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="41">
+        <v>207</v>
+      </c>
+      <c r="F15" s="39">
         <v>-2658000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="38"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="36"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="38"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39">
-        <v>5000000</v>
-      </c>
-      <c r="D18" s="38"/>
+        <v>210</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37">
+        <v>18000000</v>
+      </c>
+      <c r="D18" s="36"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="5">
-        <v>7300000</v>
-      </c>
-      <c r="D19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="39">
-        <v>1500000</v>
-      </c>
-      <c r="D20" s="38"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="44">
-        <v>3300000</v>
-      </c>
-      <c r="D21" s="38"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="36"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>214</v>
-      </c>
+      <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="33">
-        <v>4600000</v>
-      </c>
-      <c r="D22" s="38"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="36"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D23" s="38"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="36"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="37">
         <f>SUM(B2:B23)</f>
         <v>-56355500</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="37">
         <f>SUM(C2:C23)</f>
-        <v>-997500</v>
+        <v>1202500</v>
       </c>
     </row>
   </sheetData>

--- a/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
+++ b/incrediblejournEYBEEwithyou/MY WEDDING PLAN - 4.11.xlsx
@@ -2,26 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="8595" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="8595" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DAFTAR KEBUTUHAN" sheetId="1" r:id="rId1"/>
     <sheet name="PEMBAYARAN" sheetId="3" r:id="rId2"/>
     <sheet name="REKAP PEMBAYARAN" sheetId="6" r:id="rId3"/>
-    <sheet name="PAYMENT PLAN" sheetId="7" r:id="rId4"/>
-    <sheet name="PAYMENT PLAN JULI" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="205">
   <si>
     <t>KETERANGAN</t>
   </si>
@@ -446,9 +444,6 @@
     <t>Sum of NOMINAL</t>
   </si>
   <si>
-    <t>(blank)</t>
-  </si>
-  <si>
     <t>lemuela printing</t>
   </si>
   <si>
@@ -548,12 +543,6 @@
     <t>OGI LUNAS</t>
   </si>
   <si>
-    <t>cake bagi</t>
-  </si>
-  <si>
-    <t>Kobayashi</t>
-  </si>
-  <si>
     <t>Krupuk Soun</t>
   </si>
   <si>
@@ -584,117 +573,79 @@
     <t>Sepatu Ittaherl (Lagi)</t>
   </si>
   <si>
-    <t>Keterangan</t>
-  </si>
-  <si>
-    <t>Tanggal</t>
-  </si>
-  <si>
-    <t>duit skrg</t>
-  </si>
-  <si>
-    <t>shopback</t>
-  </si>
-  <si>
-    <t>santika</t>
-  </si>
-  <si>
-    <t>dokumentasi</t>
-  </si>
-  <si>
-    <t>laura salon</t>
-  </si>
-  <si>
-    <t>niumich</t>
-  </si>
-  <si>
-    <t>empal</t>
-  </si>
-  <si>
-    <t>konsumsi gereja</t>
-  </si>
-  <si>
-    <t>lemuel</t>
-  </si>
-  <si>
-    <t>jade</t>
-  </si>
-  <si>
-    <t>kobayashi</t>
-  </si>
-  <si>
-    <t>perpanjang mobil</t>
-  </si>
-  <si>
-    <t>cicilan mbl</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>TOTAL HARGA</t>
-  </si>
-  <si>
-    <t>DP/MAU DIBAYAR</t>
-  </si>
-  <si>
     <t>KURANG 1.500.000</t>
   </si>
   <si>
     <t>softlens (LAGI)</t>
   </si>
   <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>komisi lian</t>
-  </si>
-  <si>
-    <t>ptda ocil</t>
-  </si>
-  <si>
-    <t>DUIT SEKARANG</t>
-  </si>
-  <si>
-    <t>H+2</t>
-  </si>
-  <si>
-    <t>sebelom hari H</t>
-  </si>
-  <si>
-    <t>Sesudah jadi filenya</t>
-  </si>
-  <si>
-    <t>Sebelom hari H</t>
-  </si>
-  <si>
-    <t>Hari H</t>
-  </si>
-  <si>
     <t>SANTIKA PAYMENT 3</t>
   </si>
   <si>
-    <t>Streamer</t>
-  </si>
-  <si>
     <t>Jam Tangan</t>
   </si>
   <si>
     <t>LEMUEL</t>
+  </si>
+  <si>
+    <t>Genset</t>
+  </si>
+  <si>
+    <t>Genset Sukalila</t>
+  </si>
+  <si>
+    <t>Steamer</t>
+  </si>
+  <si>
+    <t>CANGKIR JAGO</t>
+  </si>
+  <si>
+    <t>KAIN TILE SOUVENIR TEPAY</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>teh imperial</t>
+  </si>
+  <si>
+    <t>Souvenir Tepay</t>
+  </si>
+  <si>
+    <t>Dekor</t>
+  </si>
+  <si>
+    <t>Tambahan Makan</t>
+  </si>
+  <si>
+    <t>Angpao misdinar</t>
+  </si>
+  <si>
+    <t>Persembahan Gereja</t>
+  </si>
+  <si>
+    <t>Koor</t>
+  </si>
+  <si>
+    <t>Wiwit</t>
+  </si>
+  <si>
+    <t>MAKE UP Lian + Ci Mey</t>
+  </si>
+  <si>
+    <t>Foto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -745,7 +696,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,12 +733,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -801,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -832,58 +777,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="42" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="42" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="42" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="118">
     <dxf>
       <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -1001,57 +905,491 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1150,216 +1488,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1492,19 +1620,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43681.411939004633" createdVersion="5" refreshedVersion="4" minRefreshableVersion="3" recordCount="99">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lie Chen" refreshedDate="43798.423590509257" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="99">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:E100" sheet="PEMBAYARAN"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="NOMINAL" numFmtId="42">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="22050000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="24000" maxValue="22050000"/>
     </cacheField>
     <cacheField name="STATUS" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="VENDOR" numFmtId="0">
-      <sharedItems containsBlank="1" count="32">
+      <sharedItems count="33">
         <s v="Wong Art"/>
         <s v="Koh Bastian"/>
         <s v="Laura Salon"/>
@@ -1533,10 +1661,11 @@
         <s v="Transport Koh Bastian"/>
         <s v="Lemuel"/>
         <s v="Jade Bubble"/>
-        <s v="Kobayashi"/>
         <s v="Krupuk Soun"/>
         <s v="angpao"/>
-        <m/>
+        <s v="Genset Sukalila"/>
+        <s v="Souvenir Tepay"/>
+        <s v="Lighting"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1776,91 +1905,91 @@
     <x v="15"/>
   </r>
   <r>
+    <n v="1000000"/>
+    <s v="LUNAS"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="669500"/>
+    <s v="LUNAS"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="85000"/>
+    <s v="LUNAS"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="245000"/>
+    <s v="LUNAS"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="270000"/>
+    <s v="LUNAS"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="138000"/>
+    <s v="LUNAS"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="158000"/>
+    <s v="LUNAS"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="481950"/>
+    <s v="LUNAS"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <n v="713592"/>
+    <s v="LUNAS"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <n v="45000"/>
+    <s v="LUNAS"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="24000"/>
+    <s v="LUNAS"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <n v="726920"/>
+    <s v="LUNAS"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="1500000"/>
+    <s v="LUNAS"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <n v="717000"/>
+    <s v="LUNAS"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <n v="130000"/>
+    <s v="LUNAS"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <n v="2400000"/>
+    <s v="LUNAS"/>
+    <x v="6"/>
+  </r>
+  <r>
     <n v="500000"/>
     <s v="LUNAS"/>
     <x v="8"/>
   </r>
   <r>
-    <n v="669500"/>
-    <s v="LUNAS"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <n v="85000"/>
-    <s v="LUNAS"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <n v="245000"/>
-    <s v="LUNAS"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <n v="270000"/>
-    <s v="LUNAS"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <n v="138000"/>
-    <s v="LUNAS"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <n v="158000"/>
-    <s v="LUNAS"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <n v="481950"/>
-    <s v="LUNAS"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <n v="713592"/>
-    <s v="LUNAS"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <n v="45000"/>
-    <s v="LUNAS"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <n v="24000"/>
-    <s v="LUNAS"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <n v="726920"/>
-    <s v="LUNAS"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <n v="1500000"/>
-    <s v="LUNAS"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <n v="717000"/>
-    <s v="LUNAS"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <n v="130000"/>
-    <s v="LUNAS"/>
-    <x v="22"/>
-  </r>
-  <r>
-    <n v="2400000"/>
-    <s v="LUNAS"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <n v="500000"/>
-    <s v="LUNAS"/>
-    <x v="8"/>
-  </r>
-  <r>
     <n v="200000"/>
     <s v="LUNAS"/>
     <x v="13"/>
@@ -1891,24 +2020,19 @@
     <x v="26"/>
   </r>
   <r>
-    <n v="0"/>
-    <m/>
+    <n v="280000"/>
+    <s v="LUNAS"/>
     <x v="27"/>
   </r>
   <r>
-    <n v="0"/>
-    <m/>
+    <n v="500000"/>
+    <s v="DP"/>
     <x v="28"/>
   </r>
   <r>
-    <n v="500000"/>
+    <n v="600000"/>
     <m/>
     <x v="29"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <m/>
-    <x v="30"/>
   </r>
   <r>
     <n v="170000"/>
@@ -1971,91 +2095,96 @@
     <x v="26"/>
   </r>
   <r>
-    <m/>
-    <m/>
+    <n v="3500000"/>
+    <s v="LUNAS"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1800000"/>
+    <s v="LUNAS"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <n v="400000"/>
+    <s v="LUNAS"/>
     <x v="31"/>
   </r>
   <r>
-    <m/>
-    <m/>
+    <n v="150000"/>
+    <s v="LUNAS"/>
     <x v="31"/>
   </r>
   <r>
-    <m/>
-    <m/>
+    <n v="1000000"/>
+    <s v="LUNAS"/>
     <x v="31"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="31"/>
+    <n v="12000000"/>
+    <s v="LUNAS"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <n v="4850000"/>
+    <s v="LUNAS"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="4090000"/>
+    <s v="LUNAS"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="200000"/>
+    <s v="LUNAS"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <n v="1000000"/>
+    <s v="LUNAS"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="1000000"/>
+    <s v="LUNAS"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="500000"/>
+    <s v="LUNAS"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <n v="2200000"/>
+    <s v="LUNAS"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <n v="2000000"/>
+    <s v="LUNAS"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="1200000"/>
+    <s v="LUNAS"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="2000000"/>
+    <s v="LUNAS"/>
+    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" numFmtId="42" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="33">
+      <items count="34">
         <item x="17"/>
         <item x="20"/>
         <item x="5"/>
@@ -2078,7 +2207,6 @@
         <item x="10"/>
         <item x="11"/>
         <item x="0"/>
-        <item x="31"/>
         <item x="22"/>
         <item x="23"/>
         <item x="24"/>
@@ -2086,8 +2214,10 @@
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
+        <item x="25"/>
         <item x="30"/>
-        <item x="25"/>
+        <item x="32"/>
+        <item x="31"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2095,7 +2225,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="33">
+  <rowItems count="34">
     <i>
       <x/>
     </i>
@@ -2192,6 +2322,9 @@
     <i>
       <x v="31"/>
     </i>
+    <i>
+      <x v="32"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -2202,11 +2335,11 @@
   <dataFields count="1">
     <dataField name="Sum of NOMINAL" fld="0" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
-  <formats count="47">
-    <format dxfId="89">
+  <formats count="59">
+    <format dxfId="117">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="116">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2215,7 +2348,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2224,7 +2357,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="114">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2233,7 +2366,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2242,7 +2375,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="112">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2251,11 +2384,293 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="111">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="110">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="109">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="108">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="107">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="106">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="105">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="104">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="103">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="102">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="4">
+            <x v="25"/>
+            <x v="26"/>
+            <x v="27"/>
+            <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="101">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="4">
+            <x v="25"/>
+            <x v="26"/>
+            <x v="27"/>
+            <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="100">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="99">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="98">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="2">
+            <x v="4"/>
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="97">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="2">
+            <x v="4"/>
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="96">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="2">
+            <x v="7"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="95">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="2">
+            <x v="7"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="94">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="2">
+            <x v="11"/>
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="93">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="2">
+            <x v="11"/>
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="92">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="8">
+            <x v="14"/>
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="20"/>
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="91">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="8">
+            <x v="14"/>
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="20"/>
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="90">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="89">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="88">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="29"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="87">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="29"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="86">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="85">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="84">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
-            <x v="9"/>
+            <x v="24"/>
           </reference>
         </references>
       </pivotArea>
@@ -2282,7 +2697,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
-            <x v="24"/>
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
@@ -2291,7 +2706,7 @@
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
-            <x v="24"/>
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
@@ -2300,7 +2715,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
-            <x v="6"/>
+            <x v="26"/>
           </reference>
         </references>
       </pivotArea>
@@ -2309,7 +2724,7 @@
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
-            <x v="6"/>
+            <x v="26"/>
           </reference>
         </references>
       </pivotArea>
@@ -2318,7 +2733,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
-            <x v="3"/>
+            <x v="30"/>
           </reference>
         </references>
       </pivotArea>
@@ -2327,7 +2742,7 @@
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
-            <x v="3"/>
+            <x v="30"/>
           </reference>
         </references>
       </pivotArea>
@@ -2335,12 +2750,8 @@
     <format dxfId="74">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
-          <reference field="2" count="5">
-            <x v="26"/>
-            <x v="27"/>
-            <x v="28"/>
-            <x v="29"/>
-            <x v="30"/>
+          <reference field="2" count="1">
+            <x v="31"/>
           </reference>
         </references>
       </pivotArea>
@@ -2348,12 +2759,8 @@
     <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="2" count="5">
-            <x v="26"/>
-            <x v="27"/>
-            <x v="28"/>
-            <x v="29"/>
-            <x v="30"/>
+          <reference field="2" count="1">
+            <x v="31"/>
           </reference>
         </references>
       </pivotArea>
@@ -2362,7 +2769,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
-            <x v="10"/>
+            <x v="32"/>
           </reference>
         </references>
       </pivotArea>
@@ -2371,7 +2778,7 @@
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
-            <x v="10"/>
+            <x v="32"/>
           </reference>
         </references>
       </pivotArea>
@@ -2380,7 +2787,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
-            <x v="13"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -2389,7 +2796,7 @@
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
-            <x v="13"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -2398,7 +2805,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
-            <x v="9"/>
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -2407,7 +2814,7 @@
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
-            <x v="9"/>
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -2416,7 +2823,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
-            <x v="3"/>
+            <x v="13"/>
           </reference>
         </references>
       </pivotArea>
@@ -2425,7 +2832,7 @@
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
-            <x v="3"/>
+            <x v="13"/>
           </reference>
         </references>
       </pivotArea>
@@ -2434,9 +2841,9 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
+            <x v="27"/>
+            <x v="28"/>
+            <x v="29"/>
           </reference>
         </references>
       </pivotArea>
@@ -2445,9 +2852,9 @@
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
+            <x v="27"/>
+            <x v="28"/>
+            <x v="29"/>
           </reference>
         </references>
       </pivotArea>
@@ -2455,9 +2862,8 @@
     <format dxfId="62">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
-          <reference field="2" count="2">
-            <x v="4"/>
-            <x v="5"/>
+          <reference field="2" count="1">
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -2465,9 +2871,8 @@
     <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="2" count="2">
-            <x v="4"/>
-            <x v="5"/>
+          <reference field="2" count="1">
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -2476,8 +2881,8 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
-            <x v="7"/>
-            <x v="8"/>
+            <x v="31"/>
+            <x v="32"/>
           </reference>
         </references>
       </pivotArea>
@@ -2486,168 +2891,8 @@
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
-            <x v="7"/>
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="58">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="2">
-            <x v="11"/>
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="57">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="2">
-            <x v="11"/>
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="56">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="8">
-            <x v="14"/>
-            <x v="15"/>
-            <x v="16"/>
-            <x v="17"/>
-            <x v="18"/>
-            <x v="19"/>
-            <x v="20"/>
-            <x v="21"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="55">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="8">
-            <x v="14"/>
-            <x v="15"/>
-            <x v="16"/>
-            <x v="17"/>
-            <x v="18"/>
-            <x v="19"/>
-            <x v="20"/>
-            <x v="21"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="54">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="23"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="53">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="23"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="52">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
             <x v="31"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="51">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="31"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="50">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="24"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="49">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="24"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="48">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="25"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="47">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="25"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="26"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="26"/>
+            <x v="32"/>
           </reference>
         </references>
       </pivotArea>
@@ -2951,7 +3196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2992,28 +3239,28 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="9">
         <v>100000</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>300</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="9">
         <f t="shared" ref="D2:D24" si="0">B2*C2</f>
         <v>30000000</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="9">
         <v>100000</v>
       </c>
-      <c r="F2" s="13">
-        <v>300</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="F2" s="10">
+        <v>400</v>
+      </c>
+      <c r="G2" s="9">
         <f>E2*F2</f>
-        <v>30000000</v>
+        <v>40000000</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -3044,7 +3291,7 @@
         <v>3000000</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
@@ -3072,7 +3319,7 @@
         <v>2000000</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
@@ -3216,26 +3463,26 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>250000</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>2</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>286667</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="9">
         <f>E10*F10</f>
         <v>860001</v>
       </c>
@@ -3244,31 +3491,31 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>500000</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>1</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <v>1390950</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="10">
         <v>1</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="9">
         <f t="shared" ref="G11:G19" si="2">E11*F11</f>
         <v>1390950</v>
       </c>
       <c r="H11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3384,26 +3631,26 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="9">
         <v>7000</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="8">
         <v>40</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="9">
         <f t="shared" si="0"/>
         <v>280000</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="9">
         <v>7000</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="10">
         <v>40</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="9">
         <f t="shared" si="2"/>
         <v>280000</v>
       </c>
@@ -3434,31 +3681,31 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="9">
         <v>30000</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <v>5</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="9">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="9">
         <v>36000</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="10">
         <v>5</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="9">
         <f t="shared" si="2"/>
         <v>180000</v>
       </c>
       <c r="H18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3540,31 +3787,31 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="9">
         <v>20000</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="8">
         <v>100</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="9">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="9">
         <v>15000</v>
       </c>
-      <c r="F22" s="13">
-        <v>150</v>
-      </c>
-      <c r="G22" s="12">
+      <c r="F22" s="10">
+        <v>175</v>
+      </c>
+      <c r="G22" s="9">
         <f t="shared" si="1"/>
-        <v>2250000</v>
+        <v>2625000</v>
       </c>
       <c r="H22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3643,26 +3890,26 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="9">
         <v>7000000</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="8">
         <v>1</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="9">
         <f t="shared" si="3"/>
         <v>7000000</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="9">
         <v>7000000</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="10">
         <v>1</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="9">
         <f t="shared" si="4"/>
         <v>7000000</v>
       </c>
@@ -3896,58 +4143,58 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="9">
         <v>15000</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="8">
         <v>300</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="9">
         <f t="shared" si="3"/>
         <v>4500000</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="9">
         <v>15000</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="10">
         <v>300</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="9">
         <f t="shared" si="5"/>
         <v>4500000</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="9">
         <v>1250000</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="8">
         <v>2</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="9">
         <f t="shared" si="3"/>
         <v>2500000</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="9">
         <v>1250000</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="10">
         <v>2</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="9">
         <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B38" s="12">
         <v>1000000</v>
@@ -3971,26 +4218,26 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="9">
         <v>25000</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="8">
         <v>100</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="9">
         <f t="shared" si="3"/>
         <v>2500000</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="9">
         <v>18000</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="10">
         <v>200</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="9">
         <f t="shared" si="5"/>
         <v>3600000</v>
       </c>
@@ -4237,7 +4484,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="1">
         <f>SUM(G2:G48)</f>
-        <v>113509333</v>
+        <v>123884333</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4635,10 +4882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E92" sqref="A92:E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5410,7 +5657,7 @@
         <v>43585</v>
       </c>
       <c r="C47" s="5">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="D47" t="s">
         <v>27</v>
@@ -5421,7 +5668,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B48" s="4">
         <v>43608</v>
@@ -5438,7 +5685,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B49" s="4">
         <v>43605</v>
@@ -5455,7 +5702,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B50" s="4">
         <v>43605</v>
@@ -5472,7 +5719,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B51" s="4">
         <v>43607</v>
@@ -5489,7 +5736,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B52" s="4">
         <v>43608</v>
@@ -5506,7 +5753,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B53" s="4">
         <v>43619</v>
@@ -5523,7 +5770,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B54" s="4">
         <v>43621</v>
@@ -5540,7 +5787,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B55" s="4">
         <v>43621</v>
@@ -5557,7 +5804,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B56" s="4">
         <v>43621</v>
@@ -5574,7 +5821,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B57" s="4">
         <v>43621</v>
@@ -5591,7 +5838,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B58" s="4">
         <v>43630</v>
@@ -5625,7 +5872,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B60" s="4">
         <v>43627</v>
@@ -5642,7 +5889,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B61" s="4">
         <v>43629</v>
@@ -5654,12 +5901,12 @@
         <v>27</v>
       </c>
       <c r="E61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B62" s="4">
         <v>43637</v>
@@ -5676,7 +5923,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B63" s="4">
         <v>43636</v>
@@ -5693,7 +5940,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B64" s="4">
         <v>43646</v>
@@ -5710,7 +5957,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B65" s="4">
         <v>43648</v>
@@ -5722,12 +5969,12 @@
         <v>26</v>
       </c>
       <c r="E65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B66" s="26">
         <v>43649</v>
@@ -5739,12 +5986,12 @@
         <v>26</v>
       </c>
       <c r="E66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B67" s="26">
         <v>43649</v>
@@ -5761,7 +6008,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B68" s="26">
         <v>43657</v>
@@ -5770,15 +6017,15 @@
         <v>342000</v>
       </c>
       <c r="D68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E68" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B69" s="26">
         <v>43676</v>
@@ -5790,108 +6037,117 @@
         <v>26</v>
       </c>
       <c r="E69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="26">
+        <v>43682</v>
+      </c>
+      <c r="C70" s="5">
+        <v>280000</v>
+      </c>
+      <c r="D70" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" t="s">
         <v>171</v>
-      </c>
-      <c r="B70" s="26">
-        <v>43658</v>
-      </c>
-      <c r="C70" s="5">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B71" s="26">
-        <v>43658</v>
+        <v>43676</v>
       </c>
       <c r="C71" s="5">
-        <v>0</v>
+        <v>500000</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
       </c>
       <c r="E71" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="B72" s="26">
-        <v>43676</v>
+        <v>43689</v>
       </c>
       <c r="C72" s="5">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="E72" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="B73" s="26">
-        <v>43658</v>
+        <v>43654</v>
       </c>
       <c r="C73" s="5">
-        <v>0</v>
+        <v>170000</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
       </c>
       <c r="E73" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B74" s="26">
-        <v>43654</v>
+        <v>43659</v>
       </c>
       <c r="C74" s="5">
-        <v>170000</v>
+        <v>517500</v>
       </c>
       <c r="D74" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B75" s="26">
-        <v>43659</v>
+        <v>43660</v>
       </c>
       <c r="C75" s="5">
-        <v>517500</v>
+        <v>50000</v>
       </c>
       <c r="D75" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="E75" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B76" s="26">
-        <v>43660</v>
+        <v>43659</v>
       </c>
       <c r="C76" s="5">
-        <v>50000</v>
+        <v>461000</v>
       </c>
       <c r="D76" t="s">
         <v>27</v>
@@ -5902,251 +6158,446 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="B77" s="26">
-        <v>43659</v>
+        <v>43663</v>
       </c>
       <c r="C77" s="5">
-        <v>461000</v>
+        <v>6500000</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="E77" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="B78" s="26">
         <v>43663</v>
       </c>
       <c r="C78" s="5">
-        <v>6500000</v>
+        <v>157500</v>
       </c>
       <c r="D78" t="s">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="B79" s="26">
-        <v>43663</v>
+        <v>43671</v>
       </c>
       <c r="C79" s="5">
-        <v>157500</v>
+        <v>3200000</v>
       </c>
       <c r="D79" t="s">
         <v>27</v>
       </c>
       <c r="E79" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B80" s="26">
-        <v>43671</v>
+        <v>43676</v>
       </c>
       <c r="C80" s="5">
-        <v>3200000</v>
+        <v>1375000</v>
       </c>
       <c r="D80" t="s">
         <v>27</v>
       </c>
       <c r="E80" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="B81" s="26">
-        <v>43676</v>
+        <v>43680</v>
       </c>
       <c r="C81" s="5">
-        <v>1375000</v>
+        <v>1850000</v>
       </c>
       <c r="D81" t="s">
         <v>27</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="B82" s="26">
-        <v>43680</v>
+        <v>43678</v>
       </c>
       <c r="C82" s="5">
-        <v>1850000</v>
+        <v>22050000</v>
       </c>
       <c r="D82" t="s">
         <v>27</v>
       </c>
       <c r="E82" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="B83" s="26">
-        <v>43678</v>
+        <v>43677</v>
       </c>
       <c r="C83" s="5">
-        <v>22050000</v>
+        <v>349300</v>
       </c>
       <c r="D83" t="s">
         <v>27</v>
       </c>
       <c r="E83" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="B84" s="26">
-        <v>43677</v>
+        <v>43679</v>
       </c>
       <c r="C84" s="5">
-        <v>349300</v>
+        <v>411000</v>
       </c>
       <c r="D84" t="s">
         <v>27</v>
       </c>
       <c r="E84" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
       <c r="B85" s="26">
-        <v>43679</v>
+        <v>43682</v>
       </c>
       <c r="C85" s="5">
-        <v>411000</v>
+        <v>3500000</v>
       </c>
       <c r="D85" t="s">
         <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="26"/>
-      <c r="C86" s="5"/>
+      <c r="A86" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" s="26">
+        <v>43682</v>
+      </c>
+      <c r="C86" s="5">
+        <v>1800000</v>
+      </c>
+      <c r="D86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="26"/>
-      <c r="C87" s="5"/>
+      <c r="A87" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" s="26">
+        <v>43682</v>
+      </c>
+      <c r="C87" s="5">
+        <v>400000</v>
+      </c>
+      <c r="D87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="26"/>
-      <c r="C88" s="5"/>
+      <c r="A88" t="s">
+        <v>193</v>
+      </c>
+      <c r="B88" s="26">
+        <v>43682</v>
+      </c>
+      <c r="C88" s="5">
+        <v>150000</v>
+      </c>
+      <c r="D88" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="26"/>
-      <c r="C89" s="5"/>
+      <c r="A89" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" s="26">
+        <v>43678</v>
+      </c>
+      <c r="C89" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="26"/>
-      <c r="C90" s="5"/>
+      <c r="A90" t="s">
+        <v>197</v>
+      </c>
+      <c r="B90" s="26">
+        <v>43690</v>
+      </c>
+      <c r="C90" s="5">
+        <v>12000000</v>
+      </c>
+      <c r="D90" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="26"/>
-      <c r="C91" s="5"/>
+      <c r="A91" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91" s="26">
+        <v>43690</v>
+      </c>
+      <c r="C91" s="5">
+        <v>4850000</v>
+      </c>
+      <c r="D91" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="26"/>
-      <c r="C92" s="5"/>
+      <c r="A92" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" s="26">
+        <v>43690</v>
+      </c>
+      <c r="C92" s="5">
+        <v>4090000</v>
+      </c>
+      <c r="D92" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="26"/>
-      <c r="C93" s="5"/>
+      <c r="A93" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" s="26">
+        <v>43690</v>
+      </c>
+      <c r="C93" s="5">
+        <v>200000</v>
+      </c>
+      <c r="D93" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="26"/>
-      <c r="C94" s="5"/>
+      <c r="A94" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" s="26">
+        <v>43690</v>
+      </c>
+      <c r="C94" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="D94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="26"/>
-      <c r="C95" s="5"/>
+      <c r="A95" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95" s="26">
+        <v>43690</v>
+      </c>
+      <c r="C95" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="D95" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="26"/>
-      <c r="C96" s="5"/>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="26"/>
-      <c r="C97" s="5"/>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="26"/>
-      <c r="C98" s="5"/>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="26"/>
-      <c r="C99" s="5"/>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="26"/>
-      <c r="C100" s="5"/>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>164</v>
+      </c>
+      <c r="B96" s="26">
+        <v>43688</v>
+      </c>
+      <c r="C96" s="5">
+        <v>500000</v>
+      </c>
+      <c r="D96" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="26">
+        <v>43690</v>
+      </c>
+      <c r="C97" s="5">
+        <v>2200000</v>
+      </c>
+      <c r="D97" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" s="26">
+        <v>43692</v>
+      </c>
+      <c r="C98" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="D98" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" s="4">
+        <v>43690</v>
+      </c>
+      <c r="C99" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="D99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100" s="4">
+        <v>43691</v>
+      </c>
+      <c r="C100" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="D100" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" s="4"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" s="4"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
@@ -6256,12 +6707,6 @@
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="4"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="4"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6271,10 +6716,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E36"/>
+  <dimension ref="A3:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6285,7 +6730,7 @@
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>138</v>
       </c>
@@ -6293,965 +6738,412 @@
         <v>140</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="29">
         <v>39000</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="29">
         <v>86500</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="29">
         <v>1982700</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
+        <v>5850000</v>
+      </c>
+      <c r="C7" s="30">
+        <v>5750000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="29">
+        <v>4263250</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="29">
+        <v>2462982</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="29">
+        <v>47390000</v>
+      </c>
+      <c r="C10" s="30">
+        <v>47300000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="29">
+        <v>3000000</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="29">
         <v>1000000</v>
       </c>
-      <c r="C7" s="31">
-        <v>5750000</v>
-      </c>
-      <c r="D7" s="31">
-        <f>C7-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Fams Wo")</f>
-        <v>4750000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="33">
-        <v>1763250</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="33">
-        <v>2462982</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="33">
-        <v>43300000</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="33">
-        <v>3000000</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="33">
+      <c r="C12" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="29">
+        <v>9500000</v>
+      </c>
+      <c r="C13" s="30">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="29">
+        <v>8200000</v>
+      </c>
+      <c r="C14" s="30">
+        <v>7000000</v>
+      </c>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="29">
+        <v>584750</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="29">
+        <v>14024000</v>
+      </c>
+      <c r="C17" s="30">
+        <v>13837500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="29">
+        <v>2000000</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="29">
+        <v>4314250</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="29">
+        <v>5840400</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="29">
+        <v>4277600</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="29">
+        <v>5848000</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="29">
+        <v>610000</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="29">
+        <v>2275000</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="29">
+        <v>2000000</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="29">
+        <v>130000</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="29">
+        <v>3600000</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="29">
+        <v>2625000</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="31"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="29">
+        <v>1411000</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="31"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="29">
+        <v>280000</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="31"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="29">
         <v>1000000</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="30">
-        <v>7500000</v>
-      </c>
-      <c r="C13" s="31">
-        <v>9000000</v>
-      </c>
-      <c r="D13" s="31">
-        <f>C13-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Koh Bastian")</f>
-        <v>1500000</v>
-      </c>
-      <c r="E13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="30">
-        <v>3500000</v>
-      </c>
-      <c r="C14" s="31">
-        <v>7000000</v>
-      </c>
-      <c r="D14" s="31">
-        <f>C14-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Laura Salon")</f>
-        <v>3500000</v>
-      </c>
-      <c r="E14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="33">
-        <v>2500000</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="33">
-        <v>584750</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="30">
-        <v>2024000</v>
-      </c>
-      <c r="C17" s="31">
-        <v>13837500</v>
-      </c>
-      <c r="D17" s="31">
-        <f>C17-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Niumich")</f>
-        <v>11813500</v>
-      </c>
-      <c r="E17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="33">
-        <v>2000000</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="33">
-        <v>2314250</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" s="33">
-        <v>5840400</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="33">
-        <v>4277600</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="33">
-        <v>5848000</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="33">
-        <v>610000</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="33">
-        <v>2275000</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="33">
-        <v>2000000</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" s="33">
-        <v>130000</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" s="33">
-        <v>3600000</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="42"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="33">
-        <v>2625000</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="42"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="B30" s="33">
-        <v>1411000</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="42"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="30">
-        <v>0</v>
-      </c>
-      <c r="C31" s="31">
-        <v>280000</v>
-      </c>
-      <c r="D31" s="31">
-        <f>C31-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Jade Bubble")</f>
-        <v>280000</v>
-      </c>
-      <c r="E31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="30">
-        <v>0</v>
-      </c>
-      <c r="C32" s="31">
-        <v>180000</v>
-      </c>
-      <c r="D32" s="31">
-        <f>C32-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Kobayashi")</f>
-        <v>180000</v>
-      </c>
-      <c r="E32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="B33" s="30">
-        <v>500000</v>
-      </c>
-      <c r="C33" s="31">
-        <v>1000000</v>
-      </c>
-      <c r="D33" s="31">
-        <f>C33-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","Krupuk Soun")</f>
-        <v>500000</v>
-      </c>
-      <c r="E33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="C31" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="31"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="29">
+        <v>800000</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B34" s="30">
-        <v>0</v>
-      </c>
-      <c r="C34" s="31">
-        <v>500000</v>
-      </c>
-      <c r="D34" s="31">
-        <f>C34-GETPIVOTDATA("NOMINAL",$A$3,"VENDOR","angpao")</f>
-        <v>500000</v>
-      </c>
-      <c r="E34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" s="33">
+      <c r="B33" s="29">
         <v>859500</v>
       </c>
+      <c r="C33" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" s="29">
+        <v>1800000</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="29">
+        <v>2200000</v>
+      </c>
       <c r="C35" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="29">
+        <v>1550000</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="15">
-        <v>105033932</v>
-      </c>
-      <c r="D36" s="5">
-        <f>SUM(D4:D35)</f>
-        <v>23023500</v>
-      </c>
+      <c r="B37" s="15">
+        <v>144303932</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A4:A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="34">
-        <v>27000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="34">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="34">
-        <v>3300000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="34">
-        <v>4600000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="5">
-        <v>-4750000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="5">
-        <v>-15750000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="5">
-        <v>-1500000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="5">
-        <v>-3500000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="5">
-        <v>-11837500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="5">
-        <v>-400000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="5">
-        <v>-280000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="5">
-        <v>-180000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="5">
-        <v>-500000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="5">
-        <v>-500000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="5">
-        <v>-2300000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>202</v>
-      </c>
-      <c r="C26" s="5">
-        <f>SUM(C2:C24)</f>
-        <v>-5097500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="37">
-        <v>-4750000</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F2" s="37">
-        <v>-4750000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="39">
-        <v>-15750000</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="38">
-        <v>43678</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="39">
-        <v>-8000000</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="38">
-        <v>43663</v>
-      </c>
-      <c r="E4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="39">
-        <v>-6500000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="39">
-        <v>-3500000</v>
-      </c>
-      <c r="C5" s="39">
-        <v>-3500000</v>
-      </c>
-      <c r="D5" s="38">
-        <v>43682</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="37">
-        <v>-11837500</v>
-      </c>
-      <c r="C6" s="37">
-        <v>-11837500</v>
-      </c>
-      <c r="D6" s="36"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="39">
-        <v>-3200000</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="38"/>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="39">
-        <v>-1000000</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="38"/>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="39">
-        <v>-1400000</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="38">
-        <v>43674</v>
-      </c>
-      <c r="E9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" s="39">
-        <v>-280000</v>
-      </c>
-      <c r="C10" s="39">
-        <v>-280000</v>
-      </c>
-      <c r="D10" s="38">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="39">
-        <v>-180000</v>
-      </c>
-      <c r="C11" s="39">
-        <v>-180000</v>
-      </c>
-      <c r="D11" s="38">
-        <v>43687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="39">
-        <v>-1000000</v>
-      </c>
-      <c r="C12" s="39">
-        <v>-500000</v>
-      </c>
-      <c r="D12" s="38">
-        <v>43670</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="39">
-        <v>-500000</v>
-      </c>
-      <c r="C13" s="39">
-        <v>-500000</v>
-      </c>
-      <c r="D13" s="38">
-        <v>43688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" s="39">
-        <v>-2300000</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="38">
-        <v>43677</v>
-      </c>
-      <c r="E14" t="s">
-        <v>207</v>
-      </c>
-      <c r="F14" s="39">
-        <v>-2300000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" s="39">
-        <v>-2658000</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="38">
-        <v>43670</v>
-      </c>
-      <c r="E15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F15" s="39">
-        <v>-2658000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="36"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="36"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37">
-        <v>18000000</v>
-      </c>
-      <c r="D18" s="36"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="36"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="36"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="36"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="36"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="37">
-        <f>SUM(B2:B23)</f>
-        <v>-56355500</v>
-      </c>
-      <c r="C24" s="37">
-        <f>SUM(C2:C23)</f>
-        <v>1202500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="2321" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
-</worksheet>
 </file>